--- a/new_data/double_hit/20260205_203622_phrase34/20260205_203622_phrase34_keypoints.xlsx
+++ b/new_data/double_hit/20260205_203622_phrase34/20260205_203622_phrase34_keypoints.xlsx
@@ -491,1857 +491,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.063247380174797</v>
+        <v>3.136375461752936</v>
       </c>
       <c r="B2" t="n">
-        <v>8.037707687410553</v>
+        <v>3.114019314848609</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0856904032062</v>
+        <v>3.12886593773475</v>
       </c>
       <c r="D2" t="n">
-        <v>8.024007649563758</v>
+        <v>2.978068642509339</v>
       </c>
       <c r="E2" t="n">
-        <v>8.162835827629161</v>
+        <v>3.018720865828995</v>
       </c>
       <c r="F2" t="n">
-        <v>8.010497472285369</v>
+        <v>2.934409910092736</v>
       </c>
       <c r="G2" t="n">
-        <v>8.317476320690165</v>
+        <v>2.940516079690836</v>
       </c>
       <c r="H2" t="n">
-        <v>8.025342312965408</v>
+        <v>2.959629226994478</v>
       </c>
       <c r="I2" t="n">
-        <v>8.394866120102161</v>
+        <v>3.105898983765707</v>
       </c>
       <c r="J2" t="n">
-        <v>8.138476654042714</v>
+        <v>3.220829186274007</v>
       </c>
       <c r="K2" t="n">
-        <v>8.266794827772028</v>
+        <v>3.264145349649024</v>
       </c>
       <c r="L2" t="n">
-        <v>8.11922930394484</v>
+        <v>2.891559503738746</v>
       </c>
       <c r="M2" t="n">
-        <v>8.340624271574551</v>
+        <v>2.973120782106794</v>
       </c>
       <c r="N2" t="n">
-        <v>8.001412988718648</v>
+        <v>2.846861277693176</v>
       </c>
       <c r="O2" t="n">
-        <v>8.42761988786321</v>
+        <v>3.341390296114056</v>
       </c>
       <c r="P2" t="n">
-        <v>8.12810011604679</v>
+        <v>2.675179247540066</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.379407835539393</v>
+        <v>3.511666880693107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.025457607832031</v>
+        <v>3.247178106530417</v>
       </c>
       <c r="B3" t="n">
-        <v>8.004314785062798</v>
+        <v>3.232327111231426</v>
       </c>
       <c r="C3" t="n">
-        <v>8.046836659757329</v>
+        <v>3.23997693267064</v>
       </c>
       <c r="D3" t="n">
-        <v>8.007430252871719</v>
+        <v>3.080052320672378</v>
       </c>
       <c r="E3" t="n">
-        <v>8.143223794855343</v>
+        <v>3.165946660175218</v>
       </c>
       <c r="F3" t="n">
-        <v>8.005446429242788</v>
+        <v>2.989139591846667</v>
       </c>
       <c r="G3" t="n">
-        <v>8.322695919814926</v>
+        <v>3.132445993334732</v>
       </c>
       <c r="H3" t="n">
-        <v>8.031274985776122</v>
+        <v>3.121002438380584</v>
       </c>
       <c r="I3" t="n">
-        <v>8.396079849214365</v>
+        <v>3.148274508063157</v>
       </c>
       <c r="J3" t="n">
-        <v>8.167048476478595</v>
+        <v>3.090013437565319</v>
       </c>
       <c r="K3" t="n">
-        <v>8.275049062978567</v>
+        <v>3.25019697244629</v>
       </c>
       <c r="L3" t="n">
-        <v>8.120851577910505</v>
+        <v>2.978085942055834</v>
       </c>
       <c r="M3" t="n">
-        <v>8.347342703965392</v>
+        <v>3.15603211898438</v>
       </c>
       <c r="N3" t="n">
-        <v>8.002613559177597</v>
+        <v>2.898434647683805</v>
       </c>
       <c r="O3" t="n">
-        <v>8.384344210317888</v>
+        <v>3.487822782685283</v>
       </c>
       <c r="P3" t="n">
-        <v>8.147742225742336</v>
+        <v>2.708402171112096</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.390416615494127</v>
+        <v>3.551439108400384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.009915358529438</v>
+        <v>3.315780123524465</v>
       </c>
       <c r="B4" t="n">
-        <v>7.986459119197347</v>
+        <v>3.299071423078755</v>
       </c>
       <c r="C4" t="n">
-        <v>8.033805206816433</v>
+        <v>3.306233055117971</v>
       </c>
       <c r="D4" t="n">
-        <v>7.9865975983578</v>
+        <v>3.10986533253578</v>
       </c>
       <c r="E4" t="n">
-        <v>8.123226401521892</v>
+        <v>3.233645298653383</v>
       </c>
       <c r="F4" t="n">
-        <v>7.990819646245273</v>
+        <v>3.072450785879426</v>
       </c>
       <c r="G4" t="n">
-        <v>8.307323479799587</v>
+        <v>3.158496829097685</v>
       </c>
       <c r="H4" t="n">
-        <v>8.028671452239102</v>
+        <v>3.108956631082513</v>
       </c>
       <c r="I4" t="n">
-        <v>8.390993089827234</v>
+        <v>3.179515968194309</v>
       </c>
       <c r="J4" t="n">
-        <v>8.17917323554992</v>
+        <v>3.034469726601579</v>
       </c>
       <c r="K4" t="n">
-        <v>8.281164077127253</v>
+        <v>3.217043437165148</v>
       </c>
       <c r="L4" t="n">
-        <v>8.118115204635856</v>
+        <v>3.018885116468246</v>
       </c>
       <c r="M4" t="n">
-        <v>8.342879414101565</v>
+        <v>3.158259768279228</v>
       </c>
       <c r="N4" t="n">
-        <v>8.002589121678692</v>
+        <v>2.910059752823699</v>
       </c>
       <c r="O4" t="n">
-        <v>8.398923998125206</v>
+        <v>3.487465765670799</v>
       </c>
       <c r="P4" t="n">
-        <v>8.166316604716563</v>
+        <v>2.72752786533957</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.373860523288309</v>
+        <v>3.550906434452256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.024681247289944</v>
+        <v>3.114607879639261</v>
       </c>
       <c r="B5" t="n">
-        <v>8.003324126453405</v>
+        <v>3.081132876961158</v>
       </c>
       <c r="C5" t="n">
-        <v>8.043859044506325</v>
+        <v>3.10640276176804</v>
       </c>
       <c r="D5" t="n">
-        <v>8.010623419395102</v>
+        <v>3.033617676410462</v>
       </c>
       <c r="E5" t="n">
-        <v>8.131433014935698</v>
+        <v>3.056182368397264</v>
       </c>
       <c r="F5" t="n">
-        <v>8.008033671113873</v>
+        <v>3.044011091860877</v>
       </c>
       <c r="G5" t="n">
-        <v>8.322175213107522</v>
+        <v>3.143273608391687</v>
       </c>
       <c r="H5" t="n">
-        <v>8.037437621717542</v>
+        <v>3.196005667787684</v>
       </c>
       <c r="I5" t="n">
-        <v>8.393971331680774</v>
+        <v>3.202292056837185</v>
       </c>
       <c r="J5" t="n">
-        <v>8.181532394097905</v>
+        <v>3.085233249690343</v>
       </c>
       <c r="K5" t="n">
-        <v>8.27061083721618</v>
+        <v>3.216922910654401</v>
       </c>
       <c r="L5" t="n">
-        <v>8.132668048534127</v>
+        <v>3.057455310851464</v>
       </c>
       <c r="M5" t="n">
-        <v>8.358523173014985</v>
+        <v>3.196366106690486</v>
       </c>
       <c r="N5" t="n">
-        <v>8.000849046436262</v>
+        <v>2.967795373359858</v>
       </c>
       <c r="O5" t="n">
-        <v>8.413207402933001</v>
+        <v>3.521194558399134</v>
       </c>
       <c r="P5" t="n">
-        <v>8.164068354817445</v>
+        <v>2.765667091899659</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.371236938470137</v>
+        <v>3.564193246580226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.998083222842419</v>
+        <v>3.436991392144884</v>
       </c>
       <c r="B6" t="n">
-        <v>7.983133739538871</v>
+        <v>3.41952721480058</v>
       </c>
       <c r="C6" t="n">
-        <v>8.015968339027062</v>
+        <v>3.432952803510325</v>
       </c>
       <c r="D6" t="n">
-        <v>8.007538655110444</v>
+        <v>3.267468763625175</v>
       </c>
       <c r="E6" t="n">
-        <v>8.106818814117105</v>
+        <v>3.363478204995253</v>
       </c>
       <c r="F6" t="n">
-        <v>7.999974309296024</v>
+        <v>3.160707749160758</v>
       </c>
       <c r="G6" t="n">
-        <v>8.309059795426805</v>
+        <v>3.31625690663007</v>
       </c>
       <c r="H6" t="n">
-        <v>8.020547550360046</v>
+        <v>3.174521532089661</v>
       </c>
       <c r="I6" t="n">
-        <v>8.384342330510281</v>
+        <v>3.281032748706883</v>
       </c>
       <c r="J6" t="n">
-        <v>8.175803993713924</v>
+        <v>3.34091085153976</v>
       </c>
       <c r="K6" t="n">
-        <v>8.268804342104934</v>
+        <v>3.372562177849414</v>
       </c>
       <c r="L6" t="n">
-        <v>8.122008286191935</v>
+        <v>3.054731677855449</v>
       </c>
       <c r="M6" t="n">
-        <v>8.342451444569486</v>
+        <v>3.226071138966972</v>
       </c>
       <c r="N6" t="n">
-        <v>8.007684026898794</v>
+        <v>3.003507720683043</v>
       </c>
       <c r="O6" t="n">
-        <v>8.403441175807126</v>
+        <v>3.546711959794333</v>
       </c>
       <c r="P6" t="n">
-        <v>8.165513926867964</v>
+        <v>2.798985638239678</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.318620496920875</v>
+        <v>3.575010976182041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.980496369464906</v>
+        <v>3.44734792724343</v>
       </c>
       <c r="B7" t="n">
-        <v>7.95633520227983</v>
+        <v>3.430115297675293</v>
       </c>
       <c r="C7" t="n">
-        <v>7.997323780568805</v>
+        <v>3.433154314711259</v>
       </c>
       <c r="D7" t="n">
-        <v>7.965032445479314</v>
+        <v>3.247000928757521</v>
       </c>
       <c r="E7" t="n">
-        <v>8.086757507324984</v>
+        <v>3.37945614218022</v>
       </c>
       <c r="F7" t="n">
-        <v>7.979792694816995</v>
+        <v>3.182304426963453</v>
       </c>
       <c r="G7" t="n">
-        <v>8.288750354030434</v>
+        <v>3.321795042767425</v>
       </c>
       <c r="H7" t="n">
-        <v>8.026739636620658</v>
+        <v>3.258580598824752</v>
       </c>
       <c r="I7" t="n">
-        <v>8.370787037849299</v>
+        <v>3.314235711263725</v>
       </c>
       <c r="J7" t="n">
-        <v>8.173602739005005</v>
+        <v>3.401038752219831</v>
       </c>
       <c r="K7" t="n">
-        <v>8.248206663542009</v>
+        <v>3.410271387110906</v>
       </c>
       <c r="L7" t="n">
-        <v>8.134503367362028</v>
+        <v>3.110348579208207</v>
       </c>
       <c r="M7" t="n">
-        <v>8.357783155419986</v>
+        <v>3.268013604287322</v>
       </c>
       <c r="N7" t="n">
-        <v>7.985844422109545</v>
+        <v>3.037839526174927</v>
       </c>
       <c r="O7" t="n">
-        <v>8.39210969554636</v>
+        <v>3.557177234899421</v>
       </c>
       <c r="P7" t="n">
-        <v>8.163369692989821</v>
+        <v>2.862342660862257</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.372683763725728</v>
+        <v>3.567064591088623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.97021382184938</v>
+        <v>3.497220048425423</v>
       </c>
       <c r="B8" t="n">
-        <v>7.944135250904187</v>
+        <v>3.485108084619876</v>
       </c>
       <c r="C8" t="n">
-        <v>7.99244192021094</v>
+        <v>3.488757718615652</v>
       </c>
       <c r="D8" t="n">
-        <v>7.950685753815383</v>
+        <v>3.315880498915119</v>
       </c>
       <c r="E8" t="n">
-        <v>8.091353636926438</v>
+        <v>3.44882694341632</v>
       </c>
       <c r="F8" t="n">
-        <v>7.966356456637851</v>
+        <v>3.215572785608146</v>
       </c>
       <c r="G8" t="n">
-        <v>8.30576825230527</v>
+        <v>3.369715546978867</v>
       </c>
       <c r="H8" t="n">
-        <v>8.022406053481779</v>
+        <v>3.233375349686094</v>
       </c>
       <c r="I8" t="n">
-        <v>8.391349000067674</v>
+        <v>3.300803278777344</v>
       </c>
       <c r="J8" t="n">
-        <v>8.157729643563414</v>
+        <v>3.40375116902636</v>
       </c>
       <c r="K8" t="n">
-        <v>8.257032360261368</v>
+        <v>3.406942650197372</v>
       </c>
       <c r="L8" t="n">
-        <v>8.122263940026619</v>
+        <v>3.123350804291086</v>
       </c>
       <c r="M8" t="n">
-        <v>8.364420129481148</v>
+        <v>3.287662087007784</v>
       </c>
       <c r="N8" t="n">
-        <v>7.977808244585527</v>
+        <v>3.12029638875769</v>
       </c>
       <c r="O8" t="n">
-        <v>8.403406086065111</v>
+        <v>3.559890792335388</v>
       </c>
       <c r="P8" t="n">
-        <v>8.169905157440153</v>
+        <v>2.938021903317017</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.378556909295524</v>
+        <v>3.591068757427755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.999305097787592</v>
+        <v>3.534479469478039</v>
       </c>
       <c r="B9" t="n">
-        <v>7.974796166195044</v>
+        <v>3.517563934894012</v>
       </c>
       <c r="C9" t="n">
-        <v>8.019881471864293</v>
+        <v>3.520844765371098</v>
       </c>
       <c r="D9" t="n">
-        <v>7.973331796068445</v>
+        <v>3.319269689188934</v>
       </c>
       <c r="E9" t="n">
-        <v>8.113020299415755</v>
+        <v>3.47252123875779</v>
       </c>
       <c r="F9" t="n">
-        <v>7.988336420395161</v>
+        <v>3.243847468567817</v>
       </c>
       <c r="G9" t="n">
-        <v>8.317086573912782</v>
+        <v>3.404884574479158</v>
       </c>
       <c r="H9" t="n">
-        <v>8.019546866110076</v>
+        <v>3.330552035182335</v>
       </c>
       <c r="I9" t="n">
-        <v>8.399435305794569</v>
+        <v>3.333785719642599</v>
       </c>
       <c r="J9" t="n">
-        <v>8.125839334096954</v>
+        <v>3.410729159725857</v>
       </c>
       <c r="K9" t="n">
-        <v>8.272896683267456</v>
+        <v>3.513971332370199</v>
       </c>
       <c r="L9" t="n">
-        <v>8.132713790519253</v>
+        <v>3.154493980185556</v>
       </c>
       <c r="M9" t="n">
-        <v>8.364613749664768</v>
+        <v>3.320777601307618</v>
       </c>
       <c r="N9" t="n">
-        <v>7.958799003451327</v>
+        <v>3.19272635814985</v>
       </c>
       <c r="O9" t="n">
-        <v>8.399589450018421</v>
+        <v>3.628497371847193</v>
       </c>
       <c r="P9" t="n">
-        <v>8.163177326011274</v>
+        <v>3.005034453187475</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.351765891266915</v>
+        <v>3.581135776060983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.974246009168448</v>
+        <v>3.578786459625948</v>
       </c>
       <c r="B10" t="n">
-        <v>7.957172969870443</v>
+        <v>3.563560197241445</v>
       </c>
       <c r="C10" t="n">
-        <v>7.991844767994145</v>
+        <v>3.565679486739565</v>
       </c>
       <c r="D10" t="n">
-        <v>7.981101667514669</v>
+        <v>3.367248365501777</v>
       </c>
       <c r="E10" t="n">
-        <v>8.099023251966905</v>
+        <v>3.517523632653826</v>
       </c>
       <c r="F10" t="n">
-        <v>8.002700656930099</v>
+        <v>3.278768219060165</v>
       </c>
       <c r="G10" t="n">
-        <v>8.327222496534889</v>
+        <v>3.451576240574718</v>
       </c>
       <c r="H10" t="n">
-        <v>8.015891266915135</v>
+        <v>3.312934633283358</v>
       </c>
       <c r="I10" t="n">
-        <v>8.410818167463287</v>
+        <v>3.411661434187535</v>
       </c>
       <c r="J10" t="n">
-        <v>8.093225925303965</v>
+        <v>3.483967455180629</v>
       </c>
       <c r="K10" t="n">
-        <v>8.277678287219564</v>
+        <v>3.485849493755386</v>
       </c>
       <c r="L10" t="n">
-        <v>8.143407389398387</v>
+        <v>3.235739494303839</v>
       </c>
       <c r="M10" t="n">
-        <v>8.376039846908469</v>
+        <v>3.394468346439958</v>
       </c>
       <c r="N10" t="n">
-        <v>7.985353792323869</v>
+        <v>3.304608798796484</v>
       </c>
       <c r="O10" t="n">
-        <v>8.412397205853971</v>
+        <v>3.725936021904648</v>
       </c>
       <c r="P10" t="n">
-        <v>8.140457971261501</v>
+        <v>3.057068257261746</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.386348711830507</v>
+        <v>3.593049650553914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.976394629264344</v>
+        <v>3.588293986211881</v>
       </c>
       <c r="B11" t="n">
-        <v>7.962984081789176</v>
+        <v>3.582770678257236</v>
       </c>
       <c r="C11" t="n">
-        <v>7.996654569060372</v>
+        <v>3.589117140457204</v>
       </c>
       <c r="D11" t="n">
-        <v>7.994081739047615</v>
+        <v>3.41737598767816</v>
       </c>
       <c r="E11" t="n">
-        <v>8.105600698787148</v>
+        <v>3.559658864349408</v>
       </c>
       <c r="F11" t="n">
-        <v>8.010989981878655</v>
+        <v>3.305254775268911</v>
       </c>
       <c r="G11" t="n">
-        <v>8.335189121177411</v>
+        <v>3.500997813128208</v>
       </c>
       <c r="H11" t="n">
-        <v>8.013423079525888</v>
+        <v>3.391498907799786</v>
       </c>
       <c r="I11" t="n">
-        <v>8.40971409379488</v>
+        <v>3.5344376463986</v>
       </c>
       <c r="J11" t="n">
-        <v>8.107050657055419</v>
+        <v>3.593078166289895</v>
       </c>
       <c r="K11" t="n">
-        <v>8.279419615667068</v>
+        <v>3.61970654075892</v>
       </c>
       <c r="L11" t="n">
-        <v>8.136033530754906</v>
+        <v>3.260104099545773</v>
       </c>
       <c r="M11" t="n">
-        <v>8.365730355383894</v>
+        <v>3.440083638554682</v>
       </c>
       <c r="N11" t="n">
-        <v>7.966143411775616</v>
+        <v>3.383070416663379</v>
       </c>
       <c r="O11" t="n">
-        <v>8.381404191219042</v>
+        <v>3.807527907162649</v>
       </c>
       <c r="P11" t="n">
-        <v>8.152103379392797</v>
+        <v>3.152209869733464</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.337285106660284</v>
+        <v>3.623805582753759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.988838329026485</v>
+        <v>3.677511739690873</v>
       </c>
       <c r="B12" t="n">
-        <v>7.976657175726921</v>
+        <v>3.658833172203583</v>
       </c>
       <c r="C12" t="n">
-        <v>8.012225642079619</v>
+        <v>3.671238277775016</v>
       </c>
       <c r="D12" t="n">
-        <v>8.000313301267992</v>
+        <v>3.474788049663386</v>
       </c>
       <c r="E12" t="n">
-        <v>8.117437847294456</v>
+        <v>3.602942709890312</v>
       </c>
       <c r="F12" t="n">
-        <v>8.014341678843643</v>
+        <v>3.349961746140181</v>
       </c>
       <c r="G12" t="n">
-        <v>8.327027623146197</v>
+        <v>3.547726359575636</v>
       </c>
       <c r="H12" t="n">
-        <v>8.009008664659868</v>
+        <v>3.382634316007774</v>
       </c>
       <c r="I12" t="n">
-        <v>8.426247628309401</v>
+        <v>3.574636469516156</v>
       </c>
       <c r="J12" t="n">
-        <v>8.137046120453059</v>
+        <v>3.556494758284938</v>
       </c>
       <c r="K12" t="n">
-        <v>8.299085536258982</v>
+        <v>3.627286403592526</v>
       </c>
       <c r="L12" t="n">
-        <v>8.136794226233592</v>
+        <v>3.296808794481103</v>
       </c>
       <c r="M12" t="n">
-        <v>8.357380249989347</v>
+        <v>3.470238839249857</v>
       </c>
       <c r="N12" t="n">
-        <v>7.965865200249638</v>
+        <v>3.454460512216759</v>
       </c>
       <c r="O12" t="n">
-        <v>8.36801620143517</v>
+        <v>3.853143579487186</v>
       </c>
       <c r="P12" t="n">
-        <v>8.164396067943766</v>
+        <v>3.231057210455732</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.373732696370968</v>
+        <v>3.700788944867391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.009764973920802</v>
+        <v>3.714129746788819</v>
       </c>
       <c r="B13" t="n">
-        <v>7.993433205422869</v>
+        <v>3.695681206238445</v>
       </c>
       <c r="C13" t="n">
-        <v>8.033374730874211</v>
+        <v>3.701174477617856</v>
       </c>
       <c r="D13" t="n">
-        <v>8.001709998320706</v>
+        <v>3.489463768238546</v>
       </c>
       <c r="E13" t="n">
-        <v>8.129476761818351</v>
+        <v>3.638928808278917</v>
       </c>
       <c r="F13" t="n">
-        <v>8.006480323427166</v>
+        <v>3.392765386687163</v>
       </c>
       <c r="G13" t="n">
-        <v>8.321564275634936</v>
+        <v>3.577670163614739</v>
       </c>
       <c r="H13" t="n">
-        <v>8.012512626041101</v>
+        <v>3.383299302970855</v>
       </c>
       <c r="I13" t="n">
-        <v>8.432123280289339</v>
+        <v>3.5921512147656</v>
       </c>
       <c r="J13" t="n">
-        <v>8.151131518859483</v>
+        <v>3.598247879118373</v>
       </c>
       <c r="K13" t="n">
-        <v>8.301316867889629</v>
+        <v>3.65183845227231</v>
       </c>
       <c r="L13" t="n">
-        <v>8.11031149665269</v>
+        <v>3.349425650303735</v>
       </c>
       <c r="M13" t="n">
-        <v>8.332437709441898</v>
+        <v>3.507519552052007</v>
       </c>
       <c r="N13" t="n">
-        <v>7.968098411687892</v>
+        <v>3.502047952631941</v>
       </c>
       <c r="O13" t="n">
-        <v>8.399826305777024</v>
+        <v>3.920400794372362</v>
       </c>
       <c r="P13" t="n">
-        <v>8.155371111617963</v>
+        <v>3.283462289412478</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.361986405231379</v>
+        <v>3.851080941251215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.000552036834204</v>
+        <v>3.734617732776567</v>
       </c>
       <c r="B14" t="n">
-        <v>7.984022888537434</v>
+        <v>3.720319562545797</v>
       </c>
       <c r="C14" t="n">
-        <v>8.022745045453748</v>
+        <v>3.721922527117752</v>
       </c>
       <c r="D14" t="n">
-        <v>7.995899513004509</v>
+        <v>3.535869136344855</v>
       </c>
       <c r="E14" t="n">
-        <v>8.12482047837344</v>
+        <v>3.676558933899288</v>
       </c>
       <c r="F14" t="n">
-        <v>8.010989981878655</v>
+        <v>3.447490886133149</v>
       </c>
       <c r="G14" t="n">
-        <v>8.319718304563922</v>
+        <v>3.588658227212814</v>
       </c>
       <c r="H14" t="n">
-        <v>8.00651854618186</v>
+        <v>3.449297262955103</v>
       </c>
       <c r="I14" t="n">
-        <v>8.412007459076589</v>
+        <v>3.609683069456634</v>
       </c>
       <c r="J14" t="n">
-        <v>8.078309651934823</v>
+        <v>3.640865216856944</v>
       </c>
       <c r="K14" t="n">
-        <v>8.292636542958617</v>
+        <v>3.720284583242994</v>
       </c>
       <c r="L14" t="n">
-        <v>8.118992448186237</v>
+        <v>3.400046404607687</v>
       </c>
       <c r="M14" t="n">
-        <v>8.337516949598598</v>
+        <v>3.539529036005584</v>
       </c>
       <c r="N14" t="n">
-        <v>7.971145579820391</v>
+        <v>3.513334861143099</v>
       </c>
       <c r="O14" t="n">
-        <v>8.385212681432764</v>
+        <v>3.959597764632446</v>
       </c>
       <c r="P14" t="n">
-        <v>8.145998390884687</v>
+        <v>3.286065205792839</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.384166255197668</v>
+        <v>4.055055521563742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.000552036834204</v>
+        <v>3.804913964697709</v>
       </c>
       <c r="B15" t="n">
-        <v>7.984022888537434</v>
+        <v>3.795516698957569</v>
       </c>
       <c r="C15" t="n">
-        <v>8.022745045453748</v>
+        <v>3.795772580161774</v>
       </c>
       <c r="D15" t="n">
-        <v>7.995899513004509</v>
+        <v>3.609678506938877</v>
       </c>
       <c r="E15" t="n">
-        <v>8.12482047837344</v>
+        <v>3.758510497640466</v>
       </c>
       <c r="F15" t="n">
-        <v>8.010989981878655</v>
+        <v>3.492432446459092</v>
       </c>
       <c r="G15" t="n">
-        <v>8.319718304563922</v>
+        <v>3.661059300659179</v>
       </c>
       <c r="H15" t="n">
-        <v>8.00651854618186</v>
+        <v>3.528469492962649</v>
       </c>
       <c r="I15" t="n">
-        <v>8.412007459076589</v>
+        <v>3.698460920181889</v>
       </c>
       <c r="J15" t="n">
-        <v>8.078309651934823</v>
+        <v>3.741974792659708</v>
       </c>
       <c r="K15" t="n">
-        <v>8.292636542958617</v>
+        <v>3.874088197460446</v>
       </c>
       <c r="L15" t="n">
-        <v>8.118992448186237</v>
+        <v>3.428361009597731</v>
       </c>
       <c r="M15" t="n">
-        <v>8.337516949598598</v>
+        <v>3.604792430630957</v>
       </c>
       <c r="N15" t="n">
-        <v>7.971145579820391</v>
+        <v>3.504964922317907</v>
       </c>
       <c r="O15" t="n">
-        <v>8.385212681432764</v>
+        <v>4.014837687955533</v>
       </c>
       <c r="P15" t="n">
-        <v>8.145998390884687</v>
+        <v>3.291594977314306</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.384166255197668</v>
+        <v>4.219097045418058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.000552036834204</v>
+        <v>3.907468717999997</v>
       </c>
       <c r="B16" t="n">
-        <v>7.984022888537434</v>
+        <v>3.883490405928155</v>
       </c>
       <c r="C16" t="n">
-        <v>8.022745045453748</v>
+        <v>3.887722521357573</v>
       </c>
       <c r="D16" t="n">
-        <v>7.995899513004509</v>
+        <v>3.691014510992674</v>
       </c>
       <c r="E16" t="n">
-        <v>8.12482047837344</v>
+        <v>3.822216552871454</v>
       </c>
       <c r="F16" t="n">
-        <v>8.010989981878655</v>
+        <v>3.598169175687065</v>
       </c>
       <c r="G16" t="n">
-        <v>8.319718304563922</v>
+        <v>3.737178445867675</v>
       </c>
       <c r="H16" t="n">
-        <v>8.00651854618186</v>
+        <v>3.762877967763341</v>
       </c>
       <c r="I16" t="n">
-        <v>8.412007459076589</v>
+        <v>3.838180802503149</v>
       </c>
       <c r="J16" t="n">
-        <v>8.078309651934823</v>
+        <v>3.982037747800558</v>
       </c>
       <c r="K16" t="n">
-        <v>8.292636542958617</v>
+        <v>4.0991663234481</v>
       </c>
       <c r="L16" t="n">
-        <v>8.118992448186237</v>
+        <v>3.476236649051229</v>
       </c>
       <c r="M16" t="n">
-        <v>8.337516949598598</v>
+        <v>3.638184357464902</v>
       </c>
       <c r="N16" t="n">
-        <v>7.971145579820391</v>
+        <v>3.527806407048633</v>
       </c>
       <c r="O16" t="n">
-        <v>8.385212681432764</v>
+        <v>4.091609653413091</v>
       </c>
       <c r="P16" t="n">
-        <v>8.145998390884687</v>
+        <v>3.273576834272341</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.384166255197668</v>
+        <v>4.320629034323156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.005510969303995</v>
+        <v>4.032644054131612</v>
       </c>
       <c r="B17" t="n">
-        <v>7.977503089150503</v>
+        <v>4.011966343447136</v>
       </c>
       <c r="C17" t="n">
-        <v>8.026463304902288</v>
+        <v>4.01860214531486</v>
       </c>
       <c r="D17" t="n">
-        <v>7.967258764289671</v>
+        <v>3.838209698448944</v>
       </c>
       <c r="E17" t="n">
-        <v>8.122137366314348</v>
+        <v>3.944585560372708</v>
       </c>
       <c r="F17" t="n">
-        <v>7.992551575654737</v>
+        <v>3.712277744789296</v>
       </c>
       <c r="G17" t="n">
-        <v>8.313879622133607</v>
+        <v>3.837617331560161</v>
       </c>
       <c r="H17" t="n">
-        <v>8.007792429137519</v>
+        <v>3.860226508095095</v>
       </c>
       <c r="I17" t="n">
-        <v>8.41272366577522</v>
+        <v>3.922907517670013</v>
       </c>
       <c r="J17" t="n">
-        <v>8.101430032307627</v>
+        <v>4.070254408841703</v>
       </c>
       <c r="K17" t="n">
-        <v>8.308888732934481</v>
+        <v>4.231982355983414</v>
       </c>
       <c r="L17" t="n">
-        <v>8.119594613223319</v>
+        <v>3.536448576099992</v>
       </c>
       <c r="M17" t="n">
-        <v>8.345814420380123</v>
+        <v>3.689486067544083</v>
       </c>
       <c r="N17" t="n">
-        <v>7.951077380400374</v>
+        <v>3.565715986881621</v>
       </c>
       <c r="O17" t="n">
-        <v>8.381787671971066</v>
+        <v>4.168383900129528</v>
       </c>
       <c r="P17" t="n">
-        <v>8.160382052098241</v>
+        <v>3.280519085249409</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.397314882812793</v>
+        <v>4.348650497547314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.005510969303995</v>
+        <v>4.066502118196395</v>
       </c>
       <c r="B18" t="n">
-        <v>7.977503089150503</v>
+        <v>4.038336935662891</v>
       </c>
       <c r="C18" t="n">
-        <v>8.026463304902288</v>
+        <v>4.044336646513329</v>
       </c>
       <c r="D18" t="n">
-        <v>7.967258764289671</v>
+        <v>3.874173744668389</v>
       </c>
       <c r="E18" t="n">
-        <v>8.122137366314348</v>
+        <v>3.951043043838097</v>
       </c>
       <c r="F18" t="n">
-        <v>7.992551575654737</v>
+        <v>3.785085262525846</v>
       </c>
       <c r="G18" t="n">
-        <v>8.313879622133607</v>
+        <v>3.903875735266371</v>
       </c>
       <c r="H18" t="n">
-        <v>8.007792429137519</v>
+        <v>3.974641526306669</v>
       </c>
       <c r="I18" t="n">
-        <v>8.41272366577522</v>
+        <v>3.999780238728039</v>
       </c>
       <c r="J18" t="n">
-        <v>8.101430032307627</v>
+        <v>4.11923759948071</v>
       </c>
       <c r="K18" t="n">
-        <v>8.308888732934481</v>
+        <v>4.326971694424993</v>
       </c>
       <c r="L18" t="n">
-        <v>8.119594613223319</v>
+        <v>3.644840690662532</v>
       </c>
       <c r="M18" t="n">
-        <v>8.345814420380123</v>
+        <v>3.813573623400469</v>
       </c>
       <c r="N18" t="n">
-        <v>7.951077380400374</v>
+        <v>3.569578538372723</v>
       </c>
       <c r="O18" t="n">
-        <v>8.381787671971066</v>
+        <v>4.242703132082893</v>
       </c>
       <c r="P18" t="n">
-        <v>8.160382052098241</v>
+        <v>3.27592424965831</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.397314882812793</v>
+        <v>4.395414783717173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.005510969303995</v>
+        <v>4.204255175154581</v>
       </c>
       <c r="B19" t="n">
-        <v>7.977503089150503</v>
+        <v>4.177342403745371</v>
       </c>
       <c r="C19" t="n">
-        <v>8.026463304902288</v>
+        <v>4.190627695034089</v>
       </c>
       <c r="D19" t="n">
-        <v>7.967258764289671</v>
+        <v>3.982662812733265</v>
       </c>
       <c r="E19" t="n">
-        <v>8.122137366314348</v>
+        <v>4.096087764591573</v>
       </c>
       <c r="F19" t="n">
-        <v>7.992551575654737</v>
+        <v>3.900559545276668</v>
       </c>
       <c r="G19" t="n">
-        <v>8.313879622133607</v>
+        <v>4.012756799648534</v>
       </c>
       <c r="H19" t="n">
-        <v>8.007792429137519</v>
+        <v>4.067151516557139</v>
       </c>
       <c r="I19" t="n">
-        <v>8.41272366577522</v>
+        <v>4.083885310850513</v>
       </c>
       <c r="J19" t="n">
-        <v>8.101430032307627</v>
+        <v>4.328680737534797</v>
       </c>
       <c r="K19" t="n">
-        <v>8.308888732934481</v>
+        <v>4.411578263290923</v>
       </c>
       <c r="L19" t="n">
-        <v>8.119594613223319</v>
+        <v>3.734901369297126</v>
       </c>
       <c r="M19" t="n">
-        <v>8.345814420380123</v>
+        <v>3.902721798483666</v>
       </c>
       <c r="N19" t="n">
-        <v>7.951077380400374</v>
+        <v>3.653630000911553</v>
       </c>
       <c r="O19" t="n">
-        <v>8.381787671971066</v>
+        <v>4.350129513720204</v>
       </c>
       <c r="P19" t="n">
-        <v>8.160382052098241</v>
+        <v>3.367128219200842</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.397314882812793</v>
+        <v>4.41720917062267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.983974640142163</v>
+        <v>4.237640638421704</v>
       </c>
       <c r="B20" t="n">
-        <v>6.945166012075884</v>
+        <v>4.214089682179766</v>
       </c>
       <c r="C20" t="n">
-        <v>6.957998205410337</v>
+        <v>4.221898811530661</v>
       </c>
       <c r="D20" t="n">
-        <v>6.648521719297102</v>
+        <v>4.034197971637679</v>
       </c>
       <c r="E20" t="n">
-        <v>6.835164683678507</v>
+        <v>4.147343089073559</v>
       </c>
       <c r="F20" t="n">
-        <v>6.515249625918286</v>
+        <v>3.953372209153038</v>
       </c>
       <c r="G20" t="n">
-        <v>6.708666790316234</v>
+        <v>4.070594696624411</v>
       </c>
       <c r="H20" t="n">
-        <v>6.727355837554546</v>
+        <v>4.081994527450055</v>
       </c>
       <c r="I20" t="n">
-        <v>6.788802988643456</v>
+        <v>4.119521616211082</v>
       </c>
       <c r="J20" t="n">
-        <v>7.116147046070325</v>
+        <v>4.318156910118495</v>
       </c>
       <c r="K20" t="n">
-        <v>7.271723683320091</v>
+        <v>4.412336401658209</v>
       </c>
       <c r="L20" t="n">
-        <v>6.360349092804849</v>
+        <v>3.859429588326874</v>
       </c>
       <c r="M20" t="n">
-        <v>6.620612842344295</v>
+        <v>4.017252020268605</v>
       </c>
       <c r="N20" t="n">
-        <v>6.317938753361722</v>
+        <v>3.833796983358312</v>
       </c>
       <c r="O20" t="n">
-        <v>7.352674464944094</v>
+        <v>4.461455707410299</v>
       </c>
       <c r="P20" t="n">
-        <v>5.704676585367077</v>
+        <v>3.461547623132611</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.279032375299829</v>
+        <v>4.416708054089028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.097384686335302</v>
+        <v>4.306612219354068</v>
       </c>
       <c r="B21" t="n">
-        <v>7.055286394955098</v>
+        <v>4.281072005370083</v>
       </c>
       <c r="C21" t="n">
-        <v>7.075807001406096</v>
+        <v>4.293537564301796</v>
       </c>
       <c r="D21" t="n">
-        <v>6.79055998215436</v>
+        <v>4.120445526056872</v>
       </c>
       <c r="E21" t="n">
-        <v>6.922345774317818</v>
+        <v>4.200368670445255</v>
       </c>
       <c r="F21" t="n">
-        <v>6.624581742807229</v>
+        <v>4.019724144473265</v>
       </c>
       <c r="G21" t="n">
-        <v>6.837315183582011</v>
+        <v>4.148762792515607</v>
       </c>
       <c r="H21" t="n">
-        <v>6.86876561806821</v>
+        <v>4.167835637579064</v>
       </c>
       <c r="I21" t="n">
-        <v>6.926046488895349</v>
+        <v>4.202478834907861</v>
       </c>
       <c r="J21" t="n">
-        <v>7.186297706384077</v>
+        <v>4.360477303993049</v>
       </c>
       <c r="K21" t="n">
-        <v>7.322980397366265</v>
+        <v>4.443413230940296</v>
       </c>
       <c r="L21" t="n">
-        <v>6.556674946174843</v>
+        <v>3.978482025628613</v>
       </c>
       <c r="M21" t="n">
-        <v>6.822722237121438</v>
+        <v>4.139881091282008</v>
       </c>
       <c r="N21" t="n">
-        <v>6.468147286685698</v>
+        <v>3.924793738552714</v>
       </c>
       <c r="O21" t="n">
-        <v>7.508400860199961</v>
+        <v>4.555968262746273</v>
       </c>
       <c r="P21" t="n">
-        <v>5.903619130927346</v>
+        <v>3.582247129344622</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.250008772435504</v>
+        <v>4.39914350135407</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.262538943347612</v>
+        <v>4.406592191802163</v>
       </c>
       <c r="B22" t="n">
-        <v>7.231092268476629</v>
+        <v>4.387536075970483</v>
       </c>
       <c r="C22" t="n">
-        <v>7.235316196171709</v>
+        <v>4.390075877521872</v>
       </c>
       <c r="D22" t="n">
-        <v>6.9532805149169</v>
+        <v>4.219100847516189</v>
       </c>
       <c r="E22" t="n">
-        <v>7.184607759344524</v>
+        <v>4.359422601971559</v>
       </c>
       <c r="F22" t="n">
-        <v>6.781321354363786</v>
+        <v>4.114726410048489</v>
       </c>
       <c r="G22" t="n">
-        <v>7.050638257343155</v>
+        <v>4.27828620806963</v>
       </c>
       <c r="H22" t="n">
-        <v>6.891357145900641</v>
+        <v>4.181328523425725</v>
       </c>
       <c r="I22" t="n">
-        <v>7.005579268980417</v>
+        <v>4.251049878109487</v>
       </c>
       <c r="J22" t="n">
-        <v>7.41565365923349</v>
+        <v>4.499519272217584</v>
       </c>
       <c r="K22" t="n">
-        <v>7.459883025838582</v>
+        <v>4.526492116777262</v>
       </c>
       <c r="L22" t="n">
-        <v>6.657708965679726</v>
+        <v>4.039781732952604</v>
       </c>
       <c r="M22" t="n">
-        <v>6.912220503938824</v>
+        <v>4.194306985395285</v>
       </c>
       <c r="N22" t="n">
-        <v>6.938032142203686</v>
+        <v>4.209841978148011</v>
       </c>
       <c r="O22" t="n">
-        <v>7.653359717477448</v>
+        <v>4.644062876437419</v>
       </c>
       <c r="P22" t="n">
-        <v>6.331136882577191</v>
+        <v>3.841619420052665</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.236721665659926</v>
+        <v>4.391292929133549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.447232547239565</v>
+        <v>4.518904649747394</v>
       </c>
       <c r="B23" t="n">
-        <v>7.402338355343792</v>
+        <v>4.491651210345661</v>
       </c>
       <c r="C23" t="n">
-        <v>7.435839033327736</v>
+        <v>4.511998898912381</v>
       </c>
       <c r="D23" t="n">
-        <v>7.136274772731261</v>
+        <v>4.330213363291332</v>
       </c>
       <c r="E23" t="n">
-        <v>7.238045050215927</v>
+        <v>4.391941947284479</v>
       </c>
       <c r="F23" t="n">
-        <v>6.922759958594105</v>
+        <v>4.200674739344787</v>
       </c>
       <c r="G23" t="n">
-        <v>7.11477415991398</v>
+        <v>4.317153156211958</v>
       </c>
       <c r="H23" t="n">
-        <v>7.109684894116704</v>
+        <v>4.314098550573656</v>
       </c>
       <c r="I23" t="n">
-        <v>7.138070615599395</v>
+        <v>4.331386310564691</v>
       </c>
       <c r="J23" t="n">
-        <v>7.496761718094025</v>
+        <v>4.548878870571542</v>
       </c>
       <c r="K23" t="n">
-        <v>7.690651967406643</v>
+        <v>4.666511604431231</v>
       </c>
       <c r="L23" t="n">
-        <v>6.832824323206601</v>
+        <v>4.14602946416936</v>
       </c>
       <c r="M23" t="n">
-        <v>7.011031337646029</v>
+        <v>4.254144025568349</v>
       </c>
       <c r="N23" t="n">
-        <v>7.19615165786499</v>
+        <v>4.366498306593019</v>
       </c>
       <c r="O23" t="n">
-        <v>7.78007817493239</v>
+        <v>4.720921909942173</v>
       </c>
       <c r="P23" t="n">
-        <v>6.686998248019309</v>
+        <v>4.057521562411393</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.34337192369485</v>
+        <v>4.456022509181354</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.614020983665725</v>
+        <v>4.619985709814175</v>
       </c>
       <c r="B24" t="n">
-        <v>7.576235597540711</v>
+        <v>4.597052594518496</v>
       </c>
       <c r="C24" t="n">
-        <v>7.579402446757583</v>
+        <v>4.59898976351615</v>
       </c>
       <c r="D24" t="n">
-        <v>7.275422518090015</v>
+        <v>4.41456062906474</v>
       </c>
       <c r="E24" t="n">
-        <v>7.4487132090321</v>
+        <v>4.519715257068885</v>
       </c>
       <c r="F24" t="n">
-        <v>7.062286798487131</v>
+        <v>4.285210969395297</v>
       </c>
       <c r="G24" t="n">
-        <v>7.298484624426972</v>
+        <v>4.428575542984763</v>
       </c>
       <c r="H24" t="n">
-        <v>7.06302055005677</v>
+        <v>4.285703341103238</v>
       </c>
       <c r="I24" t="n">
-        <v>7.304161643403003</v>
+        <v>4.43213278599596</v>
       </c>
       <c r="J24" t="n">
-        <v>7.229764497702875</v>
+        <v>4.386944469501327</v>
       </c>
       <c r="K24" t="n">
-        <v>7.890650338240049</v>
+        <v>4.78787077466894</v>
       </c>
       <c r="L24" t="n">
-        <v>7.020579507089381</v>
+        <v>4.259811813251966</v>
       </c>
       <c r="M24" t="n">
-        <v>7.178648142624763</v>
+        <v>4.355759660632325</v>
       </c>
       <c r="N24" t="n">
-        <v>7.50518701579289</v>
+        <v>4.553985468571049</v>
       </c>
       <c r="O24" t="n">
-        <v>7.968953724149513</v>
+        <v>4.835415631585056</v>
       </c>
       <c r="P24" t="n">
-        <v>6.996831897578056</v>
+        <v>4.245487408544094</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.506890748088236</v>
+        <v>4.555007472548614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.264888702857558</v>
+        <v>4.408306177639537</v>
       </c>
       <c r="B25" t="n">
-        <v>7.235308050338741</v>
+        <v>4.390354571314862</v>
       </c>
       <c r="C25" t="n">
-        <v>7.24486123260238</v>
+        <v>4.396135661522776</v>
       </c>
       <c r="D25" t="n">
-        <v>7.084784335939164</v>
+        <v>4.298919053996162</v>
       </c>
       <c r="E25" t="n">
-        <v>7.201881938056579</v>
+        <v>4.370047945407954</v>
       </c>
       <c r="F25" t="n">
-        <v>6.95933850823481</v>
+        <v>4.222821580747011</v>
       </c>
       <c r="G25" t="n">
-        <v>7.315753163716204</v>
+        <v>4.439093667253869</v>
       </c>
       <c r="H25" t="n">
-        <v>6.896842424500661</v>
+        <v>4.184963709448604</v>
       </c>
       <c r="I25" t="n">
-        <v>7.471574175955005</v>
+        <v>4.533613066366478</v>
       </c>
       <c r="J25" t="n">
-        <v>7.102661932893374</v>
+        <v>4.309735262758725</v>
       </c>
       <c r="K25" t="n">
-        <v>8.087772603433281</v>
+        <v>4.907529646622544</v>
       </c>
       <c r="L25" t="n">
-        <v>7.169121904270171</v>
+        <v>4.350032940427681</v>
       </c>
       <c r="M25" t="n">
-        <v>7.412318880536973</v>
+        <v>4.497597311612454</v>
       </c>
       <c r="N25" t="n">
-        <v>7.580540356962933</v>
+        <v>4.599750943561941</v>
       </c>
       <c r="O25" t="n">
-        <v>8.223577424262551</v>
+        <v>4.989765607303907</v>
       </c>
       <c r="P25" t="n">
-        <v>7.008240449950749</v>
+        <v>4.252554368339853</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.665036455735543</v>
+        <v>4.650903991604207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.002529594437775</v>
+        <v>4.855792976517196</v>
       </c>
       <c r="B26" t="n">
-        <v>7.966546317206255</v>
+        <v>4.833950302965437</v>
       </c>
       <c r="C26" t="n">
-        <v>7.998117059379362</v>
+        <v>4.853125804678425</v>
       </c>
       <c r="D26" t="n">
-        <v>7.694773758888357</v>
+        <v>4.669099692628881</v>
       </c>
       <c r="E26" t="n">
-        <v>7.824253027116852</v>
+        <v>4.747650279592039</v>
       </c>
       <c r="F26" t="n">
-        <v>7.358820182617043</v>
+        <v>4.465245638827102</v>
       </c>
       <c r="G26" t="n">
-        <v>7.654821581193904</v>
+        <v>4.644906942222462</v>
       </c>
       <c r="H26" t="n">
-        <v>7.552306273293949</v>
+        <v>4.582444933499878</v>
       </c>
       <c r="I26" t="n">
-        <v>7.775812891469934</v>
+        <v>4.718278311111813</v>
       </c>
       <c r="J26" t="n">
-        <v>8.001463743524063</v>
+        <v>4.855089968572807</v>
       </c>
       <c r="K26" t="n">
-        <v>8.301288670775508</v>
+        <v>5.037000593222361</v>
       </c>
       <c r="L26" t="n">
-        <v>7.284262000065167</v>
+        <v>4.419995348132937</v>
       </c>
       <c r="M26" t="n">
-        <v>7.56057304055121</v>
+        <v>4.587692969549852</v>
       </c>
       <c r="N26" t="n">
-        <v>7.563976118924148</v>
+        <v>4.589603904070403</v>
       </c>
       <c r="O26" t="n">
-        <v>8.376697779571254</v>
+        <v>5.082741734785215</v>
       </c>
       <c r="P26" t="n">
-        <v>7.064607734280422</v>
+        <v>4.286502542130337</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.05232507137003</v>
+        <v>4.885962625185269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.011029457838422</v>
+        <v>4.861079793968105</v>
       </c>
       <c r="B27" t="n">
-        <v>7.960957022585262</v>
+        <v>4.830683540251434</v>
       </c>
       <c r="C27" t="n">
-        <v>7.969207498176587</v>
+        <v>4.835695085797671</v>
       </c>
       <c r="D27" t="n">
-        <v>7.669469042075107</v>
+        <v>4.653755565202323</v>
       </c>
       <c r="E27" t="n">
-        <v>7.864345563779366</v>
+        <v>4.771950249165748</v>
       </c>
       <c r="F27" t="n">
-        <v>7.472606816934309</v>
+        <v>4.534245355285634</v>
       </c>
       <c r="G27" t="n">
-        <v>7.818727645954529</v>
+        <v>4.744183526516355</v>
       </c>
       <c r="H27" t="n">
-        <v>7.81847763154267</v>
+        <v>4.744018515457477</v>
       </c>
       <c r="I27" t="n">
-        <v>8.02628973599982</v>
+        <v>4.870114719756376</v>
       </c>
       <c r="J27" t="n">
-        <v>8.23340380523188</v>
+        <v>4.995672927169765</v>
       </c>
       <c r="K27" t="n">
-        <v>8.329569123032154</v>
+        <v>5.054160982926013</v>
       </c>
       <c r="L27" t="n">
-        <v>7.4187428097359</v>
+        <v>4.50157506667692</v>
       </c>
       <c r="M27" t="n">
-        <v>7.755562350711946</v>
+        <v>4.705891455611408</v>
       </c>
       <c r="N27" t="n">
-        <v>7.554560789218426</v>
+        <v>4.583987444711553</v>
       </c>
       <c r="O27" t="n">
-        <v>8.63978374693278</v>
+        <v>5.242548101531609</v>
       </c>
       <c r="P27" t="n">
-        <v>7.015294741300877</v>
+        <v>4.256735535654318</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.53297683826386</v>
+        <v>5.177760349382401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.142212458362261</v>
+        <v>4.940425399650416</v>
       </c>
       <c r="B28" t="n">
-        <v>8.094957228110893</v>
+        <v>4.911746553659438</v>
       </c>
       <c r="C28" t="n">
-        <v>8.095462896357434</v>
+        <v>4.912067070531867</v>
       </c>
       <c r="D28" t="n">
-        <v>7.812386428290353</v>
+        <v>4.740363938734132</v>
       </c>
       <c r="E28" t="n">
-        <v>8.030185323966043</v>
+        <v>4.872506619690477</v>
       </c>
       <c r="F28" t="n">
-        <v>7.65911318196287</v>
+        <v>4.647364618454224</v>
       </c>
       <c r="G28" t="n">
-        <v>8.055853470250165</v>
+        <v>4.888127159651146</v>
       </c>
       <c r="H28" t="n">
-        <v>7.981396797309118</v>
+        <v>4.84289283776913</v>
       </c>
       <c r="I28" t="n">
-        <v>8.412999997493589</v>
+        <v>5.104879451151926</v>
       </c>
       <c r="J28" t="n">
-        <v>8.505163831499059</v>
+        <v>5.160882835779683</v>
       </c>
       <c r="K28" t="n">
-        <v>9.047384936976316</v>
+        <v>5.489857475499993</v>
       </c>
       <c r="L28" t="n">
-        <v>7.646518470989556</v>
+        <v>4.639760041982767</v>
       </c>
       <c r="M28" t="n">
-        <v>8.043031929158824</v>
+        <v>4.880373160723147</v>
       </c>
       <c r="N28" t="n">
-        <v>7.621699997744231</v>
+        <v>4.624786238914151</v>
       </c>
       <c r="O28" t="n">
-        <v>8.855407705206064</v>
+        <v>5.373385902409456</v>
       </c>
       <c r="P28" t="n">
-        <v>7.065411665334092</v>
+        <v>4.287248133573791</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.931466600831627</v>
+        <v>5.419514477771841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.3505101797848</v>
+        <v>5.066829954107725</v>
       </c>
       <c r="B29" t="n">
-        <v>8.304464292427884</v>
+        <v>5.038894798511136</v>
       </c>
       <c r="C29" t="n">
-        <v>8.313455412216744</v>
+        <v>5.044331038418585</v>
       </c>
       <c r="D29" t="n">
-        <v>7.997045569042827</v>
+        <v>4.852313676517682</v>
       </c>
       <c r="E29" t="n">
-        <v>8.276398764841082</v>
+        <v>5.02181159139954</v>
       </c>
       <c r="F29" t="n">
-        <v>7.854582469666171</v>
+        <v>4.765922402789143</v>
       </c>
       <c r="G29" t="n">
-        <v>8.321726565691757</v>
+        <v>5.049369198651738</v>
       </c>
       <c r="H29" t="n">
-        <v>8.207010679813623</v>
+        <v>4.979765709010032</v>
       </c>
       <c r="I29" t="n">
-        <v>8.823459748306293</v>
+        <v>5.35398113417918</v>
       </c>
       <c r="J29" t="n">
-        <v>8.868231126105014</v>
+        <v>5.380838014745867</v>
       </c>
       <c r="K29" t="n">
-        <v>9.33383127348193</v>
+        <v>5.663735027218745</v>
       </c>
       <c r="L29" t="n">
-        <v>7.755059815478085</v>
+        <v>4.705617704545988</v>
       </c>
       <c r="M29" t="n">
-        <v>8.200112412494956</v>
+        <v>4.975656781560052</v>
       </c>
       <c r="N29" t="n">
-        <v>7.677140536923181</v>
+        <v>4.658299452678468</v>
       </c>
       <c r="O29" t="n">
-        <v>9.053380896643166</v>
+        <v>5.49343334879203</v>
       </c>
       <c r="P29" t="n">
-        <v>7.102125561122571</v>
+        <v>4.30937938637368</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.203807487649664</v>
+        <v>5.584693969596713</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.435154156755903</v>
+        <v>5.118278044964943</v>
       </c>
       <c r="B30" t="n">
-        <v>8.375136912654114</v>
+        <v>5.081869153264192</v>
       </c>
       <c r="C30" t="n">
-        <v>8.400851427525897</v>
+        <v>5.097453193082805</v>
       </c>
       <c r="D30" t="n">
-        <v>8.096235497284304</v>
+        <v>4.912662859308967</v>
       </c>
       <c r="E30" t="n">
-        <v>8.379928542246796</v>
+        <v>5.084780039593149</v>
       </c>
       <c r="F30" t="n">
-        <v>7.983571734711525</v>
+        <v>4.844325088135011</v>
       </c>
       <c r="G30" t="n">
-        <v>8.529798083598804</v>
+        <v>5.17566311205344</v>
       </c>
       <c r="H30" t="n">
-        <v>8.038999741839755</v>
+        <v>4.878242845140448</v>
       </c>
       <c r="I30" t="n">
-        <v>9.216008692230378</v>
+        <v>5.591997419896209</v>
       </c>
       <c r="J30" t="n">
-        <v>8.565268173353351</v>
+        <v>5.197657869530432</v>
       </c>
       <c r="K30" t="n">
-        <v>9.784998884647486</v>
+        <v>5.937207779054755</v>
       </c>
       <c r="L30" t="n">
-        <v>8.03465487985523</v>
+        <v>4.875247172023173</v>
       </c>
       <c r="M30" t="n">
-        <v>8.535297147454616</v>
+        <v>5.179022265752021</v>
       </c>
       <c r="N30" t="n">
-        <v>7.730285204410279</v>
+        <v>4.690609302384381</v>
       </c>
       <c r="O30" t="n">
-        <v>9.291801281778147</v>
+        <v>5.638230552957191</v>
       </c>
       <c r="P30" t="n">
-        <v>7.122292763743274</v>
+        <v>4.321559787945581</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.702573080653773</v>
+        <v>5.887612070406873</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.738983700814835</v>
+        <v>5.302659272979905</v>
       </c>
       <c r="B31" t="n">
-        <v>8.660467270043135</v>
+        <v>5.255024306338088</v>
       </c>
       <c r="C31" t="n">
-        <v>8.700173192940946</v>
+        <v>5.279099952122079</v>
       </c>
       <c r="D31" t="n">
-        <v>8.366960376162034</v>
+        <v>5.076888404712815</v>
       </c>
       <c r="E31" t="n">
-        <v>8.697958779578773</v>
+        <v>5.277684811197787</v>
       </c>
       <c r="F31" t="n">
-        <v>8.168303561358174</v>
+        <v>4.956320831305944</v>
       </c>
       <c r="G31" t="n">
-        <v>8.902417933865863</v>
+        <v>5.401709632435015</v>
       </c>
       <c r="H31" t="n">
-        <v>7.922060043561408</v>
+        <v>4.807015099177255</v>
       </c>
       <c r="I31" t="n">
-        <v>9.690250941783612</v>
+        <v>5.879823092176071</v>
       </c>
       <c r="J31" t="n">
-        <v>8.20890615248498</v>
+        <v>4.981047776499745</v>
       </c>
       <c r="K31" t="n">
-        <v>10.17116588174256</v>
+        <v>6.17160066525311</v>
       </c>
       <c r="L31" t="n">
-        <v>8.254566052679728</v>
+        <v>5.008660514174839</v>
       </c>
       <c r="M31" t="n">
-        <v>8.831532268777398</v>
+        <v>5.358719689079623</v>
       </c>
       <c r="N31" t="n">
-        <v>7.952883875511621</v>
+        <v>4.825649562326226</v>
       </c>
       <c r="O31" t="n">
-        <v>9.561957205553202</v>
+        <v>5.801959924554967</v>
       </c>
       <c r="P31" t="n">
-        <v>7.224887650165297</v>
+        <v>4.383958681839193</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.02110835962975</v>
+        <v>6.080684894748893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.708080916945088</v>
+        <v>5.28358642791645</v>
       </c>
       <c r="B32" t="n">
-        <v>8.679143158628191</v>
+        <v>5.266055713854855</v>
       </c>
       <c r="C32" t="n">
-        <v>8.699648100015791</v>
+        <v>5.278489715372082</v>
       </c>
       <c r="D32" t="n">
-        <v>8.615996661461688</v>
+        <v>5.228008117859719</v>
       </c>
       <c r="E32" t="n">
-        <v>8.949589199377408</v>
+        <v>5.43037593150216</v>
       </c>
       <c r="F32" t="n">
-        <v>8.486091303508724</v>
+        <v>5.149183779831144</v>
       </c>
       <c r="G32" t="n">
-        <v>9.188891214280522</v>
+        <v>5.575585283104702</v>
       </c>
       <c r="H32" t="n">
-        <v>8.110159232236445</v>
+        <v>4.921143819399578</v>
       </c>
       <c r="I32" t="n">
-        <v>9.956791995528564</v>
+        <v>6.04144724203881</v>
       </c>
       <c r="J32" t="n">
-        <v>8.187011406672566</v>
+        <v>4.967761724791401</v>
       </c>
       <c r="K32" t="n">
-        <v>10.44661409053655</v>
+        <v>6.338993358399932</v>
       </c>
       <c r="L32" t="n">
-        <v>8.510345834471661</v>
+        <v>5.163935920578733</v>
       </c>
       <c r="M32" t="n">
-        <v>9.070755958363515</v>
+        <v>5.503910410401324</v>
       </c>
       <c r="N32" t="n">
-        <v>8.099364123746481</v>
+        <v>4.914641471176247</v>
       </c>
       <c r="O32" t="n">
-        <v>9.804339598523223</v>
+        <v>5.948898090177593</v>
       </c>
       <c r="P32" t="n">
-        <v>7.421636460247082</v>
+        <v>4.503470412595134</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.32049591831108</v>
+        <v>6.26185943320032</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.44382570925141</v>
+        <v>6.3370451633177</v>
       </c>
       <c r="B33" t="n">
-        <v>10.38328838504475</v>
+        <v>6.300299405722557</v>
       </c>
       <c r="C33" t="n">
-        <v>10.39115350007645</v>
+        <v>6.305045945029075</v>
       </c>
       <c r="D33" t="n">
-        <v>10.02127378269925</v>
+        <v>6.080577675581605</v>
       </c>
       <c r="E33" t="n">
-        <v>10.31414906122408</v>
+        <v>6.258287742216226</v>
       </c>
       <c r="F33" t="n">
-        <v>9.748259298155032</v>
+        <v>5.914997442613744</v>
       </c>
       <c r="G33" t="n">
-        <v>10.3862753993338</v>
+        <v>6.302093996040305</v>
       </c>
       <c r="H33" t="n">
-        <v>9.337478100241368</v>
+        <v>5.665807550909856</v>
       </c>
       <c r="I33" t="n">
-        <v>10.59822370713099</v>
+        <v>6.430777528117228</v>
       </c>
       <c r="J33" t="n">
-        <v>8.987424087102765</v>
+        <v>5.453418547224008</v>
       </c>
       <c r="K33" t="n">
-        <v>10.63001125378155</v>
+        <v>6.450271645653579</v>
       </c>
       <c r="L33" t="n">
-        <v>9.709861094749822</v>
+        <v>5.891744570865264</v>
       </c>
       <c r="M33" t="n">
-        <v>10.18949964534296</v>
+        <v>6.182724083544643</v>
       </c>
       <c r="N33" t="n">
-        <v>9.519270534391707</v>
+        <v>5.776176376290611</v>
       </c>
       <c r="O33" t="n">
-        <v>10.76638753612364</v>
+        <v>6.532757404182137</v>
       </c>
       <c r="P33" t="n">
-        <v>8.793068898708446</v>
+        <v>5.335639812796094</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.56582459640531</v>
+        <v>6.410995971962188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.60473661389002</v>
+        <v>6.434649584853657</v>
       </c>
       <c r="B34" t="n">
-        <v>10.57902711183853</v>
+        <v>6.419050336642521</v>
       </c>
       <c r="C34" t="n">
-        <v>10.58702130699263</v>
+        <v>6.423926907705114</v>
       </c>
       <c r="D34" t="n">
-        <v>10.28020788165734</v>
+        <v>6.237843100147169</v>
       </c>
       <c r="E34" t="n">
-        <v>10.63017291723583</v>
+        <v>6.450155301450776</v>
       </c>
       <c r="F34" t="n">
-        <v>9.987470455690428</v>
+        <v>6.060279794500398</v>
       </c>
       <c r="G34" t="n">
-        <v>10.64787067926221</v>
+        <v>6.460938812169413</v>
       </c>
       <c r="H34" t="n">
-        <v>9.595773064612747</v>
+        <v>5.822703411537105</v>
       </c>
       <c r="I34" t="n">
-        <v>10.63337986901501</v>
+        <v>6.452196267727401</v>
       </c>
       <c r="J34" t="n">
-        <v>9.39376580604897</v>
+        <v>5.70004924667604</v>
       </c>
       <c r="K34" t="n">
-        <v>10.47874313556922</v>
+        <v>6.358402308938153</v>
       </c>
       <c r="L34" t="n">
-        <v>9.854950285354795</v>
+        <v>5.979790137490522</v>
       </c>
       <c r="M34" t="n">
-        <v>10.38283785782138</v>
+        <v>6.300060633959942</v>
       </c>
       <c r="N34" t="n">
-        <v>9.70012118493046</v>
+        <v>5.885869188623704</v>
       </c>
       <c r="O34" t="n">
-        <v>11.01435170448422</v>
+        <v>6.683122781059886</v>
       </c>
       <c r="P34" t="n">
-        <v>9.065251881687416</v>
+        <v>5.500619314259284</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.66865257897072</v>
+        <v>6.47354048621421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.70164320249037</v>
+        <v>6.493634574835604</v>
       </c>
       <c r="B35" t="n">
-        <v>10.67097226155894</v>
+        <v>6.475007335673081</v>
       </c>
       <c r="C35" t="n">
-        <v>10.67514167483339</v>
+        <v>6.477550939322601</v>
       </c>
       <c r="D35" t="n">
-        <v>10.34610391075175</v>
+        <v>6.277841172483417</v>
       </c>
       <c r="E35" t="n">
-        <v>10.69801893342223</v>
+        <v>6.491360159733746</v>
       </c>
       <c r="F35" t="n">
-        <v>10.07627068728273</v>
+        <v>6.114121686340781</v>
       </c>
       <c r="G35" t="n">
-        <v>10.73944237387118</v>
+        <v>6.516456288656051</v>
       </c>
       <c r="H35" t="n">
-        <v>9.751079009566968</v>
+        <v>5.916784808945044</v>
       </c>
       <c r="I35" t="n">
-        <v>10.70949453226627</v>
+        <v>6.498318759732777</v>
       </c>
       <c r="J35" t="n">
-        <v>9.538854370051407</v>
+        <v>5.788141198898495</v>
       </c>
       <c r="K35" t="n">
-        <v>10.54103244046649</v>
+        <v>6.396119122395907</v>
       </c>
       <c r="L35" t="n">
-        <v>9.947310872556564</v>
+        <v>6.035822418064073</v>
       </c>
       <c r="M35" t="n">
-        <v>10.48901064472388</v>
+        <v>6.364464754407749</v>
       </c>
       <c r="N35" t="n">
-        <v>9.758930965945405</v>
+        <v>5.921551879581469</v>
       </c>
       <c r="O35" t="n">
-        <v>11.09928391862188</v>
+        <v>6.734813065568038</v>
       </c>
       <c r="P35" t="n">
-        <v>9.183873381172349</v>
+        <v>5.572600636072007</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.6634354862561</v>
+        <v>6.4704159219703</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.76584615153254</v>
+        <v>6.532436507099895</v>
       </c>
       <c r="B36" t="n">
-        <v>10.73281793186073</v>
+        <v>6.512412377084108</v>
       </c>
       <c r="C36" t="n">
-        <v>10.74734132543981</v>
+        <v>6.521223359292475</v>
       </c>
       <c r="D36" t="n">
-        <v>10.45484138183404</v>
+        <v>6.343794647919535</v>
       </c>
       <c r="E36" t="n">
-        <v>10.80533213694022</v>
+        <v>6.556421662948373</v>
       </c>
       <c r="F36" t="n">
-        <v>10.18269223539201</v>
+        <v>6.178698422043729</v>
       </c>
       <c r="G36" t="n">
-        <v>10.86929697701873</v>
+        <v>6.595266939131355</v>
       </c>
       <c r="H36" t="n">
-        <v>9.904042714241672</v>
+        <v>6.009597826416541</v>
       </c>
       <c r="I36" t="n">
-        <v>10.85431115076809</v>
+        <v>6.586353300273457</v>
       </c>
       <c r="J36" t="n">
-        <v>9.861200645651254</v>
+        <v>5.983542808345644</v>
       </c>
       <c r="K36" t="n">
-        <v>10.68113450148755</v>
+        <v>6.481261787098283</v>
       </c>
       <c r="L36" t="n">
-        <v>10.06741554024418</v>
+        <v>6.108774795739407</v>
       </c>
       <c r="M36" t="n">
-        <v>10.60958651751855</v>
+        <v>6.437707992590091</v>
       </c>
       <c r="N36" t="n">
-        <v>9.895055980670564</v>
+        <v>6.004208732525913</v>
       </c>
       <c r="O36" t="n">
-        <v>11.01372510194823</v>
+        <v>6.682988947205681</v>
       </c>
       <c r="P36" t="n">
-        <v>9.319287202019163</v>
+        <v>5.654749148496361</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.6889657799823</v>
+        <v>6.486002243047793</v>
       </c>
     </row>
   </sheetData>
@@ -2418,1857 +2418,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.910846364577407</v>
+        <v>3.080230258864901</v>
       </c>
       <c r="B2" t="n">
-        <v>4.882900204773708</v>
+        <v>3.048622466578844</v>
       </c>
       <c r="C2" t="n">
-        <v>4.874836456738108</v>
+        <v>3.02737196981096</v>
       </c>
       <c r="D2" t="n">
-        <v>4.860968176110402</v>
+        <v>2.979771222052321</v>
       </c>
       <c r="E2" t="n">
-        <v>4.83155858608391</v>
+        <v>3.039033004778192</v>
       </c>
       <c r="F2" t="n">
-        <v>4.928890637806189</v>
+        <v>3.132396566059031</v>
       </c>
       <c r="G2" t="n">
-        <v>4.895440088025124</v>
+        <v>3.247912671889292</v>
       </c>
       <c r="H2" t="n">
-        <v>5.151765953927169</v>
+        <v>3.586915725639458</v>
       </c>
       <c r="I2" t="n">
-        <v>5.146006223416387</v>
+        <v>3.293287671402148</v>
       </c>
       <c r="J2" t="n">
-        <v>5.295596613338613</v>
+        <v>3.710149710465475</v>
       </c>
       <c r="K2" t="n">
-        <v>5.30507836291315</v>
+        <v>3.342844978858909</v>
       </c>
       <c r="L2" t="n">
-        <v>5.254999348333363</v>
+        <v>3.663305580234869</v>
       </c>
       <c r="M2" t="n">
-        <v>5.24233884409377</v>
+        <v>3.717354306213569</v>
       </c>
       <c r="N2" t="n">
-        <v>5.395102975860764</v>
+        <v>3.975635774967879</v>
       </c>
       <c r="O2" t="n">
-        <v>5.390156575441692</v>
+        <v>3.961523147125894</v>
       </c>
       <c r="P2" t="n">
-        <v>5.673719913679235</v>
+        <v>4.351673165561317</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.656694496173965</v>
+        <v>4.370720156357484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.92965540620136</v>
+        <v>3.010147894963617</v>
       </c>
       <c r="B3" t="n">
-        <v>4.904493241465047</v>
+        <v>2.975854680767761</v>
       </c>
       <c r="C3" t="n">
-        <v>4.897099958142951</v>
+        <v>2.969265644707047</v>
       </c>
       <c r="D3" t="n">
-        <v>4.891732167518429</v>
+        <v>2.942219039443631</v>
       </c>
       <c r="E3" t="n">
-        <v>4.861040548703309</v>
+        <v>2.956531467542391</v>
       </c>
       <c r="F3" t="n">
-        <v>4.964717891006249</v>
+        <v>3.068039211418233</v>
       </c>
       <c r="G3" t="n">
-        <v>4.936663328963825</v>
+        <v>3.072526067422416</v>
       </c>
       <c r="H3" t="n">
-        <v>5.209078781483645</v>
+        <v>3.029696192398332</v>
       </c>
       <c r="I3" t="n">
-        <v>5.195345533702444</v>
+        <v>2.976768515053505</v>
       </c>
       <c r="J3" t="n">
-        <v>5.317923088298323</v>
+        <v>2.83812500671308</v>
       </c>
       <c r="K3" t="n">
-        <v>5.324590139281212</v>
+        <v>2.993774729677952</v>
       </c>
       <c r="L3" t="n">
-        <v>5.281174729370365</v>
+        <v>3.630895735348116</v>
       </c>
       <c r="M3" t="n">
-        <v>5.274353534163623</v>
+        <v>3.648725294322793</v>
       </c>
       <c r="N3" t="n">
-        <v>5.406185068312208</v>
+        <v>3.953128874872665</v>
       </c>
       <c r="O3" t="n">
-        <v>5.428502770836414</v>
+        <v>3.953997654295558</v>
       </c>
       <c r="P3" t="n">
-        <v>5.67289029192159</v>
+        <v>4.300880936631666</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.674823360745106</v>
+        <v>4.37427359727055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.891157259691662</v>
+        <v>2.997736515930268</v>
       </c>
       <c r="B4" t="n">
-        <v>4.861840720141762</v>
+        <v>2.967182665246076</v>
       </c>
       <c r="C4" t="n">
-        <v>4.853549515385598</v>
+        <v>2.956748187135848</v>
       </c>
       <c r="D4" t="n">
-        <v>4.847534131040135</v>
+        <v>2.922020583228546</v>
       </c>
       <c r="E4" t="n">
-        <v>4.815751283908596</v>
+        <v>2.960673093036296</v>
       </c>
       <c r="F4" t="n">
-        <v>4.931463154517679</v>
+        <v>3.019777659004457</v>
       </c>
       <c r="G4" t="n">
-        <v>4.90164564624026</v>
+        <v>3.117882816864244</v>
       </c>
       <c r="H4" t="n">
-        <v>5.169937114169488</v>
+        <v>3.209928570932941</v>
       </c>
       <c r="I4" t="n">
-        <v>5.16979174238114</v>
+        <v>2.959338556592377</v>
       </c>
       <c r="J4" t="n">
-        <v>5.301885196389767</v>
+        <v>2.972917179751888</v>
       </c>
       <c r="K4" t="n">
-        <v>5.329814751226261</v>
+        <v>2.921466807635792</v>
       </c>
       <c r="L4" t="n">
-        <v>5.258105730405512</v>
+        <v>3.581166192846029</v>
       </c>
       <c r="M4" t="n">
-        <v>5.24964878927858</v>
+        <v>3.624809716870109</v>
       </c>
       <c r="N4" t="n">
-        <v>5.405255190148806</v>
+        <v>3.923007132641041</v>
       </c>
       <c r="O4" t="n">
-        <v>5.422709830391225</v>
+        <v>3.944400017983924</v>
       </c>
       <c r="P4" t="n">
-        <v>5.691925850362302</v>
+        <v>4.280386487077096</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679290410224148</v>
+        <v>4.378440696821931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.942066209330362</v>
+        <v>2.829619903299337</v>
       </c>
       <c r="B5" t="n">
-        <v>4.914781741804665</v>
+        <v>2.807412988746645</v>
       </c>
       <c r="C5" t="n">
-        <v>4.905788742208197</v>
+        <v>2.799813545107665</v>
       </c>
       <c r="D5" t="n">
-        <v>4.891517242848585</v>
+        <v>2.840086889348584</v>
       </c>
       <c r="E5" t="n">
-        <v>4.858238695463649</v>
+        <v>2.853494988406927</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9485399534309</v>
+        <v>3.000667553379319</v>
       </c>
       <c r="G5" t="n">
-        <v>4.926703481654331</v>
+        <v>3.023649715740886</v>
       </c>
       <c r="H5" t="n">
-        <v>5.177527150687884</v>
+        <v>2.913391151205926</v>
       </c>
       <c r="I5" t="n">
-        <v>5.188686628552523</v>
+        <v>2.972138129844883</v>
       </c>
       <c r="J5" t="n">
-        <v>5.316302694140264</v>
+        <v>2.769432689888425</v>
       </c>
       <c r="K5" t="n">
-        <v>5.333224722227095</v>
+        <v>2.742530184144167</v>
       </c>
       <c r="L5" t="n">
-        <v>5.257867621441838</v>
+        <v>3.57394258660728</v>
       </c>
       <c r="M5" t="n">
-        <v>5.254566992583532</v>
+        <v>3.59089424112355</v>
       </c>
       <c r="N5" t="n">
-        <v>5.402113405033373</v>
+        <v>3.903322149778523</v>
       </c>
       <c r="O5" t="n">
-        <v>5.434677938828554</v>
+        <v>3.954456187330135</v>
       </c>
       <c r="P5" t="n">
-        <v>5.713143238833316</v>
+        <v>4.276890457845806</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.681111317193723</v>
+        <v>4.37958284710043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.934694543795757</v>
+        <v>2.957146456915052</v>
       </c>
       <c r="B6" t="n">
-        <v>4.906155304691749</v>
+        <v>2.927933035926881</v>
       </c>
       <c r="C6" t="n">
-        <v>4.900702609423601</v>
+        <v>2.91957678465496</v>
       </c>
       <c r="D6" t="n">
-        <v>4.889806617925344</v>
+        <v>2.899186512589174</v>
       </c>
       <c r="E6" t="n">
-        <v>4.865007882659903</v>
+        <v>2.926591655706327</v>
       </c>
       <c r="F6" t="n">
-        <v>4.959595415274564</v>
+        <v>3.038421627398756</v>
       </c>
       <c r="G6" t="n">
-        <v>4.943732658774817</v>
+        <v>3.088525106252009</v>
       </c>
       <c r="H6" t="n">
-        <v>5.195896317331576</v>
+        <v>3.264655971427993</v>
       </c>
       <c r="I6" t="n">
-        <v>5.191056126042353</v>
+        <v>3.375159771292391</v>
       </c>
       <c r="J6" t="n">
-        <v>5.318612977690443</v>
+        <v>3.380043566341432</v>
       </c>
       <c r="K6" t="n">
-        <v>5.336157848698045</v>
+        <v>3.50590023845809</v>
       </c>
       <c r="L6" t="n">
-        <v>5.291842637545523</v>
+        <v>3.568889217981605</v>
       </c>
       <c r="M6" t="n">
-        <v>5.292718627890831</v>
+        <v>3.601402099727703</v>
       </c>
       <c r="N6" t="n">
-        <v>5.434909155164333</v>
+        <v>3.918261353754149</v>
       </c>
       <c r="O6" t="n">
-        <v>5.484713404532091</v>
+        <v>3.947890724277832</v>
       </c>
       <c r="P6" t="n">
-        <v>5.733056040824408</v>
+        <v>4.27667145699347</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.694870255678898</v>
+        <v>4.395925405496142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.953132323417139</v>
+        <v>2.944237193131472</v>
       </c>
       <c r="B7" t="n">
-        <v>4.925676166796582</v>
+        <v>2.915656061062456</v>
       </c>
       <c r="C7" t="n">
-        <v>4.912404725084404</v>
+        <v>2.907353799583993</v>
       </c>
       <c r="D7" t="n">
-        <v>4.892340285279603</v>
+        <v>2.893660923375651</v>
       </c>
       <c r="E7" t="n">
-        <v>4.84696204292478</v>
+        <v>2.918886703844216</v>
       </c>
       <c r="F7" t="n">
-        <v>4.943363903182389</v>
+        <v>3.046018409569045</v>
       </c>
       <c r="G7" t="n">
-        <v>4.910063111407425</v>
+        <v>3.085473732397118</v>
       </c>
       <c r="H7" t="n">
-        <v>5.178621825318252</v>
+        <v>3.279075048379323</v>
       </c>
       <c r="I7" t="n">
-        <v>5.176854179564235</v>
+        <v>3.370167616446622</v>
       </c>
       <c r="J7" t="n">
-        <v>5.313588251954373</v>
+        <v>3.383589022848424</v>
       </c>
       <c r="K7" t="n">
-        <v>5.324748669722816</v>
+        <v>3.487365770489958</v>
       </c>
       <c r="L7" t="n">
-        <v>5.276834253603591</v>
+        <v>3.549179141271424</v>
       </c>
       <c r="M7" t="n">
-        <v>5.269160878947909</v>
+        <v>3.57937388378716</v>
       </c>
       <c r="N7" t="n">
-        <v>5.414996979775776</v>
+        <v>3.90691018978458</v>
       </c>
       <c r="O7" t="n">
-        <v>5.452596264947603</v>
+        <v>3.94161536131291</v>
       </c>
       <c r="P7" t="n">
-        <v>5.706647876945287</v>
+        <v>4.260542196302897</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.678229572130724</v>
+        <v>4.397767902250338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.956961804815816</v>
+        <v>2.96915994637901</v>
       </c>
       <c r="B8" t="n">
-        <v>4.926952556162385</v>
+        <v>2.922415241014525</v>
       </c>
       <c r="C8" t="n">
-        <v>4.914140414109084</v>
+        <v>2.935864402732682</v>
       </c>
       <c r="D8" t="n">
-        <v>4.89252951924547</v>
+        <v>2.867881557419238</v>
       </c>
       <c r="E8" t="n">
-        <v>4.847934843361898</v>
+        <v>2.915566901861288</v>
       </c>
       <c r="F8" t="n">
-        <v>4.949162169749133</v>
+        <v>3.000425359728386</v>
       </c>
       <c r="G8" t="n">
-        <v>4.915447820300418</v>
+        <v>3.07488146721446</v>
       </c>
       <c r="H8" t="n">
-        <v>5.194366153938698</v>
+        <v>3.261663339989223</v>
       </c>
       <c r="I8" t="n">
-        <v>5.197731009556942</v>
+        <v>3.380193369007786</v>
       </c>
       <c r="J8" t="n">
-        <v>5.341507154547756</v>
+        <v>3.395236370262384</v>
       </c>
       <c r="K8" t="n">
-        <v>5.35038047305985</v>
+        <v>3.519535322774844</v>
       </c>
       <c r="L8" t="n">
-        <v>5.282870942435278</v>
+        <v>3.527404525276206</v>
       </c>
       <c r="M8" t="n">
-        <v>5.276134965173431</v>
+        <v>3.577385766674553</v>
       </c>
       <c r="N8" t="n">
-        <v>5.404471310376287</v>
+        <v>3.916430643504158</v>
       </c>
       <c r="O8" t="n">
-        <v>5.440476518696567</v>
+        <v>3.958796282346469</v>
       </c>
       <c r="P8" t="n">
-        <v>5.704485471593601</v>
+        <v>4.301245177632599</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.678636863779115</v>
+        <v>4.406351899200295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.976910009850192</v>
+        <v>2.915588763925541</v>
       </c>
       <c r="B9" t="n">
-        <v>4.951144740172992</v>
+        <v>2.869098228821101</v>
       </c>
       <c r="C9" t="n">
-        <v>4.942685605937184</v>
+        <v>2.883840864323364</v>
       </c>
       <c r="D9" t="n">
-        <v>4.925850675602854</v>
+        <v>2.831332748507272</v>
       </c>
       <c r="E9" t="n">
-        <v>4.891427638685939</v>
+        <v>2.882818290031079</v>
       </c>
       <c r="F9" t="n">
-        <v>4.980147978454898</v>
+        <v>2.983574080602769</v>
       </c>
       <c r="G9" t="n">
-        <v>4.964481661850182</v>
+        <v>3.078744779125189</v>
       </c>
       <c r="H9" t="n">
-        <v>5.223552986763648</v>
+        <v>3.204651638937173</v>
       </c>
       <c r="I9" t="n">
-        <v>5.228688621148588</v>
+        <v>3.409586629237545</v>
       </c>
       <c r="J9" t="n">
-        <v>5.367935369708028</v>
+        <v>3.601892190176766</v>
       </c>
       <c r="K9" t="n">
-        <v>5.369162884076024</v>
+        <v>3.31126094968617</v>
       </c>
       <c r="L9" t="n">
-        <v>5.31570240891079</v>
+        <v>3.511544453133295</v>
       </c>
       <c r="M9" t="n">
-        <v>5.320764104196482</v>
+        <v>3.565767315206387</v>
       </c>
       <c r="N9" t="n">
-        <v>5.402743140582039</v>
+        <v>3.900625321574331</v>
       </c>
       <c r="O9" t="n">
-        <v>5.468386648854445</v>
+        <v>3.942527484654494</v>
       </c>
       <c r="P9" t="n">
-        <v>5.696959975136411</v>
+        <v>4.316482846311494</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.69685721232051</v>
+        <v>4.398786104129773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.94385077335285</v>
+        <v>2.824942942388613</v>
       </c>
       <c r="B10" t="n">
-        <v>4.916639618323863</v>
+        <v>2.785612708589044</v>
       </c>
       <c r="C10" t="n">
-        <v>4.90667663800169</v>
+        <v>2.791209206932708</v>
       </c>
       <c r="D10" t="n">
-        <v>4.921140817641117</v>
+        <v>2.791279355643221</v>
       </c>
       <c r="E10" t="n">
-        <v>4.881827461232101</v>
+        <v>2.814943044094738</v>
       </c>
       <c r="F10" t="n">
-        <v>5.036134288442693</v>
+        <v>2.991008703287779</v>
       </c>
       <c r="G10" t="n">
-        <v>4.992170288011589</v>
+        <v>3.059476696322715</v>
       </c>
       <c r="H10" t="n">
-        <v>5.29822897059229</v>
+        <v>3.244823847367812</v>
       </c>
       <c r="I10" t="n">
-        <v>5.23061761705562</v>
+        <v>3.420340103380949</v>
       </c>
       <c r="J10" t="n">
-        <v>5.415615436478794</v>
+        <v>3.371845482351754</v>
       </c>
       <c r="K10" t="n">
-        <v>5.367352629349561</v>
+        <v>3.600905545711818</v>
       </c>
       <c r="L10" t="n">
-        <v>5.377145800384484</v>
+        <v>3.539516489081752</v>
       </c>
       <c r="M10" t="n">
-        <v>5.369924206157247</v>
+        <v>3.579335102386225</v>
       </c>
       <c r="N10" t="n">
-        <v>5.415802790637054</v>
+        <v>3.901624132753298</v>
       </c>
       <c r="O10" t="n">
-        <v>5.466465485479113</v>
+        <v>3.92584920099383</v>
       </c>
       <c r="P10" t="n">
-        <v>5.704199114234656</v>
+        <v>4.316190464965234</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.694269343846888</v>
+        <v>4.358088825947267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.950721783461202</v>
+        <v>2.860256829827688</v>
       </c>
       <c r="B11" t="n">
-        <v>4.92206129676648</v>
+        <v>2.82685577795823</v>
       </c>
       <c r="C11" t="n">
-        <v>4.91629216721766</v>
+        <v>2.821193313211996</v>
       </c>
       <c r="D11" t="n">
-        <v>4.932451933319465</v>
+        <v>2.812550954055731</v>
       </c>
       <c r="E11" t="n">
-        <v>4.905087573970429</v>
+        <v>2.835794700768699</v>
       </c>
       <c r="F11" t="n">
-        <v>5.048284738217992</v>
+        <v>2.98520803227449</v>
       </c>
       <c r="G11" t="n">
-        <v>5.028558977083892</v>
+        <v>3.053513675719241</v>
       </c>
       <c r="H11" t="n">
-        <v>5.295179296049647</v>
+        <v>3.245518870906126</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2568744564223</v>
+        <v>3.396421864459574</v>
       </c>
       <c r="J11" t="n">
-        <v>5.404736989851545</v>
+        <v>3.132071486668846</v>
       </c>
       <c r="K11" t="n">
-        <v>5.372381114700848</v>
+        <v>3.207675067370803</v>
       </c>
       <c r="L11" t="n">
-        <v>5.396460196953709</v>
+        <v>3.560684670425104</v>
       </c>
       <c r="M11" t="n">
-        <v>5.405159319960799</v>
+        <v>3.601051926489855</v>
       </c>
       <c r="N11" t="n">
-        <v>5.432608897254729</v>
+        <v>3.910728636937364</v>
       </c>
       <c r="O11" t="n">
-        <v>5.527837444263705</v>
+        <v>3.913181750651371</v>
       </c>
       <c r="P11" t="n">
-        <v>5.721068507708464</v>
+        <v>4.342228753804355</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.714785564080135</v>
+        <v>4.336521804509991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.952882309005281</v>
+        <v>2.840438203215871</v>
       </c>
       <c r="B12" t="n">
-        <v>4.925063976118924</v>
+        <v>2.807584843582158</v>
       </c>
       <c r="C12" t="n">
-        <v>4.920995132551501</v>
+        <v>2.797513085633611</v>
       </c>
       <c r="D12" t="n">
-        <v>4.928929800464688</v>
+        <v>2.78956517970094</v>
       </c>
       <c r="E12" t="n">
-        <v>4.907341149991102</v>
+        <v>2.826790001660566</v>
       </c>
       <c r="F12" t="n">
-        <v>5.050791148361935</v>
+        <v>2.992513763832865</v>
       </c>
       <c r="G12" t="n">
-        <v>5.025342312965409</v>
+        <v>3.045285555154329</v>
       </c>
       <c r="H12" t="n">
-        <v>5.277072989169802</v>
+        <v>3.298174888339507</v>
       </c>
       <c r="I12" t="n">
-        <v>5.238885010915416</v>
+        <v>3.40622329323102</v>
       </c>
       <c r="J12" t="n">
-        <v>5.386342445805147</v>
+        <v>3.214313150497405</v>
       </c>
       <c r="K12" t="n">
-        <v>5.348753812876431</v>
+        <v>3.277879668726992</v>
       </c>
       <c r="L12" t="n">
-        <v>5.402949292816378</v>
+        <v>3.592931405302045</v>
       </c>
       <c r="M12" t="n">
-        <v>5.402708677442559</v>
+        <v>3.615182424193054</v>
       </c>
       <c r="N12" t="n">
-        <v>5.429587419826206</v>
+        <v>3.923843974439635</v>
       </c>
       <c r="O12" t="n">
-        <v>5.463046742042774</v>
+        <v>3.865154407482453</v>
       </c>
       <c r="P12" t="n">
-        <v>5.708715038711505</v>
+        <v>4.383248830118168</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.703515490867894</v>
+        <v>4.336535492063263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.964158334941613</v>
+        <v>2.869680710254743</v>
       </c>
       <c r="B13" t="n">
-        <v>4.938331658215887</v>
+        <v>2.83592378200024</v>
       </c>
       <c r="C13" t="n">
-        <v>4.933369279432148</v>
+        <v>2.828507409386259</v>
       </c>
       <c r="D13" t="n">
-        <v>4.933697932462272</v>
+        <v>2.827347199141638</v>
       </c>
       <c r="E13" t="n">
-        <v>4.910046193138953</v>
+        <v>2.85813906116882</v>
       </c>
       <c r="F13" t="n">
-        <v>5.035461630620311</v>
+        <v>3.032842048391774</v>
       </c>
       <c r="G13" t="n">
-        <v>5.006281377121989</v>
+        <v>3.073225843583394</v>
       </c>
       <c r="H13" t="n">
-        <v>5.259273090930054</v>
+        <v>3.311278439337572</v>
       </c>
       <c r="I13" t="n">
-        <v>5.220634898753562</v>
+        <v>3.410896452043613</v>
       </c>
       <c r="J13" t="n">
-        <v>5.361635507811227</v>
+        <v>3.288819445678806</v>
       </c>
       <c r="K13" t="n">
-        <v>5.338873544089008</v>
+        <v>3.361086305061153</v>
       </c>
       <c r="L13" t="n">
-        <v>5.377135774743907</v>
+        <v>3.637275656011635</v>
       </c>
       <c r="M13" t="n">
-        <v>5.372386127521136</v>
+        <v>3.661525437890018</v>
       </c>
       <c r="N13" t="n">
-        <v>5.419030420299917</v>
+        <v>3.973664006877235</v>
       </c>
       <c r="O13" t="n">
-        <v>5.433944813861451</v>
+        <v>3.932166387038191</v>
       </c>
       <c r="P13" t="n">
-        <v>5.714813761194255</v>
+        <v>4.388538309037767</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.695474300523589</v>
+        <v>4.366894105008437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.007798068560343</v>
+        <v>2.92207419281219</v>
       </c>
       <c r="B14" t="n">
-        <v>4.978522258175284</v>
+        <v>2.888758688150676</v>
       </c>
       <c r="C14" t="n">
-        <v>4.974216245547989</v>
+        <v>2.879721481103525</v>
       </c>
       <c r="D14" t="n">
-        <v>4.972460818543425</v>
+        <v>2.867356487667372</v>
       </c>
       <c r="E14" t="n">
-        <v>4.947366953483535</v>
+        <v>2.902725125319531</v>
       </c>
       <c r="F14" t="n">
-        <v>5.062472272837782</v>
+        <v>3.065377742726658</v>
       </c>
       <c r="G14" t="n">
-        <v>5.042099857886545</v>
+        <v>3.11703114688294</v>
       </c>
       <c r="H14" t="n">
-        <v>5.278437729493179</v>
+        <v>3.311987910848783</v>
       </c>
       <c r="I14" t="n">
-        <v>5.249533807713227</v>
+        <v>3.464844422421847</v>
       </c>
       <c r="J14" t="n">
-        <v>5.403485037984646</v>
+        <v>3.412295243945943</v>
       </c>
       <c r="K14" t="n">
-        <v>5.38178391235585</v>
+        <v>3.571357920297948</v>
       </c>
       <c r="L14" t="n">
-        <v>5.395735217819573</v>
+        <v>3.665981877109155</v>
       </c>
       <c r="M14" t="n">
-        <v>5.398243507771125</v>
+        <v>3.69123123058613</v>
       </c>
       <c r="N14" t="n">
-        <v>5.391248743661915</v>
+        <v>4.033597240133009</v>
       </c>
       <c r="O14" t="n">
-        <v>5.450171313133339</v>
+        <v>3.973530553232843</v>
       </c>
       <c r="P14" t="n">
-        <v>5.678613052882747</v>
+        <v>4.45170940906175</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.672632758279299</v>
+        <v>4.404146302074605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.007798068560343</v>
+        <v>2.969821891663586</v>
       </c>
       <c r="B15" t="n">
-        <v>4.978522258175284</v>
+        <v>2.926620741757028</v>
       </c>
       <c r="C15" t="n">
-        <v>4.974216245547989</v>
+        <v>2.937009594689686</v>
       </c>
       <c r="D15" t="n">
-        <v>4.972460818543425</v>
+        <v>2.914558015122275</v>
       </c>
       <c r="E15" t="n">
-        <v>4.947366953483535</v>
+        <v>2.955889293168096</v>
       </c>
       <c r="F15" t="n">
-        <v>5.062472272837782</v>
+        <v>3.103957822565015</v>
       </c>
       <c r="G15" t="n">
-        <v>5.042099857886545</v>
+        <v>3.182671519537984</v>
       </c>
       <c r="H15" t="n">
-        <v>5.278437729493179</v>
+        <v>3.3204806574436</v>
       </c>
       <c r="I15" t="n">
-        <v>5.249533807713227</v>
+        <v>3.555359071573262</v>
       </c>
       <c r="J15" t="n">
-        <v>5.403485037984646</v>
+        <v>3.500352597075407</v>
       </c>
       <c r="K15" t="n">
-        <v>5.38178391235585</v>
+        <v>3.717864927992539</v>
       </c>
       <c r="L15" t="n">
-        <v>5.395735217819573</v>
+        <v>3.697123342059466</v>
       </c>
       <c r="M15" t="n">
-        <v>5.398243507771125</v>
+        <v>3.730774191776119</v>
       </c>
       <c r="N15" t="n">
-        <v>5.391248743661915</v>
+        <v>4.054234648577298</v>
       </c>
       <c r="O15" t="n">
-        <v>5.450171313133339</v>
+        <v>3.991146054082755</v>
       </c>
       <c r="P15" t="n">
-        <v>5.678613052882747</v>
+        <v>4.479597038431703</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.672632758279299</v>
+        <v>4.446880744435606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.007798068560343</v>
+        <v>2.984262640574261</v>
       </c>
       <c r="B16" t="n">
-        <v>4.978522258175284</v>
+        <v>2.941623250666531</v>
       </c>
       <c r="C16" t="n">
-        <v>4.974216245547989</v>
+        <v>2.957114329185846</v>
       </c>
       <c r="D16" t="n">
-        <v>4.972460818543425</v>
+        <v>2.942149080838024</v>
       </c>
       <c r="E16" t="n">
-        <v>4.947366953483535</v>
+        <v>2.990539904588248</v>
       </c>
       <c r="F16" t="n">
-        <v>5.062472272837782</v>
+        <v>3.140975240071605</v>
       </c>
       <c r="G16" t="n">
-        <v>5.042099857886545</v>
+        <v>3.230946569400125</v>
       </c>
       <c r="H16" t="n">
-        <v>5.278437729493179</v>
+        <v>3.378165710074619</v>
       </c>
       <c r="I16" t="n">
-        <v>5.249533807713227</v>
+        <v>3.676191271010038</v>
       </c>
       <c r="J16" t="n">
-        <v>5.403485037984646</v>
+        <v>3.398546096685264</v>
       </c>
       <c r="K16" t="n">
-        <v>5.38178391235585</v>
+        <v>3.77595490407449</v>
       </c>
       <c r="L16" t="n">
-        <v>5.395735217819573</v>
+        <v>3.738799280300845</v>
       </c>
       <c r="M16" t="n">
-        <v>5.398243507771125</v>
+        <v>3.76992895874695</v>
       </c>
       <c r="N16" t="n">
-        <v>5.391248743661915</v>
+        <v>4.069311108295446</v>
       </c>
       <c r="O16" t="n">
-        <v>5.450171313133339</v>
+        <v>3.98667136479259</v>
       </c>
       <c r="P16" t="n">
-        <v>5.678613052882747</v>
+        <v>4.480073821537308</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.672632758279299</v>
+        <v>4.431298605666058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.052687874238365</v>
+        <v>3.138600449579093</v>
       </c>
       <c r="B17" t="n">
-        <v>5.026321066126619</v>
+        <v>3.096346972631642</v>
       </c>
       <c r="C17" t="n">
-        <v>5.014687876744775</v>
+        <v>3.110635637617084</v>
       </c>
       <c r="D17" t="n">
-        <v>5.001572459064056</v>
+        <v>3.047946073321371</v>
       </c>
       <c r="E17" t="n">
-        <v>4.958522671732957</v>
+        <v>3.095816960152205</v>
       </c>
       <c r="F17" t="n">
-        <v>5.064358973073636</v>
+        <v>3.16520620156424</v>
       </c>
       <c r="G17" t="n">
-        <v>5.03632038939588</v>
+        <v>3.251703363725722</v>
       </c>
       <c r="H17" t="n">
-        <v>5.283404807795938</v>
+        <v>3.267612102724707</v>
       </c>
       <c r="I17" t="n">
-        <v>5.263580983364956</v>
+        <v>3.613784772920164</v>
       </c>
       <c r="J17" t="n">
-        <v>5.410534316514486</v>
+        <v>3.256624039126631</v>
       </c>
       <c r="K17" t="n">
-        <v>5.421987357667234</v>
+        <v>3.666998558149337</v>
       </c>
       <c r="L17" t="n">
-        <v>5.400332600626101</v>
+        <v>3.762101199115214</v>
       </c>
       <c r="M17" t="n">
-        <v>5.398427728916705</v>
+        <v>3.791645782850579</v>
       </c>
       <c r="N17" t="n">
-        <v>5.385520969880469</v>
+        <v>4.088516266373855</v>
       </c>
       <c r="O17" t="n">
-        <v>5.434962416379892</v>
+        <v>3.998053705966832</v>
       </c>
       <c r="P17" t="n">
-        <v>5.650852054128434</v>
+        <v>4.45299984116735</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.650449775300331</v>
+        <v>4.408113411264305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.052687874238365</v>
+        <v>2.993267149577487</v>
       </c>
       <c r="B18" t="n">
-        <v>5.026321066126619</v>
+        <v>2.964933153886975</v>
       </c>
       <c r="C18" t="n">
-        <v>5.014687876744775</v>
+        <v>2.955139899626511</v>
       </c>
       <c r="D18" t="n">
-        <v>5.001572459064056</v>
+        <v>2.963383798898665</v>
       </c>
       <c r="E18" t="n">
-        <v>4.958522671732957</v>
+        <v>2.999319709591943</v>
       </c>
       <c r="F18" t="n">
-        <v>5.064358973073636</v>
+        <v>3.1444248837057</v>
       </c>
       <c r="G18" t="n">
-        <v>5.03632038939588</v>
+        <v>3.23127164879031</v>
       </c>
       <c r="H18" t="n">
-        <v>5.283404807795938</v>
+        <v>3.212993442236197</v>
       </c>
       <c r="I18" t="n">
-        <v>5.263580983364956</v>
+        <v>3.614332275051003</v>
       </c>
       <c r="J18" t="n">
-        <v>5.410534316514486</v>
+        <v>3.185788859795445</v>
       </c>
       <c r="K18" t="n">
-        <v>5.421987357667234</v>
+        <v>3.657121087415274</v>
       </c>
       <c r="L18" t="n">
-        <v>5.400332600626101</v>
+        <v>3.761340399279236</v>
       </c>
       <c r="M18" t="n">
-        <v>5.398427728916705</v>
+        <v>3.789167955498723</v>
       </c>
       <c r="N18" t="n">
-        <v>5.385520969880469</v>
+        <v>4.073459957775799</v>
       </c>
       <c r="O18" t="n">
-        <v>5.434962416379892</v>
+        <v>3.996237443689739</v>
       </c>
       <c r="P18" t="n">
-        <v>5.650852054128434</v>
+        <v>4.422980755585258</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.650449775300331</v>
+        <v>4.471796273696696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.052687874238365</v>
+        <v>3.076637276131274</v>
       </c>
       <c r="B19" t="n">
-        <v>5.026321066126619</v>
+        <v>3.045715572452925</v>
       </c>
       <c r="C19" t="n">
-        <v>5.014687876744775</v>
+        <v>3.035256570809753</v>
       </c>
       <c r="D19" t="n">
-        <v>5.001572459064056</v>
+        <v>3.018060441383671</v>
       </c>
       <c r="E19" t="n">
-        <v>4.958522671732957</v>
+        <v>3.057356266195156</v>
       </c>
       <c r="F19" t="n">
-        <v>5.064358973073636</v>
+        <v>3.19155455150593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.03632038939588</v>
+        <v>3.244635643510337</v>
       </c>
       <c r="H19" t="n">
-        <v>5.283404807795938</v>
+        <v>3.580094001173137</v>
       </c>
       <c r="I19" t="n">
-        <v>5.263580983364956</v>
+        <v>3.389405852778768</v>
       </c>
       <c r="J19" t="n">
-        <v>5.410534316514486</v>
+        <v>3.42945259197109</v>
       </c>
       <c r="K19" t="n">
-        <v>5.421987357667234</v>
+        <v>3.559714755191931</v>
       </c>
       <c r="L19" t="n">
-        <v>5.400332600626101</v>
+        <v>3.756783964879259</v>
       </c>
       <c r="M19" t="n">
-        <v>5.398427728916705</v>
+        <v>3.782535195309503</v>
       </c>
       <c r="N19" t="n">
-        <v>5.385520969880469</v>
+        <v>4.070301174648712</v>
       </c>
       <c r="O19" t="n">
-        <v>5.434962416379892</v>
+        <v>4.022488650024187</v>
       </c>
       <c r="P19" t="n">
-        <v>5.650852054128434</v>
+        <v>4.396142505299412</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.650449775300331</v>
+        <v>4.451588122131376</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.891410093814931</v>
+        <v>2.968109426665464</v>
       </c>
       <c r="B20" t="n">
-        <v>4.828382651130266</v>
+        <v>2.92985670747617</v>
       </c>
       <c r="C20" t="n">
-        <v>4.816193038696467</v>
+        <v>2.922459725562656</v>
       </c>
       <c r="D20" t="n">
-        <v>4.774546841045975</v>
+        <v>2.897136041067222</v>
       </c>
       <c r="E20" t="n">
-        <v>4.822309306050223</v>
+        <v>2.926123427321516</v>
       </c>
       <c r="F20" t="n">
-        <v>5.07139509295022</v>
+        <v>3.077196944976131</v>
       </c>
       <c r="G20" t="n">
-        <v>5.194810728437981</v>
+        <v>3.152199033753792</v>
       </c>
       <c r="H20" t="n">
-        <v>5.819368660348842</v>
+        <v>3.5312378006117</v>
       </c>
       <c r="I20" t="n">
-        <v>5.305215588868531</v>
+        <v>3.218904564200185</v>
       </c>
       <c r="J20" t="n">
-        <v>5.460717033813979</v>
+        <v>3.313308379529618</v>
       </c>
       <c r="K20" t="n">
-        <v>5.856113259661584</v>
+        <v>3.553352704389627</v>
       </c>
       <c r="L20" t="n">
-        <v>6.149779310586826</v>
+        <v>3.731581377209293</v>
       </c>
       <c r="M20" t="n">
-        <v>6.200735255415726</v>
+        <v>3.762534258092314</v>
       </c>
       <c r="N20" t="n">
-        <v>6.72971687591014</v>
+        <v>4.083549965795375</v>
       </c>
       <c r="O20" t="n">
-        <v>6.625350584118884</v>
+        <v>4.02016138575831</v>
       </c>
       <c r="P20" t="n">
-        <v>7.24746664594701</v>
+        <v>4.397640912172768</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.324578233833028</v>
+        <v>4.444437516176739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.774530236078771</v>
+        <v>2.897060759524232</v>
       </c>
       <c r="B21" t="n">
-        <v>4.710134293455512</v>
+        <v>2.857982034516017</v>
       </c>
       <c r="C21" t="n">
-        <v>4.696637274830379</v>
+        <v>2.849793075561853</v>
       </c>
       <c r="D21" t="n">
-        <v>4.701760063863331</v>
+        <v>2.852915358546884</v>
       </c>
       <c r="E21" t="n">
-        <v>4.741938131772007</v>
+        <v>2.877298213859846</v>
       </c>
       <c r="F21" t="n">
-        <v>4.97866950977124</v>
+        <v>3.020896616484358</v>
       </c>
       <c r="G21" t="n">
-        <v>5.192466608350857</v>
+        <v>3.150704428978565</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788279148923372</v>
+        <v>3.512199174431422</v>
       </c>
       <c r="I21" t="n">
-        <v>4.711092368733035</v>
+        <v>2.858406348667417</v>
       </c>
       <c r="J21" t="n">
-        <v>4.244048215811939</v>
+        <v>2.575057076621877</v>
       </c>
       <c r="K21" t="n">
-        <v>5.837968103424508</v>
+        <v>3.542292400927066</v>
       </c>
       <c r="L21" t="n">
-        <v>6.130578329076614</v>
+        <v>3.719931748536454</v>
       </c>
       <c r="M21" t="n">
-        <v>6.202797404361655</v>
+        <v>3.763788950475486</v>
       </c>
       <c r="N21" t="n">
-        <v>6.75564130263148</v>
+        <v>4.09915149526539</v>
       </c>
       <c r="O21" t="n">
-        <v>6.640986197199338</v>
+        <v>4.029654084161534</v>
       </c>
       <c r="P21" t="n">
-        <v>7.303238657867496</v>
+        <v>4.431506580433814</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.342696446161057</v>
+        <v>4.45539668382902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.777350887394512</v>
+        <v>2.89869984402843</v>
       </c>
       <c r="B22" t="n">
-        <v>4.711119312642082</v>
+        <v>2.858539422101996</v>
       </c>
       <c r="C22" t="n">
-        <v>4.732711722730884</v>
+        <v>2.871622821979967</v>
       </c>
       <c r="D22" t="n">
-        <v>4.724730059627498</v>
+        <v>2.866900235891673</v>
       </c>
       <c r="E22" t="n">
-        <v>4.79347117753655</v>
+        <v>2.90855488238352</v>
       </c>
       <c r="F22" t="n">
-        <v>5.02979557718866</v>
+        <v>3.052089980074154</v>
       </c>
       <c r="G22" t="n">
-        <v>5.180254438225762</v>
+        <v>3.143274178706406</v>
       </c>
       <c r="H22" t="n">
-        <v>5.248999002448762</v>
+        <v>3.185353139349653</v>
       </c>
       <c r="I22" t="n">
-        <v>5.772639776227702</v>
+        <v>3.502718642742217</v>
       </c>
       <c r="J22" t="n">
-        <v>5.192481646811721</v>
+        <v>3.15103064899819</v>
       </c>
       <c r="K22" t="n">
-        <v>5.843498497407118</v>
+        <v>3.545770940506955</v>
       </c>
       <c r="L22" t="n">
-        <v>6.067579083506066</v>
+        <v>3.681741954071225</v>
       </c>
       <c r="M22" t="n">
-        <v>6.154510159733518</v>
+        <v>3.734451200878437</v>
       </c>
       <c r="N22" t="n">
-        <v>6.576467440479025</v>
+        <v>3.990444186767805</v>
       </c>
       <c r="O22" t="n">
-        <v>6.579477012459365</v>
+        <v>3.992342954574338</v>
       </c>
       <c r="P22" t="n">
-        <v>7.224261047629312</v>
+        <v>4.383567826151344</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.277395689475834</v>
+        <v>4.415809238090902</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.80141963070553</v>
+        <v>2.913258838190973</v>
       </c>
       <c r="B23" t="n">
-        <v>4.737606741742005</v>
+        <v>2.874524203063598</v>
       </c>
       <c r="C23" t="n">
-        <v>4.715537800424586</v>
+        <v>2.861129031138899</v>
       </c>
       <c r="D23" t="n">
-        <v>4.663668582399486</v>
+        <v>2.829641955468496</v>
       </c>
       <c r="E23" t="n">
-        <v>4.735683071956529</v>
+        <v>2.873348214111734</v>
       </c>
       <c r="F23" t="n">
-        <v>4.940891016274121</v>
+        <v>2.997935175557604</v>
       </c>
       <c r="G23" t="n">
-        <v>5.163556420545545</v>
+        <v>3.133049576413</v>
       </c>
       <c r="H23" t="n">
-        <v>5.135371525175636</v>
+        <v>3.116091838539721</v>
       </c>
       <c r="I23" t="n">
-        <v>5.90640813881502</v>
+        <v>3.583897239933399</v>
       </c>
       <c r="J23" t="n">
-        <v>4.965286532807656</v>
+        <v>3.012883314463837</v>
       </c>
       <c r="K23" t="n">
-        <v>5.929698328475075</v>
+        <v>3.598238373873046</v>
       </c>
       <c r="L23" t="n">
-        <v>6.035149269256123</v>
+        <v>3.661997658477866</v>
       </c>
       <c r="M23" t="n">
-        <v>6.12579609852197</v>
+        <v>3.716992726681328</v>
       </c>
       <c r="N23" t="n">
-        <v>6.609548294763859</v>
+        <v>4.010646254976114</v>
       </c>
       <c r="O23" t="n">
-        <v>6.507698438757122</v>
+        <v>3.948813113284369</v>
       </c>
       <c r="P23" t="n">
-        <v>7.292328254510911</v>
+        <v>4.424987883188519</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.21870746935287</v>
+        <v>4.380317412459305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.611153963762322</v>
+        <v>2.798124082803234</v>
       </c>
       <c r="B24" t="n">
-        <v>4.51611214430907</v>
+        <v>2.740449676046981</v>
       </c>
       <c r="C24" t="n">
-        <v>4.551849166743947</v>
+        <v>2.762137604204816</v>
       </c>
       <c r="D24" t="n">
-        <v>4.475030828844771</v>
+        <v>2.715497076329116</v>
       </c>
       <c r="E24" t="n">
-        <v>4.587109344648939</v>
+        <v>2.783524216085784</v>
       </c>
       <c r="F24" t="n">
-        <v>4.721795993252744</v>
+        <v>2.865116671658505</v>
       </c>
       <c r="G24" t="n">
-        <v>5.077199625542325</v>
+        <v>3.080941061110458</v>
       </c>
       <c r="H24" t="n">
-        <v>4.510526922604561</v>
+        <v>2.736722479249337</v>
       </c>
       <c r="I24" t="n">
-        <v>5.855444674755688</v>
+        <v>3.553081614792899</v>
       </c>
       <c r="J24" t="n">
-        <v>4.105842880667307</v>
+        <v>2.491221953466691</v>
       </c>
       <c r="K24" t="n">
-        <v>5.903232517162643</v>
+        <v>3.581999232546492</v>
       </c>
       <c r="L24" t="n">
-        <v>6.046316579652461</v>
+        <v>3.668853221617551</v>
       </c>
       <c r="M24" t="n">
-        <v>6.17252498264311</v>
+        <v>3.745513785599877</v>
       </c>
       <c r="N24" t="n">
-        <v>6.63070991560917</v>
+        <v>4.023298496926051</v>
       </c>
       <c r="O24" t="n">
-        <v>6.442205315093351</v>
+        <v>3.909050390822419</v>
       </c>
       <c r="P24" t="n">
-        <v>7.412506861297769</v>
+        <v>4.497769926867593</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.205134631820882</v>
+        <v>4.371990817552804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.657335197267011</v>
+        <v>2.825865711604964</v>
       </c>
       <c r="B25" t="n">
-        <v>4.605871704383962</v>
+        <v>2.794623491054186</v>
       </c>
       <c r="C25" t="n">
-        <v>4.599204966702342</v>
+        <v>2.790583761790188</v>
       </c>
       <c r="D25" t="n">
-        <v>4.639055948087234</v>
+        <v>2.814775751776982</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669032300107525</v>
+        <v>2.832955103779694</v>
       </c>
       <c r="F25" t="n">
-        <v>4.854227186028267</v>
+        <v>2.945428770685671</v>
       </c>
       <c r="G25" t="n">
-        <v>5.14573271140943</v>
+        <v>3.122268156848334</v>
       </c>
       <c r="H25" t="n">
-        <v>4.697288941467804</v>
+        <v>2.850516804941055</v>
       </c>
       <c r="I25" t="n">
-        <v>5.860066495061119</v>
+        <v>3.555871974611109</v>
       </c>
       <c r="J25" t="n">
-        <v>4.67376753547197</v>
+        <v>2.83630798401636</v>
       </c>
       <c r="K25" t="n">
-        <v>5.890447945620926</v>
+        <v>3.574270707675971</v>
       </c>
       <c r="L25" t="n">
-        <v>6.11170067447497</v>
+        <v>3.708547506313146</v>
       </c>
       <c r="M25" t="n">
-        <v>6.220381124726488</v>
+        <v>3.774489195245058</v>
       </c>
       <c r="N25" t="n">
-        <v>6.660971685084604</v>
+        <v>4.041807871046519</v>
       </c>
       <c r="O25" t="n">
-        <v>6.557196279484782</v>
+        <v>3.978905199150573</v>
       </c>
       <c r="P25" t="n">
-        <v>7.505124982141828</v>
+        <v>4.553944405911236</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.294099033277607</v>
+        <v>4.426028897656739</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.033347473663896</v>
+        <v>3.054160412611294</v>
       </c>
       <c r="B26" t="n">
-        <v>4.976507731022089</v>
+        <v>3.019669869522448</v>
       </c>
       <c r="C26" t="n">
-        <v>4.942321549863776</v>
+        <v>2.998922960651992</v>
       </c>
       <c r="D26" t="n">
-        <v>4.826557357942939</v>
+        <v>2.928686231566596</v>
       </c>
       <c r="E26" t="n">
-        <v>4.931843502257022</v>
+        <v>2.992585813592444</v>
       </c>
       <c r="F26" t="n">
-        <v>5.037894101665009</v>
+        <v>3.056915983231606</v>
       </c>
       <c r="G26" t="n">
-        <v>5.261356544362206</v>
+        <v>3.192540435551253</v>
       </c>
       <c r="H26" t="n">
-        <v>5.274200643144843</v>
+        <v>3.200326752313363</v>
       </c>
       <c r="I26" t="n">
-        <v>5.929813623341697</v>
+        <v>3.598130014076318</v>
       </c>
       <c r="J26" t="n">
-        <v>5.382194963619456</v>
+        <v>3.265794699818174</v>
       </c>
       <c r="K26" t="n">
-        <v>5.774535875501595</v>
+        <v>3.503868397216978</v>
       </c>
       <c r="L26" t="n">
-        <v>6.216196672991175</v>
+        <v>3.7719125133418</v>
       </c>
       <c r="M26" t="n">
-        <v>6.290068725766147</v>
+        <v>3.816754838906528</v>
       </c>
       <c r="N26" t="n">
-        <v>6.822200277208962</v>
+        <v>4.139510006504439</v>
       </c>
       <c r="O26" t="n">
-        <v>6.530935367201618</v>
+        <v>3.962883537837102</v>
       </c>
       <c r="P26" t="n">
-        <v>7.608827701847475</v>
+        <v>4.616876353962789</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.267145725192179</v>
+        <v>4.409646037020839</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.939366492304067</v>
+        <v>2.99724452443214</v>
       </c>
       <c r="B27" t="n">
-        <v>4.892868511217439</v>
+        <v>2.969032195881815</v>
       </c>
       <c r="C27" t="n">
-        <v>4.863219245720932</v>
+        <v>2.951025839344054</v>
       </c>
       <c r="D27" t="n">
-        <v>4.831886612511498</v>
+        <v>2.931973905820318</v>
       </c>
       <c r="E27" t="n">
-        <v>4.917219538970918</v>
+        <v>2.983792321035478</v>
       </c>
       <c r="F27" t="n">
-        <v>5.138444697313379</v>
+        <v>3.117896884627328</v>
       </c>
       <c r="G27" t="n">
-        <v>5.253018971018379</v>
+        <v>3.187508358675109</v>
       </c>
       <c r="H27" t="n">
-        <v>5.38787636881324</v>
+        <v>3.269204421421895</v>
       </c>
       <c r="I27" t="n">
-        <v>5.859041373312246</v>
+        <v>3.555237024223262</v>
       </c>
       <c r="J27" t="n">
-        <v>5.45152289480346</v>
+        <v>3.307967572285252</v>
       </c>
       <c r="K27" t="n">
-        <v>5.679966514360477</v>
+        <v>3.446655945383621</v>
       </c>
       <c r="L27" t="n">
-        <v>6.243007115698399</v>
+        <v>3.788185493341718</v>
       </c>
       <c r="M27" t="n">
-        <v>6.266047917549132</v>
+        <v>3.802214475024825</v>
       </c>
       <c r="N27" t="n">
-        <v>6.907428247743605</v>
+        <v>4.191257322484553</v>
       </c>
       <c r="O27" t="n">
-        <v>6.546421222275971</v>
+        <v>3.972302855746401</v>
       </c>
       <c r="P27" t="n">
-        <v>7.633151159089371</v>
+        <v>4.631714041918322</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.242195665414297</v>
+        <v>4.394487832192878</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.824620216202939</v>
+        <v>2.927188204903053</v>
       </c>
       <c r="B28" t="n">
-        <v>4.77671269271161</v>
+        <v>2.898114701126096</v>
       </c>
       <c r="C28" t="n">
-        <v>4.75281751830306</v>
+        <v>2.883626806198599</v>
       </c>
       <c r="D28" t="n">
-        <v>4.792548818603579</v>
+        <v>2.907857577586328</v>
       </c>
       <c r="E28" t="n">
-        <v>4.857290332525434</v>
+        <v>2.947111959528186</v>
       </c>
       <c r="F28" t="n">
-        <v>5.12400871478807</v>
+        <v>3.109207189349334</v>
       </c>
       <c r="G28" t="n">
-        <v>5.298277218987561</v>
+        <v>3.214927949765159</v>
       </c>
       <c r="H28" t="n">
-        <v>5.106418728397878</v>
+        <v>3.098804648863406</v>
       </c>
       <c r="I28" t="n">
-        <v>5.849548344892061</v>
+        <v>3.549567715700393</v>
       </c>
       <c r="J28" t="n">
-        <v>5.081272542026232</v>
+        <v>3.08370822813007</v>
       </c>
       <c r="K28" t="n">
-        <v>5.580255879411595</v>
+        <v>3.386245168602616</v>
       </c>
       <c r="L28" t="n">
-        <v>6.26730488223632</v>
+        <v>3.803031165703326</v>
       </c>
       <c r="M28" t="n">
-        <v>6.323565017532339</v>
+        <v>3.837185033002687</v>
       </c>
       <c r="N28" t="n">
-        <v>6.835495529817508</v>
+        <v>4.147662465316548</v>
       </c>
       <c r="O28" t="n">
-        <v>6.64168673883457</v>
+        <v>4.030198164404054</v>
       </c>
       <c r="P28" t="n">
-        <v>7.577284530185951</v>
+        <v>4.597836206943258</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.423515014649968</v>
+        <v>4.50461332329326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.006893881100916</v>
+        <v>3.038015563318384</v>
       </c>
       <c r="B29" t="n">
-        <v>4.951952744143146</v>
+        <v>3.004678766907336</v>
       </c>
       <c r="C29" t="n">
-        <v>4.963940590560358</v>
+        <v>3.011948948848187</v>
       </c>
       <c r="D29" t="n">
-        <v>4.974235043624069</v>
+        <v>3.018226402967081</v>
       </c>
       <c r="E29" t="n">
-        <v>5.021023768287395</v>
+        <v>3.046613818136331</v>
       </c>
       <c r="F29" t="n">
-        <v>5.294786416259583</v>
+        <v>3.212752769424515</v>
       </c>
       <c r="G29" t="n">
-        <v>5.301539938392438</v>
+        <v>3.216860936454868</v>
       </c>
       <c r="H29" t="n">
-        <v>5.480251367873336</v>
+        <v>3.325325671091707</v>
       </c>
       <c r="I29" t="n">
-        <v>5.604391355892695</v>
+        <v>3.400639912125908</v>
       </c>
       <c r="J29" t="n">
-        <v>5.415690002180577</v>
+        <v>3.286173185379754</v>
       </c>
       <c r="K29" t="n">
-        <v>5.483069199477664</v>
+        <v>3.327045360076278</v>
       </c>
       <c r="L29" t="n">
-        <v>6.352220178105505</v>
+        <v>3.854368235295124</v>
       </c>
       <c r="M29" t="n">
-        <v>6.334493592362467</v>
+        <v>3.843610198633963</v>
       </c>
       <c r="N29" t="n">
-        <v>6.856490474388248</v>
+        <v>4.160371358528634</v>
       </c>
       <c r="O29" t="n">
-        <v>6.546778385721483</v>
+        <v>3.972444674006681</v>
       </c>
       <c r="P29" t="n">
-        <v>7.568297170012307</v>
+        <v>4.592372591929268</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.233370595297473</v>
+        <v>4.389138660332625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.953358840233898</v>
+        <v>3.005644880042378</v>
       </c>
       <c r="B30" t="n">
-        <v>4.89634458878582</v>
+        <v>2.971035141177131</v>
       </c>
       <c r="C30" t="n">
-        <v>4.901687628610171</v>
+        <v>2.974288596547676</v>
       </c>
       <c r="D30" t="n">
-        <v>4.951987833885162</v>
+        <v>3.004783324605934</v>
       </c>
       <c r="E30" t="n">
-        <v>4.95516940826163</v>
+        <v>3.006736272310831</v>
       </c>
       <c r="F30" t="n">
-        <v>5.312167117402757</v>
+        <v>3.223385336847359</v>
       </c>
       <c r="G30" t="n">
-        <v>5.274570338641075</v>
+        <v>3.200579591839062</v>
       </c>
       <c r="H30" t="n">
-        <v>5.423827689315424</v>
+        <v>3.291123517146084</v>
       </c>
       <c r="I30" t="n">
-        <v>5.537942036759011</v>
+        <v>3.360407630544802</v>
       </c>
       <c r="J30" t="n">
-        <v>5.257637658311131</v>
+        <v>3.190405177240983</v>
       </c>
       <c r="K30" t="n">
-        <v>5.36300400774982</v>
+        <v>3.254182711916831</v>
       </c>
       <c r="L30" t="n">
-        <v>6.354037325459863</v>
+        <v>3.855504682426427</v>
       </c>
       <c r="M30" t="n">
-        <v>6.326311416447565</v>
+        <v>3.838682679456418</v>
       </c>
       <c r="N30" t="n">
-        <v>6.861718845948514</v>
+        <v>4.163588693966935</v>
       </c>
       <c r="O30" t="n">
-        <v>6.65442870140384</v>
+        <v>4.037747610452614</v>
       </c>
       <c r="P30" t="n">
-        <v>7.487766212087414</v>
+        <v>4.543433125418765</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.34906774074696</v>
+        <v>4.459280907279468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.976040598831512</v>
+        <v>3.019386042896982</v>
       </c>
       <c r="B31" t="n">
-        <v>4.919478127811879</v>
+        <v>2.985064883279865</v>
       </c>
       <c r="C31" t="n">
-        <v>4.925873546595418</v>
+        <v>2.988947966100873</v>
       </c>
       <c r="D31" t="n">
-        <v>4.979121916802222</v>
+        <v>3.021263899163795</v>
       </c>
       <c r="E31" t="n">
-        <v>4.97610639209779</v>
+        <v>3.019454480663337</v>
       </c>
       <c r="F31" t="n">
-        <v>5.41456086441073</v>
+        <v>3.285461812819477</v>
       </c>
       <c r="G31" t="n">
-        <v>5.241808738348326</v>
+        <v>3.180716290574209</v>
       </c>
       <c r="H31" t="n">
-        <v>5.775736445960544</v>
+        <v>3.504589275022582</v>
       </c>
       <c r="I31" t="n">
-        <v>5.362551600718838</v>
+        <v>3.253957627707486</v>
       </c>
       <c r="J31" t="n">
-        <v>5.666409968494425</v>
+        <v>3.438409954957494</v>
       </c>
       <c r="K31" t="n">
-        <v>5.121574363935766</v>
+        <v>3.107596240371305</v>
       </c>
       <c r="L31" t="n">
-        <v>6.410452231582272</v>
+        <v>3.889778315816909</v>
       </c>
       <c r="M31" t="n">
-        <v>6.338016978422315</v>
+        <v>3.845857999048905</v>
       </c>
       <c r="N31" t="n">
-        <v>6.922107665354143</v>
+        <v>4.200170200922826</v>
       </c>
       <c r="O31" t="n">
-        <v>6.686492579772769</v>
+        <v>4.057217394560928</v>
       </c>
       <c r="P31" t="n">
-        <v>7.444535649924682</v>
+        <v>4.517192184749272</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.362409988545705</v>
+        <v>4.467275959228961</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.053098612200703</v>
+        <v>3.066102042420579</v>
       </c>
       <c r="B32" t="n">
-        <v>5.000021304486223</v>
+        <v>3.033890096741535</v>
       </c>
       <c r="C32" t="n">
-        <v>5.00044332129421</v>
+        <v>3.034150160253684</v>
       </c>
       <c r="D32" t="n">
-        <v>5.036875245941495</v>
+        <v>3.056244342596797</v>
       </c>
       <c r="E32" t="n">
-        <v>5.029470370472484</v>
+        <v>3.051755585543548</v>
       </c>
       <c r="F32" t="n">
-        <v>5.382068389907188</v>
+        <v>3.265713715127988</v>
       </c>
       <c r="G32" t="n">
-        <v>5.257897698363565</v>
+        <v>3.190351947867151</v>
       </c>
       <c r="H32" t="n">
-        <v>5.449455106434707</v>
+        <v>3.306656608849745</v>
       </c>
       <c r="I32" t="n">
-        <v>5.229741313409043</v>
+        <v>3.173274443902751</v>
       </c>
       <c r="J32" t="n">
-        <v>5.340478899786203</v>
+        <v>3.240649904039796</v>
       </c>
       <c r="K32" t="n">
-        <v>4.981730149858262</v>
+        <v>3.022895569576638</v>
       </c>
       <c r="L32" t="n">
-        <v>6.474101263982636</v>
+        <v>3.92839888800036</v>
       </c>
       <c r="M32" t="n">
-        <v>6.416245798629996</v>
+        <v>3.893298678476237</v>
       </c>
       <c r="N32" t="n">
-        <v>6.987312551851359</v>
+        <v>4.239778177990852</v>
       </c>
       <c r="O32" t="n">
-        <v>6.818037756562409</v>
+        <v>4.137072481392769</v>
       </c>
       <c r="P32" t="n">
-        <v>7.459398035475729</v>
+        <v>4.526262850259974</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.519168398178341</v>
+        <v>4.562563382163996</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.160588830935117</v>
+        <v>3.131196243679131</v>
       </c>
       <c r="B33" t="n">
-        <v>5.085940730919326</v>
+        <v>3.085885499624685</v>
       </c>
       <c r="C33" t="n">
-        <v>5.103060138804993</v>
+        <v>3.096296784936315</v>
       </c>
       <c r="D33" t="n">
-        <v>5.094397985347526</v>
+        <v>3.091020613360174</v>
       </c>
       <c r="E33" t="n">
-        <v>5.143530516796708</v>
+        <v>3.120894839003482</v>
       </c>
       <c r="F33" t="n">
-        <v>5.496206548247142</v>
+        <v>3.334875020757079</v>
       </c>
       <c r="G33" t="n">
-        <v>5.535534629815754</v>
+        <v>3.358799343035464</v>
       </c>
       <c r="H33" t="n">
-        <v>5.969889868338275</v>
+        <v>3.622384358472458</v>
       </c>
       <c r="I33" t="n">
-        <v>6.130444862736448</v>
+        <v>3.719897909863089</v>
       </c>
       <c r="J33" t="n">
-        <v>6.176557796564714</v>
+        <v>3.747947128403603</v>
       </c>
       <c r="K33" t="n">
-        <v>5.850282723064237</v>
+        <v>3.550023587266279</v>
       </c>
       <c r="L33" t="n">
-        <v>6.570510956771944</v>
+        <v>3.986768318294926</v>
       </c>
       <c r="M33" t="n">
-        <v>6.558720803454836</v>
+        <v>3.979633681152439</v>
       </c>
       <c r="N33" t="n">
-        <v>7.124324209164939</v>
+        <v>4.322859345086696</v>
       </c>
       <c r="O33" t="n">
-        <v>6.879873401223629</v>
+        <v>4.174526569869684</v>
       </c>
       <c r="P33" t="n">
-        <v>7.621986981705712</v>
+        <v>4.62488851535387</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.551403339039593</v>
+        <v>4.581965488925581</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.053252756424556</v>
+        <v>3.066370470548615</v>
       </c>
       <c r="B34" t="n">
-        <v>4.974051762382293</v>
+        <v>3.018315942378062</v>
       </c>
       <c r="C34" t="n">
-        <v>4.999455482396228</v>
+        <v>3.033730408620041</v>
       </c>
       <c r="D34" t="n">
-        <v>4.953756419542981</v>
+        <v>3.005994673070414</v>
       </c>
       <c r="E34" t="n">
-        <v>5.030373931329374</v>
+        <v>3.052483497230694</v>
       </c>
       <c r="F34" t="n">
-        <v>5.345742361088484</v>
+        <v>3.243801843390247</v>
       </c>
       <c r="G34" t="n">
-        <v>5.466578900538126</v>
+        <v>3.317164467453897</v>
       </c>
       <c r="H34" t="n">
-        <v>5.910058725189673</v>
+        <v>3.586190665525911</v>
       </c>
       <c r="I34" t="n">
-        <v>6.213910826939899</v>
+        <v>3.770548320532461</v>
       </c>
       <c r="J34" t="n">
-        <v>6.337295132300859</v>
+        <v>3.845535581127411</v>
       </c>
       <c r="K34" t="n">
-        <v>6.204972341764061</v>
+        <v>3.764769891793238</v>
       </c>
       <c r="L34" t="n">
-        <v>6.42849086538823</v>
+        <v>3.900738624098629</v>
       </c>
       <c r="M34" t="n">
-        <v>6.45390962386303</v>
+        <v>3.916153850760234</v>
       </c>
       <c r="N34" t="n">
-        <v>7.030455389659053</v>
+        <v>4.266034707262683</v>
       </c>
       <c r="O34" t="n">
-        <v>6.815527586803249</v>
+        <v>4.135555064028758</v>
       </c>
       <c r="P34" t="n">
-        <v>7.669556766430145</v>
+        <v>4.653808414366342</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.564790075618394</v>
+        <v>4.590139999906849</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.931764550337488</v>
+        <v>2.992630108035668</v>
       </c>
       <c r="B35" t="n">
-        <v>4.856834479180504</v>
+        <v>2.947170511839401</v>
       </c>
       <c r="C35" t="n">
-        <v>4.884200718337147</v>
+        <v>2.963781498363149</v>
       </c>
       <c r="D35" t="n">
-        <v>4.871146707704956</v>
+        <v>2.955828839807815</v>
       </c>
       <c r="E35" t="n">
-        <v>4.940028184582069</v>
+        <v>2.997642604106437</v>
       </c>
       <c r="F35" t="n">
-        <v>5.283561458429935</v>
+        <v>3.206005185871745</v>
       </c>
       <c r="G35" t="n">
-        <v>5.384911912215491</v>
+        <v>3.26751628985181</v>
       </c>
       <c r="H35" t="n">
-        <v>5.814446070826138</v>
+        <v>3.528108673850034</v>
       </c>
       <c r="I35" t="n">
-        <v>6.066509472977139</v>
+        <v>3.68104312843478</v>
       </c>
       <c r="J35" t="n">
-        <v>6.298151271877828</v>
+        <v>3.821542440872859</v>
       </c>
       <c r="K35" t="n">
-        <v>6.244087378470438</v>
+        <v>3.788733755892183</v>
       </c>
       <c r="L35" t="n">
-        <v>6.367281196660459</v>
+        <v>3.863596687878255</v>
       </c>
       <c r="M35" t="n">
-        <v>6.391624705183506</v>
+        <v>3.878367078696872</v>
       </c>
       <c r="N35" t="n">
-        <v>6.975269251109713</v>
+        <v>4.232522253917991</v>
       </c>
       <c r="O35" t="n">
-        <v>6.793061379478015</v>
+        <v>4.121915036984435</v>
       </c>
       <c r="P35" t="n">
-        <v>7.643237580111134</v>
+        <v>4.637835800118759</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.52370625374395</v>
+        <v>4.565273517711646</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.820705516859368</v>
+        <v>2.925113780162876</v>
       </c>
       <c r="B36" t="n">
-        <v>4.744171029908992</v>
+        <v>2.878672672334138</v>
       </c>
       <c r="C36" t="n">
-        <v>4.763551846347032</v>
+        <v>2.890434272796929</v>
       </c>
       <c r="D36" t="n">
-        <v>4.72622356677202</v>
+        <v>2.867773958042136</v>
       </c>
       <c r="E36" t="n">
-        <v>4.78782047586703</v>
+        <v>2.905149343087743</v>
       </c>
       <c r="F36" t="n">
-        <v>5.100890840825411</v>
+        <v>3.095094941717162</v>
       </c>
       <c r="G36" t="n">
-        <v>5.215811939034079</v>
+        <v>3.16484899444485</v>
       </c>
       <c r="H36" t="n">
-        <v>5.649282414775789</v>
+        <v>3.42791920579493</v>
       </c>
       <c r="I36" t="n">
-        <v>5.897336813901553</v>
+        <v>3.578405109183426</v>
       </c>
       <c r="J36" t="n">
-        <v>6.106679081751579</v>
+        <v>3.705437009832321</v>
       </c>
       <c r="K36" t="n">
-        <v>6.115004123044687</v>
+        <v>3.710411294816875</v>
       </c>
       <c r="L36" t="n">
-        <v>6.196859092128117</v>
+        <v>3.760197488581111</v>
       </c>
       <c r="M36" t="n">
-        <v>6.232784721926326</v>
+        <v>3.781997958843618</v>
       </c>
       <c r="N36" t="n">
-        <v>6.914470007043012</v>
+        <v>4.195585630996681</v>
       </c>
       <c r="O36" t="n">
-        <v>6.822463450274076</v>
+        <v>4.139743075119859</v>
       </c>
       <c r="P36" t="n">
-        <v>7.616392047661895</v>
+        <v>4.621524038717906</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.537406291590743</v>
+        <v>4.573580721917679</v>
       </c>
     </row>
   </sheetData>
@@ -4345,1857 +4345,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.61517831854969</v>
+        <v>7.654626530831641</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6512781438529</v>
+        <v>7.676538022359569</v>
       </c>
       <c r="C2" t="n">
-        <v>12.62917912561376</v>
+        <v>7.66311205344001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.91656411271828</v>
+        <v>7.83745802364848</v>
       </c>
       <c r="E2" t="n">
-        <v>12.7667735232858</v>
+        <v>7.746606128392862</v>
       </c>
       <c r="F2" t="n">
-        <v>13.11736641460535</v>
+        <v>7.959313747902073</v>
       </c>
       <c r="G2" t="n">
-        <v>12.89962453976044</v>
+        <v>7.827201483730774</v>
       </c>
       <c r="H2" t="n">
-        <v>13.20530256130053</v>
+        <v>8.012765924684048</v>
       </c>
       <c r="I2" t="n">
-        <v>12.94877649588823</v>
+        <v>7.857096620913802</v>
       </c>
       <c r="J2" t="n">
-        <v>12.95649498592651</v>
+        <v>7.861723013919386</v>
       </c>
       <c r="K2" t="n">
-        <v>12.6497179035383</v>
+        <v>7.675606508317517</v>
       </c>
       <c r="L2" t="n">
-        <v>13.26728483095517</v>
+        <v>8.050339018832457</v>
       </c>
       <c r="M2" t="n">
-        <v>13.02433974890783</v>
+        <v>7.902949924371516</v>
       </c>
       <c r="N2" t="n">
-        <v>13.28665311534249</v>
+        <v>8.062051762334267</v>
       </c>
       <c r="O2" t="n">
-        <v>12.48727244928906</v>
+        <v>7.577104031203059</v>
       </c>
       <c r="P2" t="n">
-        <v>13.58707268840058</v>
+        <v>8.244359326028679</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.37940783553939</v>
+        <v>7.511666880693107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.33707080859298</v>
+        <v>7.485808050885761</v>
       </c>
       <c r="B3" t="n">
-        <v>12.36655496432125</v>
+        <v>7.50370452678754</v>
       </c>
       <c r="C3" t="n">
-        <v>12.36279534910534</v>
+        <v>7.501410340775402</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66943207252548</v>
+        <v>7.687506315047364</v>
       </c>
       <c r="E3" t="n">
-        <v>12.47263250763828</v>
+        <v>7.568083933597497</v>
       </c>
       <c r="F3" t="n">
-        <v>12.83329239530098</v>
+        <v>7.786978327185182</v>
       </c>
       <c r="G3" t="n">
-        <v>12.58310504114272</v>
+        <v>7.635192486445757</v>
       </c>
       <c r="H3" t="n">
-        <v>12.91297242698201</v>
+        <v>7.835382078069051</v>
       </c>
       <c r="I3" t="n">
-        <v>12.69127042410966</v>
+        <v>7.70080605430898</v>
       </c>
       <c r="J3" t="n">
-        <v>12.68765618068209</v>
+        <v>7.69869056690899</v>
       </c>
       <c r="K3" t="n">
-        <v>12.50610436190557</v>
+        <v>7.588451012864684</v>
       </c>
       <c r="L3" t="n">
-        <v>13.04274055897959</v>
+        <v>7.914059655109778</v>
       </c>
       <c r="M3" t="n">
-        <v>12.77977427270244</v>
+        <v>7.754503086210579</v>
       </c>
       <c r="N3" t="n">
-        <v>12.96116066840946</v>
+        <v>7.864703858853951</v>
       </c>
       <c r="O3" t="n">
-        <v>12.18891439857435</v>
+        <v>7.396028347303034</v>
       </c>
       <c r="P3" t="n">
-        <v>13.29753344177734</v>
+        <v>8.06862939210059</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.0688385546034</v>
+        <v>7.3230440320034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.22432496108798</v>
+        <v>7.4175079204833</v>
       </c>
       <c r="B4" t="n">
-        <v>12.27790323752998</v>
+        <v>7.45002346369809</v>
       </c>
       <c r="C4" t="n">
-        <v>12.24446396659457</v>
+        <v>7.42974003058978</v>
       </c>
       <c r="D4" t="n">
-        <v>12.53341420683398</v>
+        <v>7.605112567293572</v>
       </c>
       <c r="E4" t="n">
-        <v>12.44870255678899</v>
+        <v>7.553679304619065</v>
       </c>
       <c r="F4" t="n">
-        <v>12.71310250966848</v>
+        <v>7.714113397766857</v>
       </c>
       <c r="G4" t="n">
-        <v>12.50650664073368</v>
+        <v>7.588771909946925</v>
       </c>
       <c r="H4" t="n">
-        <v>12.65036455735544</v>
+        <v>7.675932728337142</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5457043889748</v>
+        <v>7.612482554310358</v>
       </c>
       <c r="J4" t="n">
-        <v>12.32137942788682</v>
+        <v>7.476435118573658</v>
       </c>
       <c r="K4" t="n">
-        <v>12.30004235833143</v>
+        <v>7.463141462669052</v>
       </c>
       <c r="L4" t="n">
-        <v>12.94951338047055</v>
+        <v>7.857484434923146</v>
       </c>
       <c r="M4" t="n">
-        <v>12.69646119951777</v>
+        <v>7.703948108204291</v>
       </c>
       <c r="N4" t="n">
-        <v>12.9776039721588</v>
+        <v>7.874562699307172</v>
       </c>
       <c r="O4" t="n">
-        <v>12.13761068933798</v>
+        <v>7.364896007388237</v>
       </c>
       <c r="P4" t="n">
-        <v>13.25689826731867</v>
+        <v>8.043974306561461</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.84854766064209</v>
+        <v>7.189523470684446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.11631497554997</v>
+        <v>7.351940738217274</v>
       </c>
       <c r="B5" t="n">
-        <v>12.16103058572299</v>
+        <v>7.379094562647979</v>
       </c>
       <c r="C5" t="n">
-        <v>12.13587625351837</v>
+        <v>7.36378731557329</v>
       </c>
       <c r="D5" t="n">
-        <v>12.44377370124092</v>
+        <v>7.550550177857398</v>
       </c>
       <c r="E5" t="n">
-        <v>12.32169272915481</v>
+        <v>7.476613056766181</v>
       </c>
       <c r="F5" t="n">
-        <v>12.65375823669033</v>
+        <v>7.678016278112833</v>
       </c>
       <c r="G5" t="n">
-        <v>12.38936454983621</v>
+        <v>7.517625528883731</v>
       </c>
       <c r="H5" t="n">
-        <v>12.74734508505503</v>
+        <v>7.734913155801332</v>
       </c>
       <c r="I5" t="n">
-        <v>12.43657027848723</v>
+        <v>7.546323765575176</v>
       </c>
       <c r="J5" t="n">
-        <v>12.42877283652942</v>
+        <v>7.541663153686414</v>
       </c>
       <c r="K5" t="n">
-        <v>12.18638668394419</v>
+        <v>7.394615487637621</v>
       </c>
       <c r="L5" t="n">
-        <v>12.90136148199019</v>
+        <v>7.828221206449461</v>
       </c>
       <c r="M5" t="n">
-        <v>12.61320953338162</v>
+        <v>7.653390848939124</v>
       </c>
       <c r="N5" t="n">
-        <v>12.94281249295072</v>
+        <v>7.853397939852139</v>
       </c>
       <c r="O5" t="n">
-        <v>12.07343405760232</v>
+        <v>7.325844657486564</v>
       </c>
       <c r="P5" t="n">
-        <v>13.27184023139178</v>
+        <v>8.05298527913151</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.73807136752244</v>
+        <v>7.122342677971699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.97827318366723</v>
+        <v>7.268077859745733</v>
       </c>
       <c r="B6" t="n">
-        <v>12.01756366908368</v>
+        <v>7.291964161042809</v>
       </c>
       <c r="C6" t="n">
-        <v>12.00385235239124</v>
+        <v>7.283607149351262</v>
       </c>
       <c r="D6" t="n">
-        <v>12.32435954954797</v>
+        <v>7.478053291538136</v>
       </c>
       <c r="E6" t="n">
-        <v>12.17069029041774</v>
+        <v>7.384939147894679</v>
       </c>
       <c r="F6" t="n">
-        <v>12.52543755655088</v>
+        <v>7.600093037341261</v>
       </c>
       <c r="G6" t="n">
-        <v>12.27589560300468</v>
+        <v>7.448777135930807</v>
       </c>
       <c r="H6" t="n">
-        <v>12.63195497484817</v>
+        <v>7.664743153538133</v>
       </c>
       <c r="I6" t="n">
-        <v>12.32181554325187</v>
+        <v>7.476620660962443</v>
       </c>
       <c r="J6" t="n">
-        <v>12.33412828308399</v>
+        <v>7.483954147837172</v>
       </c>
       <c r="K6" t="n">
-        <v>12.04424189865581</v>
+        <v>7.308218890971699</v>
       </c>
       <c r="L6" t="n">
-        <v>12.80125671404617</v>
+        <v>7.767494095103972</v>
       </c>
       <c r="M6" t="n">
-        <v>12.51637312426531</v>
+        <v>7.594713068486148</v>
       </c>
       <c r="N6" t="n">
-        <v>12.89966714873288</v>
+        <v>7.827181712820495</v>
       </c>
       <c r="O6" t="n">
-        <v>11.92152555159821</v>
+        <v>7.23376468453469</v>
       </c>
       <c r="P6" t="n">
-        <v>13.26953934687964</v>
+        <v>8.051512346315629</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.65769079420618</v>
+        <v>7.073679623995307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.88519012374147</v>
+        <v>7.211677536073119</v>
       </c>
       <c r="B7" t="n">
-        <v>11.92608721806019</v>
+        <v>7.23651055980477</v>
       </c>
       <c r="C7" t="n">
-        <v>11.91539737879627</v>
+        <v>7.230000607385176</v>
       </c>
       <c r="D7" t="n">
-        <v>12.25028259774373</v>
+        <v>7.433206023245837</v>
       </c>
       <c r="E7" t="n">
-        <v>12.10342200176953</v>
+        <v>7.344109936907033</v>
       </c>
       <c r="F7" t="n">
-        <v>12.48535880514416</v>
+        <v>7.575842495043252</v>
       </c>
       <c r="G7" t="n">
-        <v>12.21170393280816</v>
+        <v>7.409853536526329</v>
       </c>
       <c r="H7" t="n">
-        <v>12.66035886780441</v>
+        <v>7.682069314720288</v>
       </c>
       <c r="I7" t="n">
-        <v>12.1687741398627</v>
+        <v>7.383833497758236</v>
       </c>
       <c r="J7" t="n">
-        <v>12.49149073756131</v>
+        <v>7.579585280443234</v>
       </c>
       <c r="K7" t="n">
-        <v>11.91907678888758</v>
+        <v>7.232294793397315</v>
       </c>
       <c r="L7" t="n">
-        <v>12.64479656722067</v>
+        <v>7.672606652892298</v>
       </c>
       <c r="M7" t="n">
-        <v>12.35520969880469</v>
+        <v>7.496923864981031</v>
       </c>
       <c r="N7" t="n">
-        <v>12.7717098980643</v>
+        <v>7.749603702559202</v>
       </c>
       <c r="O7" t="n">
-        <v>11.8088473771671</v>
+        <v>7.165396116365875</v>
       </c>
       <c r="P7" t="n">
-        <v>13.24616957869752</v>
+        <v>8.037298582663364</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.63807312200954</v>
+        <v>7.061595035296302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.77635427606103</v>
+        <v>7.14567083126317</v>
       </c>
       <c r="B8" t="n">
-        <v>11.81833915238222</v>
+        <v>7.171149451257435</v>
       </c>
       <c r="C8" t="n">
-        <v>11.80912433548801</v>
+        <v>7.165548960710733</v>
       </c>
       <c r="D8" t="n">
-        <v>12.14144424365314</v>
+        <v>7.367172703748973</v>
       </c>
       <c r="E8" t="n">
-        <v>11.95284063993664</v>
+        <v>7.252763008474782</v>
       </c>
       <c r="F8" t="n">
-        <v>12.36049822420841</v>
+        <v>7.50010622111653</v>
       </c>
       <c r="G8" t="n">
-        <v>12.04281575128391</v>
+        <v>7.307413606587591</v>
       </c>
       <c r="H8" t="n">
-        <v>12.48529489168549</v>
+        <v>7.575936787076897</v>
       </c>
       <c r="I8" t="n">
-        <v>12.0881629768132</v>
+        <v>7.33492939076035</v>
       </c>
       <c r="J8" t="n">
-        <v>12.18122849186795</v>
+        <v>7.391419443948852</v>
       </c>
       <c r="K8" t="n">
-        <v>11.83571358750003</v>
+        <v>7.18171320070411</v>
       </c>
       <c r="L8" t="n">
-        <v>12.55381763861075</v>
+        <v>7.617355323274819</v>
       </c>
       <c r="M8" t="n">
-        <v>12.2156678204508</v>
+        <v>7.412220722822579</v>
       </c>
       <c r="N8" t="n">
-        <v>12.70411702930244</v>
+        <v>7.708615563869688</v>
       </c>
       <c r="O8" t="n">
-        <v>11.68854219666798</v>
+        <v>7.092340321621382</v>
       </c>
       <c r="P8" t="n">
-        <v>13.14952365675214</v>
+        <v>7.978820792572069</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.55531145905654</v>
+        <v>7.011405058710573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.70813229835304</v>
+        <v>7.104364076750294</v>
       </c>
       <c r="B9" t="n">
-        <v>11.76133586647852</v>
+        <v>7.136648452398729</v>
       </c>
       <c r="C9" t="n">
-        <v>11.74096877764884</v>
+        <v>7.12428935221468</v>
       </c>
       <c r="D9" t="n">
-        <v>12.07247911533748</v>
+        <v>7.325430989209931</v>
       </c>
       <c r="E9" t="n">
-        <v>11.89334848876</v>
+        <v>7.216709993159075</v>
       </c>
       <c r="F9" t="n">
-        <v>12.29651834566905</v>
+        <v>7.461311132628874</v>
       </c>
       <c r="G9" t="n">
-        <v>11.93158252230078</v>
+        <v>7.239880739587931</v>
       </c>
       <c r="H9" t="n">
-        <v>12.44624126202764</v>
+        <v>7.552133371519072</v>
       </c>
       <c r="I9" t="n">
-        <v>11.96754700145623</v>
+        <v>7.261700220341092</v>
       </c>
       <c r="J9" t="n">
-        <v>12.25248447905518</v>
+        <v>7.43452002835985</v>
       </c>
       <c r="K9" t="n">
-        <v>11.74637134471411</v>
+        <v>7.127486156323075</v>
       </c>
       <c r="L9" t="n">
-        <v>12.44720998954827</v>
+        <v>7.552747790577013</v>
       </c>
       <c r="M9" t="n">
-        <v>12.08436576544513</v>
+        <v>7.332593381668773</v>
       </c>
       <c r="N9" t="n">
-        <v>12.55536284046449</v>
+        <v>7.618287597736497</v>
       </c>
       <c r="O9" t="n">
-        <v>11.54114272251283</v>
+        <v>7.002983411350803</v>
       </c>
       <c r="P9" t="n">
-        <v>12.99014228890387</v>
+        <v>7.882122030810873</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.54959559072327</v>
+        <v>7.008183921174141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.60815786373651</v>
+        <v>7.043630882047795</v>
       </c>
       <c r="B10" t="n">
-        <v>11.64256962180777</v>
+        <v>7.064532536312176</v>
       </c>
       <c r="C10" t="n">
-        <v>11.6323071254734</v>
+        <v>7.058310782930898</v>
       </c>
       <c r="D10" t="n">
-        <v>11.97852883750191</v>
+        <v>7.268385069274704</v>
       </c>
       <c r="E10" t="n">
-        <v>11.75878183454184</v>
+        <v>7.135028758594999</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23510628432215</v>
+        <v>7.423982133180464</v>
       </c>
       <c r="G10" t="n">
-        <v>11.84793985618219</v>
+        <v>7.189095354434914</v>
       </c>
       <c r="H10" t="n">
-        <v>12.36121255109944</v>
+        <v>7.500464378760453</v>
       </c>
       <c r="I10" t="n">
-        <v>11.88391060136299</v>
+        <v>7.210946772812375</v>
       </c>
       <c r="J10" t="n">
-        <v>12.16987445391589</v>
+        <v>7.384373395692812</v>
       </c>
       <c r="K10" t="n">
-        <v>11.67446243768438</v>
+        <v>7.083809173835443</v>
       </c>
       <c r="L10" t="n">
-        <v>12.3729199928818</v>
+        <v>7.507601677371633</v>
       </c>
       <c r="M10" t="n">
-        <v>12.0045741985127</v>
+        <v>7.284114349241914</v>
       </c>
       <c r="N10" t="n">
-        <v>12.40605724139487</v>
+        <v>7.527815151874335</v>
       </c>
       <c r="O10" t="n">
-        <v>11.4295297723929</v>
+        <v>6.93522089762404</v>
       </c>
       <c r="P10" t="n">
-        <v>12.82451745338704</v>
+        <v>7.781787702816984</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.50818718873519</v>
+        <v>6.982933427067726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.50707058301606</v>
+        <v>6.982327372625673</v>
       </c>
       <c r="B11" t="n">
-        <v>11.54923090804733</v>
+        <v>7.007914732626479</v>
       </c>
       <c r="C11" t="n">
-        <v>11.51803863380596</v>
+        <v>6.988962033863958</v>
       </c>
       <c r="D11" t="n">
-        <v>11.85133604192723</v>
+        <v>7.191172820853596</v>
       </c>
       <c r="E11" t="n">
-        <v>11.68237016168852</v>
+        <v>7.088695630353176</v>
       </c>
       <c r="F11" t="n">
-        <v>12.12958265764693</v>
+        <v>7.359954040237795</v>
       </c>
       <c r="G11" t="n">
-        <v>11.76640382778957</v>
+        <v>7.139629297333294</v>
       </c>
       <c r="H11" t="n">
-        <v>12.32377430277936</v>
+        <v>7.477788665508231</v>
       </c>
       <c r="I11" t="n">
-        <v>11.79691686488194</v>
+        <v>7.158204067541612</v>
       </c>
       <c r="J11" t="n">
-        <v>12.26286352346125</v>
+        <v>7.440864969720566</v>
       </c>
       <c r="K11" t="n">
-        <v>11.6133762096562</v>
+        <v>7.046847457066471</v>
       </c>
       <c r="L11" t="n">
-        <v>12.22385876880121</v>
+        <v>7.417162689973021</v>
       </c>
       <c r="M11" t="n">
-        <v>11.87787892535159</v>
+        <v>7.207264820982487</v>
       </c>
       <c r="N11" t="n">
-        <v>12.32526937643022</v>
+        <v>7.478718658711029</v>
       </c>
       <c r="O11" t="n">
-        <v>11.30297861781506</v>
+        <v>6.858543984619753</v>
       </c>
       <c r="P11" t="n">
-        <v>12.67581840557225</v>
+        <v>7.691417913604353</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.45762537690143</v>
+        <v>6.952377485229562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.44054419177045</v>
+        <v>6.941909548655782</v>
       </c>
       <c r="B12" t="n">
-        <v>11.47680944014317</v>
+        <v>6.963914571797728</v>
       </c>
       <c r="C12" t="n">
-        <v>11.46054283830897</v>
+        <v>6.954028356237965</v>
       </c>
       <c r="D12" t="n">
-        <v>11.79370490028247</v>
+        <v>7.156239143227603</v>
       </c>
       <c r="E12" t="n">
-        <v>11.60369645368029</v>
+        <v>7.040926069437528</v>
       </c>
       <c r="F12" t="n">
-        <v>12.04291726089474</v>
+        <v>7.307434898337124</v>
       </c>
       <c r="G12" t="n">
-        <v>11.68102296623615</v>
+        <v>7.087845481211124</v>
       </c>
       <c r="H12" t="n">
-        <v>12.27976550026693</v>
+        <v>7.451183103627991</v>
       </c>
       <c r="I12" t="n">
-        <v>11.68898332485331</v>
+        <v>7.092686312551287</v>
       </c>
       <c r="J12" t="n">
-        <v>12.26337483113062</v>
+        <v>7.44120107519533</v>
       </c>
       <c r="K12" t="n">
-        <v>11.49697476295626</v>
+        <v>6.976196109179909</v>
       </c>
       <c r="L12" t="n">
-        <v>12.13708309000268</v>
+        <v>7.364534808065809</v>
       </c>
       <c r="M12" t="n">
-        <v>11.81214706612161</v>
+        <v>7.167370926135024</v>
       </c>
       <c r="N12" t="n">
-        <v>12.11027076748785</v>
+        <v>7.348346234644395</v>
       </c>
       <c r="O12" t="n">
-        <v>11.20597678562925</v>
+        <v>6.799625151145282</v>
       </c>
       <c r="P12" t="n">
-        <v>12.49300586249333</v>
+        <v>7.580544930011452</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.31091892515107</v>
+        <v>6.863249461266458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.3774804061387</v>
+        <v>6.903622420478404</v>
       </c>
       <c r="B13" t="n">
-        <v>11.40254826719335</v>
+        <v>6.918842219296085</v>
       </c>
       <c r="C13" t="n">
-        <v>11.39951676412425</v>
+        <v>6.917008847577403</v>
       </c>
       <c r="D13" t="n">
-        <v>11.73980455013698</v>
+        <v>7.123489390767954</v>
       </c>
       <c r="E13" t="n">
-        <v>11.49498091368675</v>
+        <v>6.974982479456551</v>
       </c>
       <c r="F13" t="n">
-        <v>11.9639979246924</v>
+        <v>7.259514774335496</v>
       </c>
       <c r="G13" t="n">
-        <v>11.60606751767646</v>
+        <v>7.042310793576774</v>
       </c>
       <c r="H13" t="n">
-        <v>12.20991184955524</v>
+        <v>7.408747886389886</v>
       </c>
       <c r="I13" t="n">
-        <v>11.58833466590806</v>
+        <v>7.031599522722622</v>
       </c>
       <c r="J13" t="n">
-        <v>12.1556869192961</v>
+        <v>7.375909164833976</v>
       </c>
       <c r="K13" t="n">
-        <v>11.36684320148781</v>
+        <v>6.897223489324231</v>
       </c>
       <c r="L13" t="n">
-        <v>12.02869714294308</v>
+        <v>7.2988315106867</v>
       </c>
       <c r="M13" t="n">
-        <v>11.70584143948147</v>
+        <v>7.102910914844693</v>
       </c>
       <c r="N13" t="n">
-        <v>11.99574035596037</v>
+        <v>7.278821068224183</v>
       </c>
       <c r="O13" t="n">
-        <v>11.13933635272209</v>
+        <v>6.7591639832567</v>
       </c>
       <c r="P13" t="n">
-        <v>12.35260177904992</v>
+        <v>7.495489713566085</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.09040245427681</v>
+        <v>6.729436898811056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.24972366828163</v>
+        <v>6.826204098338606</v>
       </c>
       <c r="B14" t="n">
-        <v>11.29279883301544</v>
+        <v>6.852347325086139</v>
       </c>
       <c r="C14" t="n">
-        <v>11.27113593014134</v>
+        <v>6.839193586392747</v>
       </c>
       <c r="D14" t="n">
-        <v>11.58289324948556</v>
+        <v>7.028354812177778</v>
       </c>
       <c r="E14" t="n">
-        <v>11.46104036072255</v>
+        <v>6.954393357658524</v>
       </c>
       <c r="F14" t="n">
-        <v>11.8452429588673</v>
+        <v>7.187450566783521</v>
       </c>
       <c r="G14" t="n">
-        <v>11.50359168573627</v>
+        <v>6.980211885225684</v>
       </c>
       <c r="H14" t="n">
-        <v>12.0972888161473</v>
+        <v>7.340318484650977</v>
       </c>
       <c r="I14" t="n">
-        <v>11.46519097592092</v>
+        <v>6.956895138228604</v>
       </c>
       <c r="J14" t="n">
-        <v>12.08909410818167</v>
+        <v>7.335316444350068</v>
       </c>
       <c r="K14" t="n">
-        <v>11.20946696175469</v>
+        <v>6.80179843043686</v>
       </c>
       <c r="L14" t="n">
-        <v>11.91947781451061</v>
+        <v>7.232491742080491</v>
       </c>
       <c r="M14" t="n">
-        <v>11.61394767116902</v>
+        <v>7.047135656104786</v>
       </c>
       <c r="N14" t="n">
-        <v>11.90233772874126</v>
+        <v>7.222099847469329</v>
       </c>
       <c r="O14" t="n">
-        <v>11.09099647348093</v>
+        <v>6.729784410580213</v>
       </c>
       <c r="P14" t="n">
-        <v>12.25062472272838</v>
+        <v>7.433431867874809</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.85603932056234</v>
+        <v>6.587163907594948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.17709416833552</v>
+        <v>6.78213778100238</v>
       </c>
       <c r="B15" t="n">
-        <v>11.21363888143928</v>
+        <v>6.804307054783576</v>
       </c>
       <c r="C15" t="n">
-        <v>11.20449800364432</v>
+        <v>6.798738501861174</v>
       </c>
       <c r="D15" t="n">
-        <v>11.55435651679169</v>
+        <v>7.011008119665716</v>
       </c>
       <c r="E15" t="n">
-        <v>11.35177215729228</v>
+        <v>6.888091610033623</v>
       </c>
       <c r="F15" t="n">
-        <v>11.79431395794745</v>
+        <v>7.15660262380891</v>
       </c>
       <c r="G15" t="n">
-        <v>11.40116472879389</v>
+        <v>6.918014882742819</v>
       </c>
       <c r="H15" t="n">
-        <v>12.01369251861636</v>
+        <v>7.289628151951232</v>
       </c>
       <c r="I15" t="n">
-        <v>11.37092489040722</v>
+        <v>6.899643144574687</v>
       </c>
       <c r="J15" t="n">
-        <v>11.90502084080035</v>
+        <v>7.22367163483661</v>
       </c>
       <c r="K15" t="n">
-        <v>11.16157823633944</v>
+        <v>6.772631775255698</v>
       </c>
       <c r="L15" t="n">
-        <v>11.86391446123461</v>
+        <v>7.198857621595613</v>
       </c>
       <c r="M15" t="n">
-        <v>11.50949428162526</v>
+        <v>6.98376532613875</v>
       </c>
       <c r="N15" t="n">
-        <v>11.87267687109783</v>
+        <v>7.204185881916147</v>
       </c>
       <c r="O15" t="n">
-        <v>10.98079337906696</v>
+        <v>6.662974702645034</v>
       </c>
       <c r="P15" t="n">
-        <v>12.21417525321008</v>
+        <v>7.411429886411367</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.79279757981037</v>
+        <v>6.548895789908224</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.12794471861787</v>
+        <v>6.7522411229801</v>
       </c>
       <c r="B16" t="n">
-        <v>11.15711431987308</v>
+        <v>6.769942171037955</v>
       </c>
       <c r="C16" t="n">
-        <v>11.15439987768718</v>
+        <v>6.768295862547308</v>
       </c>
       <c r="D16" t="n">
-        <v>11.48065803291919</v>
+        <v>6.966291643549118</v>
       </c>
       <c r="E16" t="n">
-        <v>11.28290352576715</v>
+        <v>6.846268530594581</v>
       </c>
       <c r="F16" t="n">
-        <v>11.73106344475997</v>
+        <v>7.118192307652093</v>
       </c>
       <c r="G16" t="n">
-        <v>11.3497143945641</v>
+        <v>6.886782927856994</v>
       </c>
       <c r="H16" t="n">
-        <v>11.94766615619447</v>
+        <v>7.249589777374798</v>
       </c>
       <c r="I16" t="n">
-        <v>11.29202435228096</v>
+        <v>6.851797541696422</v>
       </c>
       <c r="J16" t="n">
-        <v>11.91585479864754</v>
+        <v>7.230300212717885</v>
       </c>
       <c r="K16" t="n">
-        <v>11.09374976502405</v>
+        <v>6.731538698657774</v>
       </c>
       <c r="L16" t="n">
-        <v>11.7584346967369</v>
+        <v>7.134791507671636</v>
       </c>
       <c r="M16" t="n">
-        <v>11.41016775403093</v>
+        <v>6.923467091462417</v>
       </c>
       <c r="N16" t="n">
-        <v>11.78255137514193</v>
+        <v>7.149367991485581</v>
       </c>
       <c r="O16" t="n">
-        <v>10.87427596076967</v>
+        <v>6.598300253020126</v>
       </c>
       <c r="P16" t="n">
-        <v>12.16615368805721</v>
+        <v>7.382093657653571</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.78621198715715</v>
+        <v>6.54487012840731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.10098451790454</v>
+        <v>6.73587537178579</v>
       </c>
       <c r="B17" t="n">
-        <v>11.12990473135043</v>
+        <v>6.753417492141776</v>
       </c>
       <c r="C17" t="n">
-        <v>11.11829378635861</v>
+        <v>6.746381329340877</v>
       </c>
       <c r="D17" t="n">
-        <v>11.42176240735681</v>
+        <v>6.930510858459578</v>
       </c>
       <c r="E17" t="n">
-        <v>11.20492409336879</v>
+        <v>6.7989514193565</v>
       </c>
       <c r="F17" t="n">
-        <v>11.66900723600609</v>
+        <v>7.080510473497142</v>
       </c>
       <c r="G17" t="n">
-        <v>11.32502625464626</v>
+        <v>6.871777567373892</v>
       </c>
       <c r="H17" t="n">
-        <v>11.89566691814315</v>
+        <v>7.217976852256265</v>
       </c>
       <c r="I17" t="n">
-        <v>11.22715720455064</v>
+        <v>6.8123872737312</v>
       </c>
       <c r="J17" t="n">
-        <v>11.91302004877474</v>
+        <v>7.228426538759016</v>
       </c>
       <c r="K17" t="n">
-        <v>10.97489078317798</v>
+        <v>6.65942278257122</v>
       </c>
       <c r="L17" t="n">
-        <v>11.71863791647138</v>
+        <v>7.110620049014748</v>
       </c>
       <c r="M17" t="n">
-        <v>11.39766452702787</v>
+        <v>6.915843884710119</v>
       </c>
       <c r="N17" t="n">
-        <v>11.69551502968843</v>
+        <v>7.096573577680239</v>
       </c>
       <c r="O17" t="n">
-        <v>10.80309391268168</v>
+        <v>6.555051386782025</v>
       </c>
       <c r="P17" t="n">
-        <v>12.17696884782832</v>
+        <v>7.388772423230173</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.79440042909742</v>
+        <v>6.549707918068967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.04029054306389</v>
+        <v>6.69900794705046</v>
       </c>
       <c r="B18" t="n">
-        <v>11.0760194196658</v>
+        <v>6.720687510592407</v>
       </c>
       <c r="C18" t="n">
-        <v>11.06691989763821</v>
+        <v>6.715192718373744</v>
       </c>
       <c r="D18" t="n">
-        <v>11.40594319973332</v>
+        <v>6.920927289911028</v>
       </c>
       <c r="E18" t="n">
-        <v>11.1704597006845</v>
+        <v>6.778034556699597</v>
       </c>
       <c r="F18" t="n">
-        <v>11.6452464678415</v>
+        <v>7.066105084099084</v>
       </c>
       <c r="G18" t="n">
-        <v>11.28928233958348</v>
+        <v>6.850101045510449</v>
       </c>
       <c r="H18" t="n">
-        <v>11.8561796795304</v>
+        <v>7.194060134174142</v>
       </c>
       <c r="I18" t="n">
-        <v>11.18578639871471</v>
+        <v>6.787334488727587</v>
       </c>
       <c r="J18" t="n">
-        <v>11.83416713244122</v>
+        <v>7.180720853091966</v>
       </c>
       <c r="K18" t="n">
-        <v>10.82993255250303</v>
+        <v>6.571585190713717</v>
       </c>
       <c r="L18" t="n">
-        <v>11.70514591066653</v>
+        <v>7.10244173593535</v>
       </c>
       <c r="M18" t="n">
-        <v>11.37882885479614</v>
+        <v>6.904428465282139</v>
       </c>
       <c r="N18" t="n">
-        <v>11.64961388751733</v>
+        <v>7.06865553152524</v>
       </c>
       <c r="O18" t="n">
-        <v>10.78321557383007</v>
+        <v>6.543070215152179</v>
       </c>
       <c r="P18" t="n">
-        <v>12.18691177686934</v>
+        <v>7.394745519393695</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.80370547675681</v>
+        <v>6.555533492825013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.99380916694446</v>
+        <v>6.670905118926303</v>
       </c>
       <c r="B19" t="n">
-        <v>11.02552904052113</v>
+        <v>6.690145256307514</v>
       </c>
       <c r="C19" t="n">
-        <v>11.02103379392797</v>
+        <v>6.687433599920612</v>
       </c>
       <c r="D19" t="n">
-        <v>11.34123896866235</v>
+        <v>6.881755033288795</v>
       </c>
       <c r="E19" t="n">
-        <v>11.15750782626568</v>
+        <v>6.770187786577206</v>
       </c>
       <c r="F19" t="n">
-        <v>11.61492141150994</v>
+        <v>7.047742470966466</v>
       </c>
       <c r="G19" t="n">
-        <v>11.27708238820784</v>
+        <v>6.842715089681515</v>
       </c>
       <c r="H19" t="n">
-        <v>11.83554691122546</v>
+        <v>7.181530699993831</v>
       </c>
       <c r="I19" t="n">
-        <v>11.19500998804442</v>
+        <v>6.792951708506063</v>
       </c>
       <c r="J19" t="n">
-        <v>11.79067841003366</v>
+        <v>7.154307677377146</v>
       </c>
       <c r="K19" t="n">
-        <v>10.81523371021387</v>
+        <v>6.562633530874511</v>
       </c>
       <c r="L19" t="n">
-        <v>11.71766417613045</v>
+        <v>7.110038328000733</v>
       </c>
       <c r="M19" t="n">
-        <v>11.4041912190427</v>
+        <v>6.919802629283931</v>
       </c>
       <c r="N19" t="n">
-        <v>11.68069086689208</v>
+        <v>7.087636365813929</v>
       </c>
       <c r="O19" t="n">
-        <v>10.81417224551791</v>
+        <v>6.561935465657691</v>
       </c>
       <c r="P19" t="n">
-        <v>12.19944382758906</v>
+        <v>7.402344392717955</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.78686991981994</v>
+        <v>6.545303567594224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.99064106452252</v>
+        <v>6.668902173630985</v>
       </c>
       <c r="B20" t="n">
-        <v>11.01459733267832</v>
+        <v>6.683454324016894</v>
       </c>
       <c r="C20" t="n">
-        <v>11.01346443529326</v>
+        <v>6.682781352647738</v>
       </c>
       <c r="D20" t="n">
-        <v>11.34964045546485</v>
+        <v>6.886784448696246</v>
       </c>
       <c r="E20" t="n">
-        <v>11.13765956433579</v>
+        <v>6.758150343895023</v>
       </c>
       <c r="F20" t="n">
-        <v>11.63057895567915</v>
+        <v>7.05722414328511</v>
       </c>
       <c r="G20" t="n">
-        <v>11.27036771543222</v>
+        <v>6.838636959226394</v>
       </c>
       <c r="H20" t="n">
-        <v>11.76005885051018</v>
+        <v>7.135647740170697</v>
       </c>
       <c r="I20" t="n">
-        <v>11.23437691897027</v>
+        <v>6.816828884767625</v>
       </c>
       <c r="J20" t="n">
-        <v>11.4021347095196</v>
+        <v>6.918331217307303</v>
       </c>
       <c r="K20" t="n">
-        <v>10.79056812798733</v>
+        <v>6.547635774587669</v>
       </c>
       <c r="L20" t="n">
-        <v>11.77743579203814</v>
+        <v>7.146341521373447</v>
       </c>
       <c r="M20" t="n">
-        <v>11.4384450732749</v>
+        <v>6.940613033193173</v>
       </c>
       <c r="N20" t="n">
-        <v>11.67564546327232</v>
+        <v>7.084639552067215</v>
       </c>
       <c r="O20" t="n">
-        <v>10.82289079320362</v>
+        <v>6.567158027650188</v>
       </c>
       <c r="P20" t="n">
-        <v>12.1635069189452</v>
+        <v>7.380670912533017</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.78945026906313</v>
+        <v>6.54691413636244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.00043235574983</v>
+        <v>6.674823561259928</v>
       </c>
       <c r="B21" t="n">
-        <v>11.02316674896047</v>
+        <v>6.688647990063597</v>
       </c>
       <c r="C21" t="n">
-        <v>11.01746967870328</v>
+        <v>6.68516983069352</v>
       </c>
       <c r="D21" t="n">
-        <v>11.36076014406846</v>
+        <v>6.893552943788736</v>
       </c>
       <c r="E21" t="n">
-        <v>11.1304561415821</v>
+        <v>6.753764243491307</v>
       </c>
       <c r="F21" t="n">
-        <v>11.64017098730002</v>
+        <v>7.063082416085081</v>
       </c>
       <c r="G21" t="n">
-        <v>11.27710118628392</v>
+        <v>6.842756912760954</v>
       </c>
       <c r="H21" t="n">
-        <v>11.76908819305373</v>
+        <v>7.141336439394033</v>
       </c>
       <c r="I21" t="n">
-        <v>11.25762261985027</v>
+        <v>6.831000064920826</v>
       </c>
       <c r="J21" t="n">
-        <v>11.37373708258872</v>
+        <v>6.901329755305519</v>
       </c>
       <c r="K21" t="n">
-        <v>10.87233975893347</v>
+        <v>6.597211332115458</v>
       </c>
       <c r="L21" t="n">
-        <v>11.81401434167884</v>
+        <v>7.168529045225672</v>
       </c>
       <c r="M21" t="n">
-        <v>11.46683768738549</v>
+        <v>6.957834256466917</v>
       </c>
       <c r="N21" t="n">
-        <v>11.75353591811057</v>
+        <v>7.131951340367912</v>
       </c>
       <c r="O21" t="n">
-        <v>10.87206656022778</v>
+        <v>6.596955070701441</v>
       </c>
       <c r="P21" t="n">
-        <v>12.19495484702126</v>
+        <v>7.399801549488061</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.77468375370009</v>
+        <v>6.537894799176503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.02129446058294</v>
+        <v>6.687506600204724</v>
       </c>
       <c r="B22" t="n">
-        <v>11.05699827308341</v>
+        <v>6.709186924166297</v>
       </c>
       <c r="C22" t="n">
-        <v>11.03713497269266</v>
+        <v>6.697134273091591</v>
       </c>
       <c r="D22" t="n">
-        <v>11.34667662546964</v>
+        <v>6.884986056280368</v>
       </c>
       <c r="E22" t="n">
-        <v>11.21577559608699</v>
+        <v>6.805530569962075</v>
       </c>
       <c r="F22" t="n">
-        <v>11.65773340317863</v>
+        <v>7.073689509450448</v>
       </c>
       <c r="G22" t="n">
-        <v>11.33499550099379</v>
+        <v>6.877871570257973</v>
       </c>
       <c r="H22" t="n">
-        <v>11.88134529058066</v>
+        <v>7.209349891597429</v>
       </c>
       <c r="I22" t="n">
-        <v>11.28425949365502</v>
+        <v>6.847044158613269</v>
       </c>
       <c r="J22" t="n">
-        <v>11.63408166385531</v>
+        <v>7.059144202841175</v>
       </c>
       <c r="K22" t="n">
-        <v>10.93595620800196</v>
+        <v>6.635545606309658</v>
       </c>
       <c r="L22" t="n">
-        <v>11.8003569128045</v>
+        <v>7.16020473157805</v>
       </c>
       <c r="M22" t="n">
-        <v>11.4939595515531</v>
+        <v>6.974285174659358</v>
       </c>
       <c r="N22" t="n">
-        <v>11.80224925246317</v>
+        <v>7.161347642276175</v>
       </c>
       <c r="O22" t="n">
-        <v>10.90531033117197</v>
+        <v>6.617113794991059</v>
       </c>
       <c r="P22" t="n">
-        <v>12.21596483005286</v>
+        <v>7.412447327871176</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.81765740882306</v>
+        <v>6.563849441856747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.08482067888625</v>
+        <v>6.726150365186773</v>
       </c>
       <c r="B23" t="n">
-        <v>11.10850124192623</v>
+        <v>6.740517733603523</v>
       </c>
       <c r="C23" t="n">
-        <v>11.10848495026029</v>
+        <v>6.74051241066614</v>
       </c>
       <c r="D23" t="n">
-        <v>11.43673319514659</v>
+        <v>6.939714217195045</v>
       </c>
       <c r="E23" t="n">
-        <v>11.2290457845941</v>
+        <v>6.81364196611437</v>
       </c>
       <c r="F23" t="n">
-        <v>11.69522052649651</v>
+        <v>7.096511223270894</v>
       </c>
       <c r="G23" t="n">
-        <v>11.36703870147903</v>
+        <v>6.897374052410211</v>
       </c>
       <c r="H23" t="n">
-        <v>11.8568413718084</v>
+        <v>7.194574938261055</v>
       </c>
       <c r="I23" t="n">
-        <v>11.31600693774328</v>
+        <v>6.866448546633731</v>
       </c>
       <c r="J23" t="n">
-        <v>11.48456051351331</v>
+        <v>6.968637538095835</v>
       </c>
       <c r="K23" t="n">
-        <v>11.03291041839505</v>
+        <v>6.694722222037398</v>
       </c>
       <c r="L23" t="n">
-        <v>11.81929785426228</v>
+        <v>7.171738776467712</v>
       </c>
       <c r="M23" t="n">
-        <v>11.5027407594924</v>
+        <v>6.979646133023818</v>
       </c>
       <c r="N23" t="n">
-        <v>11.83562836955514</v>
+        <v>7.181629554545233</v>
       </c>
       <c r="O23" t="n">
-        <v>10.95366775528414</v>
+        <v>6.646493367667547</v>
       </c>
       <c r="P23" t="n">
-        <v>12.22477611491389</v>
+        <v>7.417913984563672</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.83474861959461</v>
+        <v>6.574309774234265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11.09294144775263</v>
+        <v>6.731016290374598</v>
       </c>
       <c r="B24" t="n">
-        <v>11.13662441694634</v>
+        <v>6.757513872667924</v>
       </c>
       <c r="C24" t="n">
-        <v>11.11040611363562</v>
+        <v>6.741614258704452</v>
       </c>
       <c r="D24" t="n">
-        <v>11.40541309398787</v>
+        <v>6.920585101079254</v>
       </c>
       <c r="E24" t="n">
-        <v>11.31535276469571</v>
+        <v>6.86591549247579</v>
       </c>
       <c r="F24" t="n">
-        <v>11.70103289162032</v>
+        <v>7.099910298999848</v>
       </c>
       <c r="G24" t="n">
-        <v>11.39116039270434</v>
+        <v>6.911945213286774</v>
       </c>
       <c r="H24" t="n">
-        <v>11.83401298821737</v>
+        <v>7.180721613511592</v>
       </c>
       <c r="I24" t="n">
-        <v>11.25075380285079</v>
+        <v>6.826836007047949</v>
       </c>
       <c r="J24" t="n">
-        <v>11.5425300205275</v>
+        <v>7.004024425819022</v>
       </c>
       <c r="K24" t="n">
-        <v>10.87393132937488</v>
+        <v>6.598278200850967</v>
       </c>
       <c r="L24" t="n">
-        <v>11.83306305877281</v>
+        <v>7.179999214866736</v>
       </c>
       <c r="M24" t="n">
-        <v>11.53776784125401</v>
+        <v>7.000867163531187</v>
       </c>
       <c r="N24" t="n">
-        <v>11.85893798389381</v>
+        <v>7.195691234272265</v>
       </c>
       <c r="O24" t="n">
-        <v>10.9924168561095</v>
+        <v>6.67001162586556</v>
       </c>
       <c r="P24" t="n">
-        <v>12.28955052546889</v>
+        <v>7.457026928455064</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.840414359725</v>
+        <v>6.57776816269406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.20038373139304</v>
+        <v>6.796217710800439</v>
       </c>
       <c r="B25" t="n">
-        <v>11.23717031307569</v>
+        <v>6.818536026828365</v>
       </c>
       <c r="C25" t="n">
-        <v>11.22088365996035</v>
+        <v>6.808660457143367</v>
       </c>
       <c r="D25" t="n">
-        <v>11.53209458189319</v>
+        <v>6.997530442211578</v>
       </c>
       <c r="E25" t="n">
-        <v>11.40926795278926</v>
+        <v>6.922965214509149</v>
       </c>
       <c r="F25" t="n">
-        <v>11.75223258483572</v>
+        <v>7.131028190941748</v>
       </c>
       <c r="G25" t="n">
-        <v>11.50000125320507</v>
+        <v>6.978026439220087</v>
       </c>
       <c r="H25" t="n">
-        <v>11.58229421746116</v>
+        <v>7.027868143617033</v>
       </c>
       <c r="I25" t="n">
-        <v>11.21908656388714</v>
+        <v>6.807588265470476</v>
       </c>
       <c r="J25" t="n">
-        <v>11.18852214538683</v>
+        <v>6.788844682105149</v>
       </c>
       <c r="K25" t="n">
-        <v>10.86008466653466</v>
+        <v>6.589667969423907</v>
       </c>
       <c r="L25" t="n">
-        <v>11.83122335372716</v>
+        <v>7.178951356621881</v>
       </c>
       <c r="M25" t="n">
-        <v>11.58540091283457</v>
+        <v>7.02979960946749</v>
       </c>
       <c r="N25" t="n">
-        <v>11.81553823904636</v>
+        <v>7.169513788641555</v>
       </c>
       <c r="O25" t="n">
-        <v>11.09886409492277</v>
+        <v>6.734527908208226</v>
       </c>
       <c r="P25" t="n">
-        <v>12.27724279845705</v>
+        <v>7.44963488926912</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.84028527960258</v>
+        <v>6.577632808000603</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.25769154612922</v>
+        <v>6.830916418761947</v>
       </c>
       <c r="B26" t="n">
-        <v>11.29031999338308</v>
+        <v>6.850734475059045</v>
       </c>
       <c r="C26" t="n">
-        <v>11.27679665745143</v>
+        <v>6.842492286731048</v>
       </c>
       <c r="D26" t="n">
-        <v>11.58045325921043</v>
+        <v>7.026696336973114</v>
       </c>
       <c r="E26" t="n">
-        <v>11.47181541793136</v>
+        <v>6.9608592057398</v>
       </c>
       <c r="F26" t="n">
-        <v>11.8103186399216</v>
+        <v>7.166227255017272</v>
       </c>
       <c r="G26" t="n">
-        <v>11.528852540372</v>
+        <v>6.99547806964056</v>
       </c>
       <c r="H26" t="n">
-        <v>11.48872616717254</v>
+        <v>6.971260225386476</v>
       </c>
       <c r="I26" t="n">
-        <v>11.14911636510375</v>
+        <v>6.765186506695922</v>
       </c>
       <c r="J26" t="n">
-        <v>11.08038433293147</v>
+        <v>6.723402969077441</v>
       </c>
       <c r="K26" t="n">
-        <v>10.86818162450467</v>
+        <v>6.594702707768741</v>
       </c>
       <c r="L26" t="n">
-        <v>11.88728297621166</v>
+        <v>7.212908655447879</v>
       </c>
       <c r="M26" t="n">
-        <v>11.60209360439324</v>
+        <v>7.039883534130056</v>
       </c>
       <c r="N26" t="n">
-        <v>11.90292172230479</v>
+        <v>7.222482338541289</v>
       </c>
       <c r="O26" t="n">
-        <v>11.13863581108686</v>
+        <v>6.758686439731469</v>
       </c>
       <c r="P26" t="n">
-        <v>12.31204054369049</v>
+        <v>7.470782919492378</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.83943310015364</v>
+        <v>6.577118764333316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.35749930447118</v>
+        <v>6.891503612896223</v>
       </c>
       <c r="B27" t="n">
-        <v>11.39119924206157</v>
+        <v>6.91197563007182</v>
       </c>
       <c r="C27" t="n">
-        <v>11.38109339636119</v>
+        <v>6.905834481170917</v>
       </c>
       <c r="D27" t="n">
-        <v>11.64765512798983</v>
+        <v>7.067574214816833</v>
       </c>
       <c r="E27" t="n">
-        <v>11.56427312852621</v>
+        <v>7.017015434712414</v>
       </c>
       <c r="F27" t="n">
-        <v>11.85667845514904</v>
+        <v>7.194371145801243</v>
       </c>
       <c r="G27" t="n">
-        <v>11.66545314642197</v>
+        <v>7.078366090151358</v>
       </c>
       <c r="H27" t="n">
-        <v>12.02201755990947</v>
+        <v>7.294710036312889</v>
       </c>
       <c r="I27" t="n">
-        <v>11.5259776879369</v>
+        <v>6.993744312892905</v>
       </c>
       <c r="J27" t="n">
-        <v>11.81901337671094</v>
+        <v>7.171491640089209</v>
       </c>
       <c r="K27" t="n">
-        <v>11.12882196216825</v>
+        <v>6.752661635033369</v>
       </c>
       <c r="L27" t="n">
-        <v>11.89364048554177</v>
+        <v>7.216832420718887</v>
       </c>
       <c r="M27" t="n">
-        <v>11.69497489830241</v>
+        <v>7.096318076685848</v>
       </c>
       <c r="N27" t="n">
-        <v>11.94223100579733</v>
+        <v>7.246291837456122</v>
       </c>
       <c r="O27" t="n">
-        <v>11.25239048867479</v>
+        <v>6.827804781651682</v>
       </c>
       <c r="P27" t="n">
-        <v>12.31146406935738</v>
+        <v>7.470445293178361</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.85681630770696</v>
+        <v>6.587755514064104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.48456427312853</v>
+        <v>6.968502943822004</v>
       </c>
       <c r="B28" t="n">
-        <v>11.5198432491096</v>
+        <v>6.989931568887317</v>
       </c>
       <c r="C28" t="n">
-        <v>11.51237790649586</v>
+        <v>6.985410874209769</v>
       </c>
       <c r="D28" t="n">
-        <v>11.8004997781827</v>
+        <v>7.160279252701415</v>
       </c>
       <c r="E28" t="n">
-        <v>11.68777022234364</v>
+        <v>7.091884830265309</v>
       </c>
       <c r="F28" t="n">
-        <v>12.00868847076398</v>
+        <v>7.286613848553117</v>
       </c>
       <c r="G28" t="n">
-        <v>11.72961724610692</v>
+        <v>7.117200720459575</v>
       </c>
       <c r="H28" t="n">
-        <v>12.15678973975943</v>
+        <v>7.376671865719019</v>
       </c>
       <c r="I28" t="n">
-        <v>11.29473503485163</v>
+        <v>6.853531298444077</v>
       </c>
       <c r="J28" t="n">
-        <v>12.02458287069179</v>
+        <v>7.296144948147461</v>
       </c>
       <c r="K28" t="n">
-        <v>11.13217679214591</v>
+        <v>6.754854685235227</v>
       </c>
       <c r="L28" t="n">
-        <v>11.9749835203533</v>
+        <v>7.266162362707425</v>
       </c>
       <c r="M28" t="n">
-        <v>11.74577607230492</v>
+        <v>7.127051196296908</v>
       </c>
       <c r="N28" t="n">
-        <v>11.95209247650867</v>
+        <v>7.252283183690672</v>
       </c>
       <c r="O28" t="n">
-        <v>11.33925138541821</v>
+        <v>6.880424298943007</v>
       </c>
       <c r="P28" t="n">
-        <v>12.32882346601433</v>
+        <v>7.480915511011019</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.93853279762994</v>
+        <v>6.63742460320591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.52250004386218</v>
+        <v>6.991555064789178</v>
       </c>
       <c r="B29" t="n">
-        <v>11.55660601989588</v>
+        <v>7.012277260021784</v>
       </c>
       <c r="C29" t="n">
-        <v>11.54502264541565</v>
+        <v>7.005244899319016</v>
       </c>
       <c r="D29" t="n">
-        <v>11.85781511214932</v>
+        <v>7.19513308626666</v>
       </c>
       <c r="E29" t="n">
-        <v>11.68270226103259</v>
+        <v>7.088888776938222</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0776335477985</v>
+        <v>7.328541105480944</v>
       </c>
       <c r="G29" t="n">
-        <v>11.74937527727162</v>
+        <v>7.129349944826804</v>
       </c>
       <c r="H29" t="n">
-        <v>12.2202019164012</v>
+        <v>7.415013744109481</v>
       </c>
       <c r="I29" t="n">
-        <v>11.24432360762651</v>
+        <v>6.822947981499371</v>
       </c>
       <c r="J29" t="n">
-        <v>12.08664785188119</v>
+        <v>7.333845792793066</v>
       </c>
       <c r="K29" t="n">
-        <v>11.00937898675864</v>
+        <v>6.680332041031863</v>
       </c>
       <c r="L29" t="n">
-        <v>12.05073600733877</v>
+        <v>7.312198927295044</v>
       </c>
       <c r="M29" t="n">
-        <v>11.79725773666151</v>
+        <v>7.158386568251891</v>
       </c>
       <c r="N29" t="n">
-        <v>11.95137689641258</v>
+        <v>7.25192274478787</v>
       </c>
       <c r="O29" t="n">
-        <v>11.33837664827797</v>
+        <v>6.879925463668243</v>
       </c>
       <c r="P29" t="n">
-        <v>12.34188436927442</v>
+        <v>7.488799541695092</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.09481122972001</v>
+        <v>6.732118138412911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.67598382864175</v>
+        <v>7.084782510956934</v>
       </c>
       <c r="B30" t="n">
-        <v>11.72685894174351</v>
+        <v>7.115673797850237</v>
       </c>
       <c r="C30" t="n">
-        <v>11.71382811540515</v>
+        <v>7.107752506604482</v>
       </c>
       <c r="D30" t="n">
-        <v>11.9688002065282</v>
+        <v>7.262411973111182</v>
       </c>
       <c r="E30" t="n">
-        <v>11.82366778034824</v>
+        <v>7.174404047257418</v>
       </c>
       <c r="F30" t="n">
-        <v>12.12201831183251</v>
+        <v>7.35531776177707</v>
       </c>
       <c r="G30" t="n">
-        <v>11.85097386566143</v>
+        <v>7.191037466160139</v>
       </c>
       <c r="H30" t="n">
-        <v>12.24363935765721</v>
+        <v>7.429190247200063</v>
       </c>
       <c r="I30" t="n">
-        <v>11.25984580564795</v>
+        <v>6.832422049621753</v>
       </c>
       <c r="J30" t="n">
-        <v>12.12873047819799</v>
+        <v>7.359424788177984</v>
       </c>
       <c r="K30" t="n">
-        <v>11.01057203798715</v>
+        <v>6.681106148211298</v>
       </c>
       <c r="L30" t="n">
-        <v>12.03650461054146</v>
+        <v>7.303424445228733</v>
       </c>
       <c r="M30" t="n">
-        <v>11.83944688540944</v>
+        <v>7.184006626296623</v>
       </c>
       <c r="N30" t="n">
-        <v>11.9080811675861</v>
+        <v>7.225546069215105</v>
       </c>
       <c r="O30" t="n">
-        <v>11.29137143243846</v>
+        <v>6.851461436221657</v>
       </c>
       <c r="P30" t="n">
-        <v>12.32129170353178</v>
+        <v>7.476150721633473</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.27320998453545</v>
+        <v>6.840485539337601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.79371116630783</v>
+        <v>7.156258153718257</v>
       </c>
       <c r="B31" t="n">
-        <v>11.83436513884259</v>
+        <v>7.180934531006918</v>
       </c>
       <c r="C31" t="n">
-        <v>11.82389586367134</v>
+        <v>7.174570579155549</v>
       </c>
       <c r="D31" t="n">
-        <v>12.07522864726538</v>
+        <v>7.327043078817399</v>
       </c>
       <c r="E31" t="n">
-        <v>11.96662589572833</v>
+        <v>7.261170207861655</v>
       </c>
       <c r="F31" t="n">
-        <v>12.26209906836735</v>
+        <v>7.440382103257951</v>
       </c>
       <c r="G31" t="n">
-        <v>11.94910232920695</v>
+        <v>7.250498478828064</v>
       </c>
       <c r="H31" t="n">
-        <v>12.3233206425433</v>
+        <v>7.477587914726923</v>
       </c>
       <c r="I31" t="n">
-        <v>11.40826664193675</v>
+        <v>6.922436722868964</v>
       </c>
       <c r="J31" t="n">
-        <v>12.22516210207606</v>
+        <v>7.418034130864606</v>
       </c>
       <c r="K31" t="n">
-        <v>11.06093083059926</v>
+        <v>6.711808851037312</v>
       </c>
       <c r="L31" t="n">
-        <v>12.10182416530276</v>
+        <v>7.343145724821056</v>
       </c>
       <c r="M31" t="n">
-        <v>11.90947974444642</v>
+        <v>7.226450208150615</v>
       </c>
       <c r="N31" t="n">
-        <v>11.89212661381483</v>
+        <v>7.215967823603939</v>
       </c>
       <c r="O31" t="n">
-        <v>11.43818941944022</v>
+        <v>6.940537751650182</v>
       </c>
       <c r="P31" t="n">
-        <v>12.37682623309113</v>
+        <v>7.509890540446388</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.34300348140369</v>
+        <v>6.882615067885987</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.94249668527258</v>
+        <v>7.2465876406907</v>
       </c>
       <c r="B32" t="n">
-        <v>11.98114177007697</v>
+        <v>7.270037461122358</v>
       </c>
       <c r="C32" t="n">
-        <v>11.96526115540495</v>
+        <v>7.260355038022407</v>
       </c>
       <c r="D32" t="n">
-        <v>12.16561480987626</v>
+        <v>7.381849562953573</v>
       </c>
       <c r="E32" t="n">
-        <v>12.05908987234853</v>
+        <v>7.317259519907168</v>
       </c>
       <c r="F32" t="n">
-        <v>12.31192900843908</v>
+        <v>7.47066353361107</v>
       </c>
       <c r="G32" t="n">
-        <v>11.98889284344712</v>
+        <v>7.274679822940092</v>
       </c>
       <c r="H32" t="n">
-        <v>12.41363286605494</v>
+        <v>7.532323679837863</v>
       </c>
       <c r="I32" t="n">
-        <v>11.38243557899328</v>
+        <v>6.906841276755959</v>
       </c>
       <c r="J32" t="n">
-        <v>12.24922113304777</v>
+        <v>7.432590843768271</v>
       </c>
       <c r="K32" t="n">
-        <v>11.05911869606519</v>
+        <v>6.710767076149467</v>
       </c>
       <c r="L32" t="n">
-        <v>12.12845226667201</v>
+        <v>7.359292475163032</v>
       </c>
       <c r="M32" t="n">
-        <v>11.94087002508916</v>
+        <v>7.245456896706594</v>
       </c>
       <c r="N32" t="n">
-        <v>11.89038465876479</v>
+        <v>7.21476407933572</v>
       </c>
       <c r="O32" t="n">
-        <v>11.49379788809881</v>
+        <v>6.974266164168704</v>
       </c>
       <c r="P32" t="n">
-        <v>12.37490632292087</v>
+        <v>7.508597827081908</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.33954588861012</v>
+        <v>6.880509465941137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.4074733631262</v>
+        <v>7.528581654857509</v>
       </c>
       <c r="B33" t="n">
-        <v>12.4683753700088</v>
+        <v>7.56554565288536</v>
       </c>
       <c r="C33" t="n">
-        <v>12.42333267331199</v>
+        <v>7.538213129842506</v>
       </c>
       <c r="D33" t="n">
-        <v>12.6082744118082</v>
+        <v>7.650425212397083</v>
       </c>
       <c r="E33" t="n">
-        <v>12.51368374618086</v>
+        <v>7.593081968388026</v>
       </c>
       <c r="F33" t="n">
-        <v>12.61114299821794</v>
+        <v>7.652171135858756</v>
       </c>
       <c r="G33" t="n">
-        <v>12.54181945325169</v>
+        <v>7.610153388995417</v>
       </c>
       <c r="H33" t="n">
-        <v>12.18432265519065</v>
+        <v>7.393173732026413</v>
       </c>
       <c r="I33" t="n">
-        <v>12.17645754015896</v>
+        <v>7.388409703068493</v>
       </c>
       <c r="J33" t="n">
-        <v>11.93626199003953</v>
+        <v>7.24272775066829</v>
       </c>
       <c r="K33" t="n">
-        <v>11.92826528847528</v>
+        <v>7.237805554428128</v>
       </c>
       <c r="L33" t="n">
-        <v>12.34855016705224</v>
+        <v>7.492886036766099</v>
       </c>
       <c r="M33" t="n">
-        <v>12.34031786293446</v>
+        <v>7.487849777582012</v>
       </c>
       <c r="N33" t="n">
-        <v>12.1551054321427</v>
+        <v>7.375498538235847</v>
       </c>
       <c r="O33" t="n">
-        <v>11.96583261691777</v>
+        <v>7.260636393284088</v>
       </c>
       <c r="P33" t="n">
-        <v>12.54507277361853</v>
+        <v>7.611966989803818</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.61032340210087</v>
+        <v>7.044990512339377</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12.33902204889004</v>
+        <v>7.487057420331548</v>
       </c>
       <c r="B34" t="n">
-        <v>12.37971361757695</v>
+        <v>7.511761933146378</v>
       </c>
       <c r="C34" t="n">
-        <v>12.35680628206639</v>
+        <v>7.497854618603457</v>
       </c>
       <c r="D34" t="n">
-        <v>12.55660852630603</v>
+        <v>7.619146871914062</v>
       </c>
       <c r="E34" t="n">
-        <v>12.52095860162365</v>
+        <v>7.597499245996414</v>
       </c>
       <c r="F34" t="n">
-        <v>12.72090120483136</v>
+        <v>7.718888833019169</v>
       </c>
       <c r="G34" t="n">
-        <v>12.58210122388007</v>
+        <v>7.634643463475667</v>
       </c>
       <c r="H34" t="n">
-        <v>12.29625517260394</v>
+        <v>7.461097454713922</v>
       </c>
       <c r="I34" t="n">
-        <v>12.08824568834795</v>
+        <v>7.334948401251005</v>
       </c>
       <c r="J34" t="n">
-        <v>11.97665278950917</v>
+        <v>7.267244439835457</v>
       </c>
       <c r="K34" t="n">
-        <v>11.91769074407798</v>
+        <v>7.231455290130029</v>
       </c>
       <c r="L34" t="n">
-        <v>12.51829679405079</v>
+        <v>7.595924416950628</v>
       </c>
       <c r="M34" t="n">
-        <v>12.48043746882652</v>
+        <v>7.572941494169435</v>
       </c>
       <c r="N34" t="n">
-        <v>12.24921236061227</v>
+        <v>7.432612135517804</v>
       </c>
       <c r="O34" t="n">
-        <v>12.03587424839026</v>
+        <v>7.303187194305369</v>
       </c>
       <c r="P34" t="n">
-        <v>12.50288111846046</v>
+        <v>7.586637412056282</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.90495316772646</v>
+        <v>7.223750718477731</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.38580043461152</v>
+        <v>7.515450728752901</v>
       </c>
       <c r="B35" t="n">
-        <v>12.4274995801763</v>
+        <v>7.54076205642941</v>
       </c>
       <c r="C35" t="n">
-        <v>12.38895725818782</v>
+        <v>7.517367746630462</v>
       </c>
       <c r="D35" t="n">
-        <v>12.60171764287164</v>
+        <v>7.646469509501776</v>
       </c>
       <c r="E35" t="n">
-        <v>12.55725016730288</v>
+        <v>7.619482216969201</v>
       </c>
       <c r="F35" t="n">
-        <v>12.70987550660815</v>
+        <v>7.712102848275278</v>
       </c>
       <c r="G35" t="n">
-        <v>12.6758384568534</v>
+        <v>7.691423996961364</v>
       </c>
       <c r="H35" t="n">
-        <v>12.43283196775754</v>
+        <v>7.544047829634066</v>
       </c>
       <c r="I35" t="n">
-        <v>12.42740934941112</v>
+        <v>7.540736962581747</v>
       </c>
       <c r="J35" t="n">
-        <v>12.13817713803051</v>
+        <v>7.365219185729357</v>
       </c>
       <c r="K35" t="n">
-        <v>12.09368209195016</v>
+        <v>7.338300330963137</v>
       </c>
       <c r="L35" t="n">
-        <v>12.55902595888986</v>
+        <v>7.620548325285084</v>
       </c>
       <c r="M35" t="n">
-        <v>12.554884116127</v>
+        <v>7.61803513842061</v>
       </c>
       <c r="N35" t="n">
-        <v>12.35278349378536</v>
+        <v>7.495497317762347</v>
       </c>
       <c r="O35" t="n">
-        <v>12.11172448537134</v>
+        <v>7.34913631063598</v>
       </c>
       <c r="P35" t="n">
-        <v>12.52866706602135</v>
+        <v>7.602132482778634</v>
       </c>
       <c r="Q35" t="n">
-        <v>12.02859187371703</v>
+        <v>7.29858361388857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12.48430736608877</v>
+        <v>7.575208305075031</v>
       </c>
       <c r="B36" t="n">
-        <v>12.51922291259897</v>
+        <v>7.596406522993616</v>
       </c>
       <c r="C36" t="n">
-        <v>12.48905826651662</v>
+        <v>7.578096378815204</v>
       </c>
       <c r="D36" t="n">
-        <v>12.6752080947022</v>
+        <v>7.69106583931744</v>
       </c>
       <c r="E36" t="n">
-        <v>12.66446687403033</v>
+        <v>7.684555886897846</v>
       </c>
       <c r="F36" t="n">
-        <v>12.83938923797612</v>
+        <v>7.790686893701986</v>
       </c>
       <c r="G36" t="n">
-        <v>12.78039335600799</v>
+        <v>7.754877212666652</v>
       </c>
       <c r="H36" t="n">
-        <v>12.63972860590961</v>
+        <v>7.669560411869885</v>
       </c>
       <c r="I36" t="n">
-        <v>12.61396020321973</v>
+        <v>7.653948996944729</v>
       </c>
       <c r="J36" t="n">
-        <v>12.25289553031879</v>
+        <v>7.434970957198165</v>
       </c>
       <c r="K36" t="n">
-        <v>12.1641598387877</v>
+        <v>7.381021465980679</v>
       </c>
       <c r="L36" t="n">
-        <v>12.69646621233805</v>
+        <v>7.704001337578123</v>
       </c>
       <c r="M36" t="n">
-        <v>12.66477014965775</v>
+        <v>7.68477108565205</v>
       </c>
       <c r="N36" t="n">
-        <v>12.36781067580337</v>
+        <v>7.504594978169778</v>
       </c>
       <c r="O36" t="n">
-        <v>12.27828797148708</v>
+        <v>7.450242464550425</v>
       </c>
       <c r="P36" t="n">
-        <v>12.50227707361577</v>
+        <v>7.586159108111425</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.39182208498234</v>
+        <v>7.519084774146341</v>
       </c>
     </row>
   </sheetData>
@@ -6272,1857 +6272,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.775537499655369</v>
+        <v>2.897598566304837</v>
       </c>
       <c r="B2" t="n">
-        <v>4.719306188076004</v>
+        <v>2.863478917888653</v>
       </c>
       <c r="C2" t="n">
-        <v>4.706902904177434</v>
+        <v>2.855956466736822</v>
       </c>
       <c r="D2" t="n">
-        <v>4.700796349162984</v>
+        <v>2.852280408159036</v>
       </c>
       <c r="E2" t="n">
-        <v>4.759128972346777</v>
+        <v>2.887660832315401</v>
       </c>
       <c r="F2" t="n">
-        <v>5.017593119402873</v>
+        <v>3.044571140915547</v>
       </c>
       <c r="G2" t="n">
-        <v>5.130829596693544</v>
+        <v>3.113233231060062</v>
       </c>
       <c r="H2" t="n">
-        <v>5.420922133356058</v>
+        <v>3.289346416479738</v>
       </c>
       <c r="I2" t="n">
-        <v>5.690594946575867</v>
+        <v>3.452939292754617</v>
       </c>
       <c r="J2" t="n">
-        <v>5.765542249302591</v>
+        <v>3.498461433465136</v>
       </c>
       <c r="K2" t="n">
-        <v>6.095774317817819</v>
+        <v>3.698821739294504</v>
       </c>
       <c r="L2" t="n">
-        <v>5.8496360692471</v>
+        <v>3.549460496533104</v>
       </c>
       <c r="M2" t="n">
-        <v>5.922736147697737</v>
+        <v>3.593800184724938</v>
       </c>
       <c r="N2" t="n">
-        <v>6.291273682442847</v>
+        <v>3.817348726634562</v>
       </c>
       <c r="O2" t="n">
-        <v>6.351986455359582</v>
+        <v>3.854190297102602</v>
       </c>
       <c r="P2" t="n">
-        <v>6.744155678146861</v>
+        <v>4.092036248823369</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.056788361233855</v>
+        <v>4.281889836678023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.805532963053008</v>
+        <v>2.915913843315726</v>
       </c>
       <c r="B3" t="n">
-        <v>4.758873318512094</v>
+        <v>2.887605321682691</v>
       </c>
       <c r="C3" t="n">
-        <v>4.750589632986363</v>
+        <v>2.882583890681314</v>
       </c>
       <c r="D3" t="n">
-        <v>4.777259403424257</v>
+        <v>2.898785771446186</v>
       </c>
       <c r="E3" t="n">
-        <v>4.826089599149825</v>
+        <v>2.928403355465663</v>
       </c>
       <c r="F3" t="n">
-        <v>5.075801988585808</v>
+        <v>3.079945861924715</v>
       </c>
       <c r="G3" t="n">
-        <v>5.168665424322706</v>
+        <v>3.136249992514619</v>
       </c>
       <c r="H3" t="n">
-        <v>5.488244936424906</v>
+        <v>3.330176007677196</v>
       </c>
       <c r="I3" t="n">
-        <v>5.70220338515754</v>
+        <v>3.459995226465797</v>
       </c>
       <c r="J3" t="n">
-        <v>5.829249555738802</v>
+        <v>3.537128771455596</v>
       </c>
       <c r="K3" t="n">
-        <v>6.082655140521885</v>
+        <v>3.690911093923515</v>
       </c>
       <c r="L3" t="n">
-        <v>5.89635868734288</v>
+        <v>3.577716929421747</v>
       </c>
       <c r="M3" t="n">
-        <v>5.964083769239831</v>
+        <v>3.61879859972528</v>
       </c>
       <c r="N3" t="n">
-        <v>6.328891139088218</v>
+        <v>3.840132799683513</v>
       </c>
       <c r="O3" t="n">
-        <v>6.405731408076154</v>
+        <v>3.886762491579541</v>
       </c>
       <c r="P3" t="n">
-        <v>6.832750384107355</v>
+        <v>4.145851525976838</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.055270103289162</v>
+        <v>4.280920681864477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.869709281487404</v>
+        <v>2.954995610002446</v>
       </c>
       <c r="B4" t="n">
-        <v>4.819506199605491</v>
+        <v>2.924544606072692</v>
       </c>
       <c r="C4" t="n">
-        <v>4.799194878401511</v>
+        <v>2.912217443512941</v>
       </c>
       <c r="D4" t="n">
-        <v>4.791673768162075</v>
+        <v>2.907651503867637</v>
       </c>
       <c r="E4" t="n">
-        <v>4.872935031342659</v>
+        <v>2.956956352008511</v>
       </c>
       <c r="F4" t="n">
-        <v>5.102880617178434</v>
+        <v>3.096427957321829</v>
       </c>
       <c r="G4" t="n">
-        <v>5.250291370179234</v>
+        <v>3.185834675077922</v>
       </c>
       <c r="H4" t="n">
-        <v>5.468212453349441</v>
+        <v>3.318060241773519</v>
       </c>
       <c r="I4" t="n">
-        <v>5.807594172095134</v>
+        <v>3.52394119408884</v>
       </c>
       <c r="J4" t="n">
-        <v>6.168220223220888</v>
+        <v>3.742695670465311</v>
       </c>
       <c r="K4" t="n">
-        <v>5.654147356865183</v>
+        <v>3.43030616300146</v>
       </c>
       <c r="L4" t="n">
-        <v>5.901156582960922</v>
+        <v>3.580808035202106</v>
       </c>
       <c r="M4" t="n">
-        <v>5.975227895342338</v>
+        <v>3.625745033010291</v>
       </c>
       <c r="N4" t="n">
-        <v>6.382516410720418</v>
+        <v>3.872830083188957</v>
       </c>
       <c r="O4" t="n">
-        <v>6.447151715512423</v>
+        <v>3.912068116108853</v>
       </c>
       <c r="P4" t="n">
-        <v>6.887930883233871</v>
+        <v>4.179473479747696</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.119918566734423</v>
+        <v>4.320245022411942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.939353333650812</v>
+        <v>2.997064304980739</v>
       </c>
       <c r="B5" t="n">
-        <v>4.889985826250636</v>
+        <v>2.967099209192105</v>
       </c>
       <c r="C5" t="n">
-        <v>4.868867127679039</v>
+        <v>2.954292602058057</v>
       </c>
       <c r="D5" t="n">
-        <v>4.844844126353149</v>
+        <v>2.939695777019111</v>
       </c>
       <c r="E5" t="n">
-        <v>4.929402572078089</v>
+        <v>2.990972203145723</v>
       </c>
       <c r="F5" t="n">
-        <v>5.134868676640508</v>
+        <v>3.115655167569396</v>
       </c>
       <c r="G5" t="n">
-        <v>5.281278745391338</v>
+        <v>3.204424653678763</v>
       </c>
       <c r="H5" t="n">
-        <v>5.576058269023027</v>
+        <v>3.383450626476462</v>
       </c>
       <c r="I5" t="n">
-        <v>5.847894114197059</v>
+        <v>3.54828070548311</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9386261614078</v>
+        <v>3.603445347263207</v>
       </c>
       <c r="K5" t="n">
-        <v>6.217501259471097</v>
+        <v>3.772620464013759</v>
       </c>
       <c r="L5" t="n">
-        <v>5.940802352015279</v>
+        <v>3.604762394055724</v>
       </c>
       <c r="M5" t="n">
-        <v>6.02316925537061</v>
+        <v>3.654712838459211</v>
       </c>
       <c r="N5" t="n">
-        <v>6.412343944638413</v>
+        <v>3.890859632525315</v>
       </c>
       <c r="O5" t="n">
-        <v>6.503094789925234</v>
+        <v>3.945886258143263</v>
       </c>
       <c r="P5" t="n">
-        <v>6.900811324963595</v>
+        <v>4.187176150350929</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.181190269113257</v>
+        <v>4.357342474084186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.932138945352739</v>
+        <v>2.992607865761602</v>
       </c>
       <c r="B6" t="n">
-        <v>4.882735721608013</v>
+        <v>2.962642960077875</v>
       </c>
       <c r="C6" t="n">
-        <v>4.870533577123493</v>
+        <v>2.95523666302394</v>
       </c>
       <c r="D6" t="n">
-        <v>4.88415967587104</v>
+        <v>2.963568961077636</v>
       </c>
       <c r="E6" t="n">
-        <v>4.944503379894079</v>
+        <v>3.000169668629088</v>
       </c>
       <c r="F6" t="n">
-        <v>5.177629600202518</v>
+        <v>3.141701821024405</v>
       </c>
       <c r="G6" t="n">
-        <v>5.287140612115485</v>
+        <v>3.208062881380147</v>
       </c>
       <c r="H6" t="n">
-        <v>5.600351022740659</v>
+        <v>3.398226340232462</v>
       </c>
       <c r="I6" t="n">
-        <v>5.864112467635979</v>
+        <v>3.558246004683995</v>
       </c>
       <c r="J6" t="n">
-        <v>5.982631830907546</v>
+        <v>3.630237211951858</v>
       </c>
       <c r="K6" t="n">
-        <v>6.282771939234593</v>
+        <v>3.812388129203279</v>
       </c>
       <c r="L6" t="n">
-        <v>5.942824398398905</v>
+        <v>3.605920513146372</v>
       </c>
       <c r="M6" t="n">
-        <v>6.017963441501641</v>
+        <v>3.651481815467639</v>
       </c>
       <c r="N6" t="n">
-        <v>6.41952480970081</v>
+        <v>3.895179956631368</v>
       </c>
       <c r="O6" t="n">
-        <v>6.489713066166721</v>
+        <v>3.937758893178817</v>
       </c>
       <c r="P6" t="n">
-        <v>6.921074397772303</v>
+        <v>4.19943791682283</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.232512149823172</v>
+        <v>4.388485840083563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.983992185013171</v>
+        <v>3.024152733323594</v>
       </c>
       <c r="B7" t="n">
-        <v>4.929433588903621</v>
+        <v>2.991046724269087</v>
       </c>
       <c r="C7" t="n">
-        <v>4.916984563019923</v>
+        <v>2.983501650633377</v>
       </c>
       <c r="D7" t="n">
-        <v>4.914590941332458</v>
+        <v>2.982073772680347</v>
       </c>
       <c r="E7" t="n">
-        <v>4.972644726387736</v>
+        <v>3.017275498224563</v>
       </c>
       <c r="F7" t="n">
-        <v>5.212428598641025</v>
+        <v>3.162808028168224</v>
       </c>
       <c r="G7" t="n">
-        <v>5.328652403522008</v>
+        <v>3.233277635764132</v>
       </c>
       <c r="H7" t="n">
-        <v>5.635099892976287</v>
+        <v>3.419280078422076</v>
       </c>
       <c r="I7" t="n">
-        <v>5.914273253846713</v>
+        <v>3.588663550150197</v>
       </c>
       <c r="J7" t="n">
-        <v>5.991272053276254</v>
+        <v>3.63533962764342</v>
       </c>
       <c r="K7" t="n">
-        <v>6.289636370016317</v>
+        <v>3.816342311259334</v>
       </c>
       <c r="L7" t="n">
-        <v>6.011506928970843</v>
+        <v>3.647619263976536</v>
       </c>
       <c r="M7" t="n">
-        <v>6.091804790752349</v>
+        <v>3.696318057675357</v>
       </c>
       <c r="N7" t="n">
-        <v>6.470038373139304</v>
+        <v>3.925908513724671</v>
       </c>
       <c r="O7" t="n">
-        <v>6.530180937748291</v>
+        <v>3.96236645249131</v>
       </c>
       <c r="P7" t="n">
-        <v>6.932625815523201</v>
+        <v>4.206685476279802</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.225700353654472</v>
+        <v>4.384469303618162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.868828904924344</v>
+        <v>2.954384993042636</v>
       </c>
       <c r="B8" t="n">
-        <v>4.820650062534933</v>
+        <v>2.92514818915096</v>
       </c>
       <c r="C8" t="n">
-        <v>4.807180301120114</v>
+        <v>2.916986795408244</v>
       </c>
       <c r="D8" t="n">
-        <v>4.835478924850305</v>
+        <v>2.93416125287498</v>
       </c>
       <c r="E8" t="n">
-        <v>4.903839381718746</v>
+        <v>2.975600510507716</v>
       </c>
       <c r="F8" t="n">
-        <v>5.180028861312808</v>
+        <v>3.143199847687949</v>
       </c>
       <c r="G8" t="n">
-        <v>5.288004697012609</v>
+        <v>3.2086689358222</v>
       </c>
       <c r="H8" t="n">
-        <v>5.592987189737754</v>
+        <v>3.393709447653046</v>
       </c>
       <c r="I8" t="n">
-        <v>5.856324424716211</v>
+        <v>3.553526080064392</v>
       </c>
       <c r="J8" t="n">
-        <v>5.939988395321033</v>
+        <v>3.604104631079092</v>
       </c>
       <c r="K8" t="n">
-        <v>6.213070552939142</v>
+        <v>3.76994378692966</v>
       </c>
       <c r="L8" t="n">
-        <v>6.006482829837309</v>
+        <v>3.644624351278888</v>
       </c>
       <c r="M8" t="n">
-        <v>6.074130213019798</v>
+        <v>3.685669521440364</v>
       </c>
       <c r="N8" t="n">
-        <v>6.469347230542112</v>
+        <v>3.9254210847443</v>
       </c>
       <c r="O8" t="n">
-        <v>6.508993626199004</v>
+        <v>3.949565548504459</v>
       </c>
       <c r="P8" t="n">
-        <v>6.87730245101848</v>
+        <v>4.172936912641187</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.2184311376345</v>
+        <v>4.380038718666316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.824272765096735</v>
+        <v>2.927379260334126</v>
       </c>
       <c r="B9" t="n">
-        <v>4.7790962887585</v>
+        <v>2.899965372391274</v>
       </c>
       <c r="C9" t="n">
-        <v>4.766738433543789</v>
+        <v>2.892473718234302</v>
       </c>
       <c r="D9" t="n">
-        <v>4.793611849805878</v>
+        <v>2.90877198218679</v>
       </c>
       <c r="E9" t="n">
-        <v>4.859492527138156</v>
+        <v>2.948735835639861</v>
       </c>
       <c r="F9" t="n">
-        <v>5.145514027124371</v>
+        <v>3.122272339156278</v>
       </c>
       <c r="G9" t="n">
-        <v>5.246618226113284</v>
+        <v>3.183597140327933</v>
       </c>
       <c r="H9" t="n">
-        <v>5.582259754321678</v>
+        <v>3.387264130901676</v>
       </c>
       <c r="I9" t="n">
-        <v>5.837130962436431</v>
+        <v>3.541881394119124</v>
       </c>
       <c r="J9" t="n">
-        <v>5.904723831198289</v>
+        <v>3.582839496233404</v>
       </c>
       <c r="K9" t="n">
-        <v>6.228669823072508</v>
+        <v>3.77942621966793</v>
       </c>
       <c r="L9" t="n">
-        <v>5.994924519458515</v>
+        <v>3.637575261344344</v>
       </c>
       <c r="M9" t="n">
-        <v>6.051006699634315</v>
+        <v>3.671597956258192</v>
       </c>
       <c r="N9" t="n">
-        <v>6.445740606601383</v>
+        <v>3.911137742696241</v>
       </c>
       <c r="O9" t="n">
-        <v>6.502649275522148</v>
+        <v>3.945698054285787</v>
       </c>
       <c r="P9" t="n">
-        <v>6.907908225286169</v>
+        <v>4.191458833685487</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.220995195211754</v>
+        <v>4.381497963928925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.834442210954516</v>
+        <v>2.933436192761433</v>
       </c>
       <c r="B10" t="n">
-        <v>4.780192843196475</v>
+        <v>2.900523140187065</v>
       </c>
       <c r="C10" t="n">
-        <v>4.765311346268081</v>
+        <v>2.891491826392017</v>
       </c>
       <c r="D10" t="n">
-        <v>4.752417745885102</v>
+        <v>2.883695624174766</v>
       </c>
       <c r="E10" t="n">
-        <v>4.819292214839452</v>
+        <v>2.924286823819422</v>
       </c>
       <c r="F10" t="n">
-        <v>5.079538419507892</v>
+        <v>3.082168948701807</v>
       </c>
       <c r="G10" t="n">
-        <v>5.205097975572527</v>
+        <v>3.158350448319649</v>
       </c>
       <c r="H10" t="n">
-        <v>5.532952400764956</v>
+        <v>3.357298654903229</v>
       </c>
       <c r="I10" t="n">
-        <v>5.818557210064741</v>
+        <v>3.530564449032732</v>
       </c>
       <c r="J10" t="n">
-        <v>5.931275487058151</v>
+        <v>3.598844808524913</v>
       </c>
       <c r="K10" t="n">
-        <v>6.239259405930667</v>
+        <v>3.785782947532852</v>
       </c>
       <c r="L10" t="n">
-        <v>5.969340337914216</v>
+        <v>3.622055857193955</v>
       </c>
       <c r="M10" t="n">
-        <v>6.03571947756387</v>
+        <v>3.662336805631135</v>
       </c>
       <c r="N10" t="n">
-        <v>6.398669597495595</v>
+        <v>3.882679038187038</v>
       </c>
       <c r="O10" t="n">
-        <v>6.440220238259348</v>
+        <v>3.907918125999061</v>
       </c>
       <c r="P10" t="n">
-        <v>6.97789220932535</v>
+        <v>4.234133583105833</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.169831218340907</v>
+        <v>4.350722641028612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.816422375224637</v>
+        <v>2.922409347762422</v>
       </c>
       <c r="B11" t="n">
-        <v>4.762113166924409</v>
+        <v>2.889450479905579</v>
       </c>
       <c r="C11" t="n">
-        <v>4.750276645019638</v>
+        <v>2.882273259264026</v>
       </c>
       <c r="D11" t="n">
-        <v>4.746383876764826</v>
+        <v>2.879918619891608</v>
       </c>
       <c r="E11" t="n">
-        <v>4.810607190389421</v>
+        <v>2.918872255871319</v>
       </c>
       <c r="F11" t="n">
-        <v>5.100377653348438</v>
+        <v>3.094741726800809</v>
       </c>
       <c r="G11" t="n">
-        <v>5.205213897041684</v>
+        <v>3.158335049822218</v>
       </c>
       <c r="H11" t="n">
-        <v>5.566433654070285</v>
+        <v>3.377642541371818</v>
       </c>
       <c r="I11" t="n">
-        <v>5.799453978550142</v>
+        <v>3.5189847789655</v>
       </c>
       <c r="J11" t="n">
-        <v>5.886050449023378</v>
+        <v>3.571605436886264</v>
       </c>
       <c r="K11" t="n">
-        <v>6.201215232958291</v>
+        <v>3.762893176155864</v>
       </c>
       <c r="L11" t="n">
-        <v>5.996161432864551</v>
+        <v>3.638391191603219</v>
       </c>
       <c r="M11" t="n">
-        <v>6.040900853933936</v>
+        <v>3.665527906592335</v>
       </c>
       <c r="N11" t="n">
-        <v>6.480753276504661</v>
+        <v>3.932371700337256</v>
       </c>
       <c r="O11" t="n">
-        <v>6.425080894387396</v>
+        <v>3.898633782573406</v>
       </c>
       <c r="P11" t="n">
-        <v>7.105131373487695</v>
+        <v>4.311215799770866</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.094899580677583</v>
+        <v>4.305065906044262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.770262759507441</v>
+        <v>2.894180670190134</v>
       </c>
       <c r="B12" t="n">
-        <v>4.719074031836421</v>
+        <v>2.863101939858982</v>
       </c>
       <c r="C12" t="n">
-        <v>4.704994272852821</v>
+        <v>2.854565469135661</v>
       </c>
       <c r="D12" t="n">
-        <v>4.713392939943907</v>
+        <v>2.859700582871149</v>
       </c>
       <c r="E12" t="n">
-        <v>4.786677552841392</v>
+        <v>2.904152623062748</v>
       </c>
       <c r="F12" t="n">
-        <v>5.056032365274189</v>
+        <v>3.067803481334122</v>
       </c>
       <c r="G12" t="n">
-        <v>5.227984006596872</v>
+        <v>3.172136666037102</v>
       </c>
       <c r="H12" t="n">
-        <v>5.425275141173551</v>
+        <v>3.291903327472716</v>
       </c>
       <c r="I12" t="n">
-        <v>5.866270486769914</v>
+        <v>3.559577119239596</v>
       </c>
       <c r="J12" t="n">
-        <v>5.729204315035703</v>
+        <v>3.47619482597179</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2547327289543</v>
+        <v>3.79516766634916</v>
       </c>
       <c r="L12" t="n">
-        <v>5.989528218418606</v>
+        <v>3.634460202345761</v>
       </c>
       <c r="M12" t="n">
-        <v>6.067587855941571</v>
+        <v>3.681822178341785</v>
       </c>
       <c r="N12" t="n">
-        <v>6.391034445594609</v>
+        <v>3.878026030494538</v>
       </c>
       <c r="O12" t="n">
-        <v>6.428054123420648</v>
+        <v>3.900490347090687</v>
       </c>
       <c r="P12" t="n">
-        <v>7.043714299320512</v>
+        <v>4.274023675855165</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.124656935111548</v>
+        <v>4.323170356713797</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.818684097078278</v>
+        <v>2.923868973234845</v>
       </c>
       <c r="B13" t="n">
-        <v>4.750233409444655</v>
+        <v>2.882335803778278</v>
       </c>
       <c r="C13" t="n">
-        <v>4.76513965717322</v>
+        <v>2.891378713972625</v>
       </c>
       <c r="D13" t="n">
-        <v>4.744485271080789</v>
+        <v>2.87886600902409</v>
       </c>
       <c r="E13" t="n">
-        <v>4.81955632780837</v>
+        <v>2.924392141937646</v>
       </c>
       <c r="F13" t="n">
-        <v>5.087286673166624</v>
+        <v>3.08691795937211</v>
       </c>
       <c r="G13" t="n">
-        <v>5.244338019484832</v>
+        <v>3.18213371275738</v>
       </c>
       <c r="H13" t="n">
-        <v>5.426780867067525</v>
+        <v>3.292994909846075</v>
       </c>
       <c r="I13" t="n">
-        <v>5.87578669948393</v>
+        <v>3.56532361035452</v>
       </c>
       <c r="J13" t="n">
-        <v>5.738191675209348</v>
+        <v>3.481829915611482</v>
       </c>
       <c r="K13" t="n">
-        <v>6.264503342297927</v>
+        <v>3.801119850972962</v>
       </c>
       <c r="L13" t="n">
-        <v>6.003134265885001</v>
+        <v>3.642649161299926</v>
       </c>
       <c r="M13" t="n">
-        <v>6.08040187780248</v>
+        <v>3.689486067544083</v>
       </c>
       <c r="N13" t="n">
-        <v>6.44106615168293</v>
+        <v>3.908338257842516</v>
       </c>
       <c r="O13" t="n">
-        <v>6.45493975843219</v>
+        <v>3.916710097716773</v>
       </c>
       <c r="P13" t="n">
-        <v>7.028321808024021</v>
+        <v>4.264664811306147</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.18065139093231</v>
+        <v>4.357089634558487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.812957889803172</v>
+        <v>2.920220669973415</v>
       </c>
       <c r="B14" t="n">
-        <v>4.755743125543578</v>
+        <v>2.885501240577094</v>
       </c>
       <c r="C14" t="n">
-        <v>4.74394357318843</v>
+        <v>2.878342460111476</v>
       </c>
       <c r="D14" t="n">
-        <v>4.75449399338809</v>
+        <v>2.884772188260509</v>
       </c>
       <c r="E14" t="n">
-        <v>4.812156151858378</v>
+        <v>2.919739324350053</v>
       </c>
       <c r="F14" t="n">
-        <v>5.10559255295418</v>
+        <v>3.097911916222289</v>
       </c>
       <c r="G14" t="n">
-        <v>5.256660784957529</v>
+        <v>3.189527272782576</v>
       </c>
       <c r="H14" t="n">
-        <v>5.461963972860591</v>
+        <v>3.314177539162324</v>
       </c>
       <c r="I14" t="n">
-        <v>5.895599245069264</v>
+        <v>3.577310865341376</v>
       </c>
       <c r="J14" t="n">
-        <v>5.827265105507335</v>
+        <v>3.53567484913037</v>
       </c>
       <c r="K14" t="n">
-        <v>6.287289116916514</v>
+        <v>3.814809305292986</v>
       </c>
       <c r="L14" t="n">
-        <v>6.00228208643606</v>
+        <v>3.64208226846862</v>
       </c>
       <c r="M14" t="n">
-        <v>6.078299626294248</v>
+        <v>3.688188031242221</v>
       </c>
       <c r="N14" t="n">
-        <v>6.464847597731198</v>
+        <v>3.922772543186369</v>
       </c>
       <c r="O14" t="n">
-        <v>6.519241084072515</v>
+        <v>3.955754984051624</v>
       </c>
       <c r="P14" t="n">
-        <v>7.046945688598591</v>
+        <v>4.276000766883193</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.237968604706537</v>
+        <v>4.391944608753171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.873010223646977</v>
+        <v>2.956786398222063</v>
       </c>
       <c r="B15" t="n">
-        <v>4.820483072959093</v>
+        <v>2.924899341828298</v>
       </c>
       <c r="C15" t="n">
-        <v>4.807595738601473</v>
+        <v>2.917089832267589</v>
       </c>
       <c r="D15" t="n">
-        <v>4.815773841599892</v>
+        <v>2.922065638091396</v>
       </c>
       <c r="E15" t="n">
-        <v>4.877865140095795</v>
+        <v>2.959725420077188</v>
       </c>
       <c r="F15" t="n">
-        <v>5.162809823623919</v>
+        <v>3.132705106322347</v>
       </c>
       <c r="G15" t="n">
-        <v>5.290158329928793</v>
+        <v>3.209958607508174</v>
       </c>
       <c r="H15" t="n">
-        <v>5.585613331094273</v>
+        <v>3.389338555641852</v>
       </c>
       <c r="I15" t="n">
-        <v>5.917153119102104</v>
+        <v>3.590439890396917</v>
       </c>
       <c r="J15" t="n">
-        <v>5.927908125029764</v>
+        <v>3.596968473097351</v>
       </c>
       <c r="K15" t="n">
-        <v>6.304696135366199</v>
+        <v>3.825594717060689</v>
       </c>
       <c r="L15" t="n">
-        <v>6.064769397734707</v>
+        <v>3.680041275577308</v>
       </c>
       <c r="M15" t="n">
-        <v>6.134877449076012</v>
+        <v>3.722565081701861</v>
       </c>
       <c r="N15" t="n">
-        <v>6.517796765227068</v>
+        <v>3.954829173156769</v>
       </c>
       <c r="O15" t="n">
-        <v>6.571958408630072</v>
+        <v>3.987649644641651</v>
       </c>
       <c r="P15" t="n">
-        <v>7.060974692776776</v>
+        <v>4.284268809478479</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.270863358038183</v>
+        <v>4.411639477070829</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.998913157901333</v>
+        <v>3.033028351200185</v>
       </c>
       <c r="B16" t="n">
-        <v>4.941012577166102</v>
+        <v>2.997890691009473</v>
       </c>
       <c r="C16" t="n">
-        <v>4.925366938445073</v>
+        <v>2.98840730774667</v>
       </c>
       <c r="D16" t="n">
-        <v>4.890386538572399</v>
+        <v>2.967217454443973</v>
       </c>
       <c r="E16" t="n">
-        <v>4.948880511909207</v>
+        <v>3.002687037801505</v>
       </c>
       <c r="F16" t="n">
-        <v>5.222764720773378</v>
+        <v>3.168957731789922</v>
       </c>
       <c r="G16" t="n">
-        <v>5.330064765638119</v>
+        <v>3.234039956439362</v>
       </c>
       <c r="H16" t="n">
-        <v>5.657685154783358</v>
+        <v>3.432947100363129</v>
       </c>
       <c r="I16" t="n">
-        <v>5.933384004591743</v>
+        <v>3.60023105350341</v>
       </c>
       <c r="J16" t="n">
-        <v>5.95192392042649</v>
+        <v>3.611457888864101</v>
       </c>
       <c r="K16" t="n">
-        <v>6.249645969567168</v>
+        <v>3.792100513787026</v>
       </c>
       <c r="L16" t="n">
-        <v>6.123288435172955</v>
+        <v>3.715488616660775</v>
       </c>
       <c r="M16" t="n">
-        <v>6.188753361722606</v>
+        <v>3.755203812896089</v>
       </c>
       <c r="N16" t="n">
-        <v>6.545616038017229</v>
+        <v>3.971648134448273</v>
       </c>
       <c r="O16" t="n">
-        <v>6.583149529922777</v>
+        <v>3.994460723233205</v>
       </c>
       <c r="P16" t="n">
-        <v>7.033188629921023</v>
+        <v>4.267447566928095</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.269820691418302</v>
+        <v>4.411084750953543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.108417590487672</v>
+        <v>3.099700423183027</v>
       </c>
       <c r="B17" t="n">
-        <v>5.028933685400411</v>
+        <v>3.051486016786073</v>
       </c>
       <c r="C17" t="n">
-        <v>5.050153893582838</v>
+        <v>3.06434927518227</v>
       </c>
       <c r="D17" t="n">
-        <v>4.947319018389531</v>
+        <v>3.001992394473004</v>
       </c>
       <c r="E17" t="n">
-        <v>5.018103487168434</v>
+        <v>3.044891657787975</v>
       </c>
       <c r="F17" t="n">
-        <v>5.235017306762044</v>
+        <v>3.176563448890819</v>
       </c>
       <c r="G17" t="n">
-        <v>5.353745328678094</v>
+        <v>3.248529372206111</v>
       </c>
       <c r="H17" t="n">
-        <v>5.636353724650794</v>
+        <v>3.420110076444034</v>
       </c>
       <c r="I17" t="n">
-        <v>5.972285996435885</v>
+        <v>3.623879343457497</v>
       </c>
       <c r="J17" t="n">
-        <v>5.91839003250814</v>
+        <v>3.59114213792168</v>
       </c>
       <c r="K17" t="n">
-        <v>6.22750183594543</v>
+        <v>3.778712946058588</v>
       </c>
       <c r="L17" t="n">
-        <v>6.139199753369242</v>
+        <v>3.725229211862128</v>
       </c>
       <c r="M17" t="n">
-        <v>6.202111274584751</v>
+        <v>3.763369198841843</v>
       </c>
       <c r="N17" t="n">
-        <v>6.583046767106876</v>
+        <v>3.99453410372713</v>
       </c>
       <c r="O17" t="n">
-        <v>6.535754567305885</v>
+        <v>3.965831684727742</v>
       </c>
       <c r="P17" t="n">
-        <v>7.063380219912426</v>
+        <v>4.285949336852302</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.252317802780611</v>
+        <v>4.400629741513408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.014271186058345</v>
+        <v>3.042411168967427</v>
       </c>
       <c r="B18" t="n">
-        <v>4.93900870225602</v>
+        <v>2.996735233387517</v>
       </c>
       <c r="C18" t="n">
-        <v>4.960897182043075</v>
+        <v>3.01002299604002</v>
       </c>
       <c r="D18" t="n">
-        <v>4.902263789642009</v>
+        <v>2.974472998307021</v>
       </c>
       <c r="E18" t="n">
-        <v>4.982399361366696</v>
+        <v>3.023102974029674</v>
       </c>
       <c r="F18" t="n">
-        <v>5.223814280021154</v>
+        <v>3.169652945433143</v>
       </c>
       <c r="G18" t="n">
-        <v>5.357306937492638</v>
+        <v>3.250603416736475</v>
       </c>
       <c r="H18" t="n">
-        <v>5.621411760577677</v>
+        <v>3.410964129390342</v>
       </c>
       <c r="I18" t="n">
-        <v>6.002522701809879</v>
+        <v>3.642180742810209</v>
       </c>
       <c r="J18" t="n">
-        <v>5.838566508846375</v>
+        <v>3.5424619745037</v>
       </c>
       <c r="K18" t="n">
-        <v>6.243841750276331</v>
+        <v>3.788464947554333</v>
       </c>
       <c r="L18" t="n">
-        <v>6.158074901560742</v>
+        <v>3.736691397097117</v>
       </c>
       <c r="M18" t="n">
-        <v>6.226928494625003</v>
+        <v>3.778443377301113</v>
       </c>
       <c r="N18" t="n">
-        <v>6.582821190193921</v>
+        <v>3.994436009595355</v>
       </c>
       <c r="O18" t="n">
-        <v>6.538356221035298</v>
+        <v>3.967446435803902</v>
       </c>
       <c r="P18" t="n">
-        <v>7.056811545527687</v>
+        <v>4.282003519412135</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.268034247588207</v>
+        <v>4.410242966427378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.968691490988203</v>
+        <v>3.014743681079248</v>
       </c>
       <c r="B19" t="n">
-        <v>4.912440128127686</v>
+        <v>2.98060122007428</v>
       </c>
       <c r="C19" t="n">
-        <v>4.89079226371445</v>
+        <v>2.967472385123645</v>
       </c>
       <c r="D19" t="n">
-        <v>4.858679823648982</v>
+        <v>2.947990624406219</v>
       </c>
       <c r="E19" t="n">
-        <v>4.937863586121506</v>
+        <v>2.996008652434716</v>
       </c>
       <c r="F19" t="n">
-        <v>5.187375462745972</v>
+        <v>3.14749773941503</v>
       </c>
       <c r="G19" t="n">
-        <v>5.340676279585039</v>
+        <v>3.240459799133255</v>
       </c>
       <c r="H19" t="n">
-        <v>5.613398767347491</v>
+        <v>3.405997828811862</v>
       </c>
       <c r="I19" t="n">
-        <v>5.983709587269441</v>
+        <v>3.630715896106528</v>
       </c>
       <c r="J19" t="n">
-        <v>5.809067941259772</v>
+        <v>3.524505425451454</v>
       </c>
       <c r="K19" t="n">
-        <v>6.196977520007419</v>
+        <v>3.760068977664289</v>
       </c>
       <c r="L19" t="n">
-        <v>6.122977640315105</v>
+        <v>3.715244902170589</v>
       </c>
       <c r="M19" t="n">
-        <v>6.206494985926507</v>
+        <v>3.765887328433887</v>
       </c>
       <c r="N19" t="n">
-        <v>6.548565456154114</v>
+        <v>3.973441203926769</v>
       </c>
       <c r="O19" t="n">
-        <v>6.563389618950466</v>
+        <v>3.982403889850556</v>
       </c>
       <c r="P19" t="n">
-        <v>7.033058923196074</v>
+        <v>4.267323618529031</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.287500281971141</v>
+        <v>4.42175724040676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.959370464964146</v>
+        <v>3.009315235472967</v>
       </c>
       <c r="B20" t="n">
-        <v>4.881513533361572</v>
+        <v>2.962083101128111</v>
       </c>
       <c r="C20" t="n">
-        <v>4.900739578973224</v>
+        <v>2.973759534592772</v>
       </c>
       <c r="D20" t="n">
-        <v>4.831173225524278</v>
+        <v>2.931543698416816</v>
       </c>
       <c r="E20" t="n">
-        <v>4.909885782889741</v>
+        <v>2.979323524997417</v>
       </c>
       <c r="F20" t="n">
-        <v>5.126803988701103</v>
+        <v>3.110894560499793</v>
       </c>
       <c r="G20" t="n">
-        <v>5.292466107068829</v>
+        <v>3.211407967315643</v>
       </c>
       <c r="H20" t="n">
-        <v>5.576015660050579</v>
+        <v>3.38336774073721</v>
       </c>
       <c r="I20" t="n">
-        <v>5.925416753346684</v>
+        <v>3.595459420349228</v>
       </c>
       <c r="J20" t="n">
-        <v>5.723878193479825</v>
+        <v>3.472608306804986</v>
       </c>
       <c r="K20" t="n">
-        <v>6.145487083215323</v>
+        <v>3.728867439563512</v>
       </c>
       <c r="L20" t="n">
-        <v>6.061086228028182</v>
+        <v>3.677759636489002</v>
       </c>
       <c r="M20" t="n">
-        <v>6.168109314572018</v>
+        <v>3.742694149626059</v>
       </c>
       <c r="N20" t="n">
-        <v>6.459140501833439</v>
+        <v>3.919335826685919</v>
       </c>
       <c r="O20" t="n">
-        <v>6.572969118520616</v>
+        <v>3.988414626785572</v>
       </c>
       <c r="P20" t="n">
-        <v>6.934953017341852</v>
+        <v>4.20796069999288</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.303187903062081</v>
+        <v>4.43141114777073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.914973168879409</v>
+        <v>2.982369575914925</v>
       </c>
       <c r="B21" t="n">
-        <v>4.839548081718997</v>
+        <v>2.936611515015389</v>
       </c>
       <c r="C21" t="n">
-        <v>4.85745951521015</v>
+        <v>2.94748494535482</v>
       </c>
       <c r="D21" t="n">
-        <v>4.784385754066024</v>
+        <v>2.903113319538688</v>
       </c>
       <c r="E21" t="n">
-        <v>4.861635507811227</v>
+        <v>2.950006877044994</v>
       </c>
       <c r="F21" t="n">
-        <v>5.070480253247681</v>
+        <v>3.076657807461181</v>
       </c>
       <c r="G21" t="n">
-        <v>5.22524011409179</v>
+        <v>3.170586740734073</v>
       </c>
       <c r="H21" t="n">
-        <v>5.506191459658075</v>
+        <v>3.340982711194432</v>
       </c>
       <c r="I21" t="n">
-        <v>5.843732220153042</v>
+        <v>3.545868654428917</v>
       </c>
       <c r="J21" t="n">
-        <v>5.607166578524577</v>
+        <v>3.402174438931508</v>
       </c>
       <c r="K21" t="n">
-        <v>6.006118773763901</v>
+        <v>3.644249084193376</v>
       </c>
       <c r="L21" t="n">
-        <v>6.00468448055903</v>
+        <v>3.643591701426557</v>
       </c>
       <c r="M21" t="n">
-        <v>6.103905112324771</v>
+        <v>3.703816555608964</v>
       </c>
       <c r="N21" t="n">
-        <v>6.448920614471511</v>
+        <v>3.913094302394362</v>
       </c>
       <c r="O21" t="n">
-        <v>6.548635009035609</v>
+        <v>3.973650699533777</v>
       </c>
       <c r="P21" t="n">
-        <v>6.941700900051883</v>
+        <v>4.212092059821832</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.287720846063809</v>
+        <v>4.422134408541337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.853447379172233</v>
+        <v>2.944994000764412</v>
       </c>
       <c r="B22" t="n">
-        <v>4.793429508467907</v>
+        <v>2.908583017909688</v>
       </c>
       <c r="C22" t="n">
-        <v>4.777939267175802</v>
+        <v>2.89916807241324</v>
       </c>
       <c r="D22" t="n">
-        <v>4.748779691561167</v>
+        <v>2.881461511313095</v>
       </c>
       <c r="E22" t="n">
-        <v>4.80731376746028</v>
+        <v>2.917012649675534</v>
       </c>
       <c r="F22" t="n">
-        <v>5.074539071174529</v>
+        <v>3.079092671104159</v>
       </c>
       <c r="G22" t="n">
-        <v>5.193269286199455</v>
+        <v>3.151167904740713</v>
       </c>
       <c r="H22" t="n">
-        <v>5.587576476839517</v>
+        <v>3.390324439687175</v>
       </c>
       <c r="I22" t="n">
-        <v>5.764950736508621</v>
+        <v>3.498038259943176</v>
       </c>
       <c r="J22" t="n">
-        <v>5.705596437889904</v>
+        <v>3.461719097758312</v>
       </c>
       <c r="K22" t="n">
-        <v>5.71272278853167</v>
+        <v>3.466175917187261</v>
       </c>
       <c r="L22" t="n">
-        <v>5.997823182789985</v>
+        <v>3.639351221381251</v>
       </c>
       <c r="M22" t="n">
-        <v>6.087896670735406</v>
+        <v>3.694030335230042</v>
       </c>
       <c r="N22" t="n">
-        <v>6.424775112349835</v>
+        <v>3.898392349342099</v>
       </c>
       <c r="O22" t="n">
-        <v>6.54893139203513</v>
+        <v>3.973766663526767</v>
       </c>
       <c r="P22" t="n">
-        <v>6.925698724487877</v>
+        <v>4.202342719794778</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.29875656992759</v>
+        <v>4.428737132155323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.867677209463202</v>
+        <v>2.953766581781657</v>
       </c>
       <c r="B23" t="n">
-        <v>4.814418500314554</v>
+        <v>2.911164642540516</v>
       </c>
       <c r="C23" t="n">
-        <v>4.797462009088243</v>
+        <v>2.921457112285558</v>
       </c>
       <c r="D23" t="n">
-        <v>4.762396704571943</v>
+        <v>2.889875364371698</v>
       </c>
       <c r="E23" t="n">
-        <v>4.829599199953882</v>
+        <v>2.930655718398362</v>
       </c>
       <c r="F23" t="n">
-        <v>5.065867518679021</v>
+        <v>3.074015729470072</v>
       </c>
       <c r="G23" t="n">
-        <v>5.178404080936996</v>
+        <v>3.14230065148001</v>
       </c>
       <c r="H23" t="n">
-        <v>5.548527233399419</v>
+        <v>3.366862832751311</v>
       </c>
       <c r="I23" t="n">
-        <v>5.717974344385767</v>
+        <v>3.469706545511543</v>
       </c>
       <c r="J23" t="n">
-        <v>5.587375964028001</v>
+        <v>3.390227486184839</v>
       </c>
       <c r="K23" t="n">
-        <v>5.634958280803154</v>
+        <v>3.419169817576282</v>
       </c>
       <c r="L23" t="n">
-        <v>5.992240154194352</v>
+        <v>3.636164682937809</v>
       </c>
       <c r="M23" t="n">
-        <v>6.08313825107713</v>
+        <v>3.691331605976784</v>
       </c>
       <c r="N23" t="n">
-        <v>6.435515706419167</v>
+        <v>3.9048908954673</v>
       </c>
       <c r="O23" t="n">
-        <v>6.5611770853959</v>
+        <v>3.981178473622992</v>
       </c>
       <c r="P23" t="n">
-        <v>6.898647666406836</v>
+        <v>4.185764431314955</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.314417247109483</v>
+        <v>4.438114626985183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.823341947029528</v>
+        <v>2.926879094325017</v>
       </c>
       <c r="B24" t="n">
-        <v>4.768809981527757</v>
+        <v>2.893779929047146</v>
       </c>
       <c r="C24" t="n">
-        <v>4.752977928552273</v>
+        <v>2.884171076546026</v>
       </c>
       <c r="D24" t="n">
-        <v>4.737787203272369</v>
+        <v>2.874931978088128</v>
       </c>
       <c r="E24" t="n">
-        <v>4.795950330470178</v>
+        <v>2.910222862833512</v>
       </c>
       <c r="F24" t="n">
-        <v>5.040789631983799</v>
+        <v>3.058767414916411</v>
       </c>
       <c r="G24" t="n">
-        <v>5.156145279051174</v>
+        <v>3.128743129965124</v>
       </c>
       <c r="H24" t="n">
-        <v>5.50765958939989</v>
+        <v>3.342014220417324</v>
       </c>
       <c r="I24" t="n">
-        <v>5.654521438579166</v>
+        <v>3.431052895074354</v>
       </c>
       <c r="J24" t="n">
-        <v>5.643197477548831</v>
+        <v>3.424256644665509</v>
       </c>
       <c r="K24" t="n">
-        <v>5.664381029482903</v>
+        <v>3.437055647603295</v>
       </c>
       <c r="L24" t="n">
-        <v>5.968559591154377</v>
+        <v>3.621693137032274</v>
       </c>
       <c r="M24" t="n">
-        <v>6.059328607914742</v>
+        <v>3.676765007617979</v>
       </c>
       <c r="N24" t="n">
-        <v>6.415324692902098</v>
+        <v>3.892742811729511</v>
       </c>
       <c r="O24" t="n">
-        <v>6.567042085132727</v>
+        <v>3.9847999720926</v>
       </c>
       <c r="P24" t="n">
-        <v>6.884904392985059</v>
+        <v>4.177664061247238</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.318421863916968</v>
+        <v>4.440687126580497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.799504420054289</v>
+        <v>2.91227960781738</v>
       </c>
       <c r="B25" t="n">
-        <v>4.746439957691797</v>
+        <v>2.880071654341374</v>
       </c>
       <c r="C25" t="n">
-        <v>4.727605225363869</v>
+        <v>2.868655094283954</v>
       </c>
       <c r="D25" t="n">
-        <v>4.726390243046592</v>
+        <v>2.867922239869238</v>
       </c>
       <c r="E25" t="n">
-        <v>4.797348907330497</v>
+        <v>2.910945641688181</v>
       </c>
       <c r="F25" t="n">
-        <v>5.009154663050753</v>
+        <v>3.039511308723049</v>
       </c>
       <c r="G25" t="n">
-        <v>5.170533326482479</v>
+        <v>3.13737940576438</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3240832178296</v>
+        <v>3.230568640845921</v>
       </c>
       <c r="I25" t="n">
-        <v>5.555761986279911</v>
+        <v>3.371117000349888</v>
       </c>
       <c r="J25" t="n">
-        <v>5.3249103331771</v>
+        <v>3.231091049129096</v>
       </c>
       <c r="K25" t="n">
-        <v>5.407954593873832</v>
+        <v>3.281497745308282</v>
       </c>
       <c r="L25" t="n">
-        <v>5.945301984826193</v>
+        <v>3.607462644148233</v>
       </c>
       <c r="M25" t="n">
-        <v>6.064111465071921</v>
+        <v>3.679532174637591</v>
       </c>
       <c r="N25" t="n">
-        <v>6.419551127007321</v>
+        <v>3.895271967406134</v>
       </c>
       <c r="O25" t="n">
-        <v>6.60893923709888</v>
+        <v>4.010178596906024</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945861540890828</v>
+        <v>4.214671403193782</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.318065327073992</v>
+        <v>4.440555954194983</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.824984272276347</v>
+        <v>2.927653011399546</v>
       </c>
       <c r="B26" t="n">
-        <v>4.76340710116122</v>
+        <v>2.890279717507911</v>
       </c>
       <c r="C26" t="n">
-        <v>4.750952435854698</v>
+        <v>2.88272646936122</v>
       </c>
       <c r="D26" t="n">
-        <v>4.727606165267672</v>
+        <v>2.868621445715497</v>
       </c>
       <c r="E26" t="n">
-        <v>4.770608017504768</v>
+        <v>2.894702698263496</v>
       </c>
       <c r="F26" t="n">
-        <v>4.988257781776895</v>
+        <v>3.026936819679888</v>
       </c>
       <c r="G26" t="n">
-        <v>5.129354887625102</v>
+        <v>3.112480415630159</v>
       </c>
       <c r="H26" t="n">
-        <v>5.242297801627663</v>
+        <v>3.181102013429581</v>
       </c>
       <c r="I26" t="n">
-        <v>5.508998639019292</v>
+        <v>3.342839655921526</v>
       </c>
       <c r="J26" t="n">
-        <v>5.323796233868118</v>
+        <v>3.230256488589381</v>
       </c>
       <c r="K26" t="n">
-        <v>5.43337523215624</v>
+        <v>3.296778757905869</v>
       </c>
       <c r="L26" t="n">
-        <v>5.910485441516679</v>
+        <v>3.586446166520302</v>
       </c>
       <c r="M26" t="n">
-        <v>6.001763259536264</v>
+        <v>3.641811559081706</v>
       </c>
       <c r="N26" t="n">
-        <v>6.411917228311406</v>
+        <v>3.890720475733727</v>
       </c>
       <c r="O26" t="n">
-        <v>6.562103830546623</v>
+        <v>3.981854106460839</v>
       </c>
       <c r="P26" t="n">
-        <v>6.917185702433975</v>
+        <v>4.197228137389196</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.276138098186111</v>
+        <v>4.4151058499367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.757367279316853</v>
+        <v>2.88676886009391</v>
       </c>
       <c r="B27" t="n">
-        <v>4.707481884920685</v>
+        <v>2.856513284008081</v>
       </c>
       <c r="C27" t="n">
-        <v>4.699607370850951</v>
+        <v>2.851735947706703</v>
       </c>
       <c r="D27" t="n">
-        <v>4.71279140150936</v>
+        <v>2.859751911195915</v>
       </c>
       <c r="E27" t="n">
-        <v>4.73168848078962</v>
+        <v>2.871231966292119</v>
       </c>
       <c r="F27" t="n">
-        <v>4.985055216215471</v>
+        <v>3.024908970641814</v>
       </c>
       <c r="G27" t="n">
-        <v>5.025375209598549</v>
+        <v>3.049379844526504</v>
       </c>
       <c r="H27" t="n">
-        <v>5.324769347606503</v>
+        <v>3.230925657860405</v>
       </c>
       <c r="I27" t="n">
-        <v>5.369991879231134</v>
+        <v>3.258388212659333</v>
       </c>
       <c r="J27" t="n">
-        <v>5.543043208004471</v>
+        <v>3.363142859940115</v>
       </c>
       <c r="K27" t="n">
-        <v>5.501178639370189</v>
+        <v>3.3378110009337</v>
       </c>
       <c r="L27" t="n">
-        <v>5.870406063507421</v>
+        <v>3.562000196378369</v>
       </c>
       <c r="M27" t="n">
-        <v>5.929348057657459</v>
+        <v>3.597769575173516</v>
       </c>
       <c r="N27" t="n">
-        <v>6.426693142712487</v>
+        <v>3.899452754510786</v>
       </c>
       <c r="O27" t="n">
-        <v>6.542553831423866</v>
+        <v>3.969761153145946</v>
       </c>
       <c r="P27" t="n">
-        <v>6.933122711334238</v>
+        <v>4.206648976137747</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.231555327750723</v>
+        <v>4.387774467523286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.651137784884843</v>
+        <v>2.822347249994701</v>
       </c>
       <c r="B28" t="n">
-        <v>4.605938750855312</v>
+        <v>2.794922526072175</v>
       </c>
       <c r="C28" t="n">
-        <v>4.600822541148989</v>
+        <v>2.791814881164948</v>
       </c>
       <c r="D28" t="n">
-        <v>4.653612238299451</v>
+        <v>2.823844326133712</v>
       </c>
       <c r="E28" t="n">
-        <v>4.663665762688074</v>
+        <v>2.82994897489256</v>
       </c>
       <c r="F28" t="n">
-        <v>4.951798599919294</v>
+        <v>3.004752147401261</v>
       </c>
       <c r="G28" t="n">
-        <v>4.949185667344233</v>
+        <v>3.00314956303912</v>
       </c>
       <c r="H28" t="n">
-        <v>5.251499146567346</v>
+        <v>3.186485784382825</v>
       </c>
       <c r="I28" t="n">
-        <v>5.134968933046266</v>
+        <v>3.115896600800703</v>
       </c>
       <c r="J28" t="n">
-        <v>5.275102950796662</v>
+        <v>3.200820644860557</v>
       </c>
       <c r="K28" t="n">
-        <v>5.055329317228813</v>
+        <v>3.067726298742066</v>
       </c>
       <c r="L28" t="n">
-        <v>5.855110069001471</v>
+        <v>3.552799118901779</v>
       </c>
       <c r="M28" t="n">
-        <v>5.901390932309381</v>
+        <v>3.580870769821265</v>
       </c>
       <c r="N28" t="n">
-        <v>6.410408369404752</v>
+        <v>3.889666534131863</v>
       </c>
       <c r="O28" t="n">
-        <v>6.507986049321139</v>
+        <v>3.948879269791846</v>
       </c>
       <c r="P28" t="n">
-        <v>6.932993631211824</v>
+        <v>4.206655059494756</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.207693676577848</v>
+        <v>4.373479338971021</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.679023477543819</v>
+        <v>2.839055570230598</v>
       </c>
       <c r="B29" t="n">
-        <v>4.620680202116914</v>
+        <v>2.803652713695262</v>
       </c>
       <c r="C29" t="n">
-        <v>4.630620624747793</v>
+        <v>2.809680560071867</v>
       </c>
       <c r="D29" t="n">
-        <v>4.634952328079062</v>
+        <v>2.812348492330265</v>
       </c>
       <c r="E29" t="n">
-        <v>4.645367715432218</v>
+        <v>2.818648188723224</v>
       </c>
       <c r="F29" t="n">
-        <v>4.915487296260185</v>
+        <v>2.982657584848335</v>
       </c>
       <c r="G29" t="n">
-        <v>4.890002744519108</v>
+        <v>2.967133618180188</v>
       </c>
       <c r="H29" t="n">
-        <v>5.207718740679288</v>
+        <v>3.16004428303693</v>
       </c>
       <c r="I29" t="n">
-        <v>5.029638926554663</v>
+        <v>3.051936945624389</v>
       </c>
       <c r="J29" t="n">
-        <v>5.287947049579299</v>
+        <v>3.208713800580143</v>
       </c>
       <c r="K29" t="n">
-        <v>4.926371695611526</v>
+        <v>2.9894718952233</v>
       </c>
       <c r="L29" t="n">
-        <v>5.843504136829942</v>
+        <v>3.54573710183359</v>
       </c>
       <c r="M29" t="n">
-        <v>5.885114304834614</v>
+        <v>3.570965163561034</v>
       </c>
       <c r="N29" t="n">
-        <v>6.393738862139923</v>
+        <v>3.879569682335652</v>
       </c>
       <c r="O29" t="n">
-        <v>6.475949741463793</v>
+        <v>3.92946727757512</v>
       </c>
       <c r="P29" t="n">
-        <v>6.901196685523225</v>
+        <v>4.187479937991582</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.219343470926895</v>
+        <v>4.380563788418182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.553054750023184</v>
+        <v>2.762822932392897</v>
       </c>
       <c r="B30" t="n">
-        <v>4.516144101038406</v>
+        <v>2.740442642165439</v>
       </c>
       <c r="C30" t="n">
-        <v>4.512364747842607</v>
+        <v>2.738151687936713</v>
       </c>
       <c r="D30" t="n">
-        <v>4.592090208207491</v>
+        <v>2.786549735673385</v>
       </c>
       <c r="E30" t="n">
-        <v>4.585653746957845</v>
+        <v>2.78263129333976</v>
       </c>
       <c r="F30" t="n">
-        <v>4.935853445186063</v>
+        <v>2.995063260734487</v>
       </c>
       <c r="G30" t="n">
-        <v>4.823551545577815</v>
+        <v>2.92688935998997</v>
       </c>
       <c r="H30" t="n">
-        <v>5.318317221293458</v>
+        <v>3.22701329888379</v>
       </c>
       <c r="I30" t="n">
-        <v>4.853345556260135</v>
+        <v>2.944881648764646</v>
       </c>
       <c r="J30" t="n">
-        <v>5.532944881534524</v>
+        <v>3.35735188427706</v>
       </c>
       <c r="K30" t="n">
-        <v>4.744522867232948</v>
+        <v>2.878988056374089</v>
       </c>
       <c r="L30" t="n">
-        <v>5.804968707469353</v>
+        <v>3.522267890701465</v>
       </c>
       <c r="M30" t="n">
-        <v>5.818992698827251</v>
+        <v>3.530772804010301</v>
       </c>
       <c r="N30" t="n">
-        <v>6.399575038160094</v>
+        <v>3.883121222199653</v>
       </c>
       <c r="O30" t="n">
-        <v>6.419669554886623</v>
+        <v>3.895365118810339</v>
       </c>
       <c r="P30" t="n">
-        <v>6.869619050722222</v>
+        <v>4.168343597889341</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.2411962343694</v>
+        <v>4.39378368361905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.626438679422623</v>
+        <v>2.80723847244244</v>
       </c>
       <c r="B31" t="n">
-        <v>4.583135744666986</v>
+        <v>2.780966924882993</v>
       </c>
       <c r="C31" t="n">
-        <v>4.573751745088063</v>
+        <v>2.775277275135124</v>
       </c>
       <c r="D31" t="n">
-        <v>4.62246664594701</v>
+        <v>2.804857218383106</v>
       </c>
       <c r="E31" t="n">
-        <v>4.627832556763924</v>
+        <v>2.808083108542202</v>
       </c>
       <c r="F31" t="n">
-        <v>4.960701682051847</v>
+        <v>3.010120329752169</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8342495306747</v>
+        <v>2.933324411076387</v>
       </c>
       <c r="H31" t="n">
-        <v>5.38428155006429</v>
+        <v>3.267153949899943</v>
       </c>
       <c r="I31" t="n">
-        <v>4.71349538945854</v>
+        <v>2.860140865834698</v>
       </c>
       <c r="J31" t="n">
-        <v>5.620553941705912</v>
+        <v>3.410481262927728</v>
       </c>
       <c r="K31" t="n">
-        <v>4.655148041115152</v>
+        <v>2.824659305868054</v>
       </c>
       <c r="L31" t="n">
-        <v>5.793340217606529</v>
+        <v>3.515341228326734</v>
       </c>
       <c r="M31" t="n">
-        <v>5.810799870669237</v>
+        <v>3.525897373577148</v>
       </c>
       <c r="N31" t="n">
-        <v>6.362306599127268</v>
+        <v>3.860630671126401</v>
       </c>
       <c r="O31" t="n">
-        <v>6.445456129050045</v>
+        <v>3.911037367305587</v>
       </c>
       <c r="P31" t="n">
-        <v>6.836422274968231</v>
+        <v>4.14837687955533</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.221812911521216</v>
+        <v>4.382245836631258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.569206996894557</v>
+        <v>2.772526076927661</v>
       </c>
       <c r="B32" t="n">
-        <v>4.529714118858982</v>
+        <v>2.748550046114698</v>
       </c>
       <c r="C32" t="n">
-        <v>4.522884151216736</v>
+        <v>2.74440804041098</v>
       </c>
       <c r="D32" t="n">
-        <v>4.583869809537894</v>
+        <v>2.781391809349112</v>
       </c>
       <c r="E32" t="n">
-        <v>4.574691335590773</v>
+        <v>2.775826678315028</v>
       </c>
       <c r="F32" t="n">
-        <v>4.917248049386306</v>
+        <v>2.983689664385946</v>
       </c>
       <c r="G32" t="n">
-        <v>4.769283379743695</v>
+        <v>2.893881825277052</v>
       </c>
       <c r="H32" t="n">
-        <v>5.372300282973705</v>
+        <v>3.259796129597176</v>
       </c>
       <c r="I32" t="n">
-        <v>4.659018878281204</v>
+        <v>2.827064893355425</v>
       </c>
       <c r="J32" t="n">
-        <v>5.61723733448294</v>
+        <v>3.408318629510916</v>
       </c>
       <c r="K32" t="n">
-        <v>4.55809106790617</v>
+        <v>2.765872405198723</v>
       </c>
       <c r="L32" t="n">
-        <v>5.784045195587716</v>
+        <v>3.509570023573959</v>
       </c>
       <c r="M32" t="n">
-        <v>5.794805214335663</v>
+        <v>3.516089861448692</v>
       </c>
       <c r="N32" t="n">
-        <v>6.353060452106262</v>
+        <v>3.854910794698392</v>
       </c>
       <c r="O32" t="n">
-        <v>6.441170167703903</v>
+        <v>3.908328752597189</v>
       </c>
       <c r="P32" t="n">
-        <v>6.805253811623227</v>
+        <v>4.129262591622248</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.20846439769711</v>
+        <v>4.37404166928457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.580152489993157</v>
+        <v>2.779070248230432</v>
       </c>
       <c r="B33" t="n">
-        <v>4.531682590725781</v>
+        <v>2.749651133733384</v>
       </c>
       <c r="C33" t="n">
-        <v>4.528144792807606</v>
+        <v>2.747513974374049</v>
       </c>
       <c r="D33" t="n">
-        <v>4.596056602260281</v>
+        <v>2.788720353496271</v>
       </c>
       <c r="E33" t="n">
-        <v>4.59785338503222</v>
+        <v>2.789829425521032</v>
       </c>
       <c r="F33" t="n">
-        <v>4.831748446652314</v>
+        <v>2.931753574233637</v>
       </c>
       <c r="G33" t="n">
-        <v>4.869539472200151</v>
+        <v>2.954715395370204</v>
       </c>
       <c r="H33" t="n">
-        <v>4.623381485649548</v>
+        <v>2.805359855756001</v>
       </c>
       <c r="I33" t="n">
-        <v>4.563661877752351</v>
+        <v>2.76911635532394</v>
       </c>
       <c r="J33" t="n">
-        <v>4.179831481513972</v>
+        <v>2.536288412716231</v>
       </c>
       <c r="K33" t="n">
-        <v>4.185417956423553</v>
+        <v>2.539683686347055</v>
       </c>
       <c r="L33" t="n">
-        <v>5.753560982212007</v>
+        <v>3.491156462326388</v>
       </c>
       <c r="M33" t="n">
-        <v>5.772016306704397</v>
+        <v>3.502343755866518</v>
       </c>
       <c r="N33" t="n">
-        <v>6.435104028553025</v>
+        <v>3.904638436151413</v>
       </c>
       <c r="O33" t="n">
-        <v>6.404223175772037</v>
+        <v>3.885920707053377</v>
       </c>
       <c r="P33" t="n">
-        <v>6.987212295445602</v>
+        <v>4.2396952922516</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.138434671672803</v>
+        <v>4.331474519241326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.557899327530158</v>
+        <v>2.765579833747556</v>
       </c>
       <c r="B34" t="n">
-        <v>4.497137053013081</v>
+        <v>2.728702713661994</v>
       </c>
       <c r="C34" t="n">
-        <v>4.503211964599463</v>
+        <v>2.732393410317583</v>
       </c>
       <c r="D34" t="n">
-        <v>4.521988109590277</v>
+        <v>2.743811491214254</v>
       </c>
       <c r="E34" t="n">
-        <v>4.548876877614499</v>
+        <v>2.760127054713238</v>
       </c>
       <c r="F34" t="n">
-        <v>4.811652363419445</v>
+        <v>2.919646363050754</v>
       </c>
       <c r="G34" t="n">
-        <v>4.823700050378844</v>
+        <v>2.926922818453521</v>
       </c>
       <c r="H34" t="n">
-        <v>4.878132699378661</v>
+        <v>2.960164372306392</v>
       </c>
       <c r="I34" t="n">
-        <v>4.815311408928334</v>
+        <v>2.921814699614762</v>
       </c>
       <c r="J34" t="n">
-        <v>4.588159217197984</v>
+        <v>2.784238250114752</v>
       </c>
       <c r="K34" t="n">
-        <v>4.56008429057314</v>
+        <v>2.767110558455025</v>
       </c>
       <c r="L34" t="n">
-        <v>5.735003521506252</v>
+        <v>3.480009090816631</v>
       </c>
       <c r="M34" t="n">
-        <v>5.703121984475295</v>
+        <v>3.460645385246167</v>
       </c>
       <c r="N34" t="n">
-        <v>6.353549202084331</v>
+        <v>3.85519671247783</v>
       </c>
       <c r="O34" t="n">
-        <v>6.386665772713715</v>
+        <v>3.875298405295486</v>
       </c>
       <c r="P34" t="n">
-        <v>6.97396779764247</v>
+        <v>4.231617734772668</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.138979815879111</v>
+        <v>4.331824312269362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.56326711815468</v>
+        <v>2.768833099013194</v>
       </c>
       <c r="B35" t="n">
-        <v>4.50238202954055</v>
+        <v>2.731891343259408</v>
       </c>
       <c r="C35" t="n">
-        <v>4.501419568045276</v>
+        <v>2.73130753109142</v>
       </c>
       <c r="D35" t="n">
-        <v>4.510103025988967</v>
+        <v>2.736588455290225</v>
       </c>
       <c r="E35" t="n">
-        <v>4.506916752093479</v>
+        <v>2.734658700383926</v>
       </c>
       <c r="F35" t="n">
-        <v>4.829080373054086</v>
+        <v>2.930141294521262</v>
       </c>
       <c r="G35" t="n">
-        <v>4.809278166410595</v>
+        <v>2.91816924792693</v>
       </c>
       <c r="H35" t="n">
-        <v>5.155972336751241</v>
+        <v>3.128511201979144</v>
       </c>
       <c r="I35" t="n">
-        <v>5.132071522919867</v>
+        <v>3.114058096249544</v>
       </c>
       <c r="J35" t="n">
-        <v>5.068059061048632</v>
+        <v>3.075239244648571</v>
       </c>
       <c r="K35" t="n">
-        <v>5.027398195885978</v>
+        <v>3.050483973823695</v>
       </c>
       <c r="L35" t="n">
-        <v>5.616854480333453</v>
+        <v>3.408177571670262</v>
       </c>
       <c r="M35" t="n">
-        <v>5.663587750672344</v>
+        <v>3.436514228829466</v>
       </c>
       <c r="N35" t="n">
-        <v>6.309476486113234</v>
+        <v>3.828442868770488</v>
       </c>
       <c r="O35" t="n">
-        <v>6.357682899014229</v>
+        <v>3.857671878360995</v>
       </c>
       <c r="P35" t="n">
-        <v>6.989006258506129</v>
+        <v>4.240691061752062</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.096781268093149</v>
+        <v>4.306091331910145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.542373996496039</v>
+        <v>2.756280281929378</v>
       </c>
       <c r="B36" t="n">
-        <v>4.480547750872858</v>
+        <v>2.718770492714847</v>
       </c>
       <c r="C36" t="n">
-        <v>4.474921486702241</v>
+        <v>2.715356208593369</v>
       </c>
       <c r="D36" t="n">
-        <v>4.460010852755923</v>
+        <v>2.706302462419349</v>
       </c>
       <c r="E36" t="n">
-        <v>4.476976116417738</v>
+        <v>2.716606338458783</v>
       </c>
       <c r="F36" t="n">
-        <v>4.814351140541936</v>
+        <v>2.921282025666634</v>
       </c>
       <c r="G36" t="n">
-        <v>4.769966689809187</v>
+        <v>2.894362790690601</v>
       </c>
       <c r="H36" t="n">
-        <v>5.302886507242272</v>
+        <v>3.217703481400659</v>
       </c>
       <c r="I36" t="n">
-        <v>5.21394184376543</v>
+        <v>3.163734219272893</v>
       </c>
       <c r="J36" t="n">
-        <v>5.336852750910453</v>
+        <v>3.238292983408499</v>
       </c>
       <c r="K36" t="n">
-        <v>5.369480571561769</v>
+        <v>3.258069216626157</v>
       </c>
       <c r="L36" t="n">
-        <v>5.65018284262</v>
+        <v>3.428383822186516</v>
       </c>
       <c r="M36" t="n">
-        <v>5.595492973279161</v>
+        <v>3.395208614946029</v>
       </c>
       <c r="N36" t="n">
-        <v>6.306834103218983</v>
+        <v>3.826820133288253</v>
       </c>
       <c r="O36" t="n">
-        <v>6.307767740997601</v>
+        <v>3.827363833320961</v>
       </c>
       <c r="P36" t="n">
-        <v>6.995733463332472</v>
+        <v>4.244769192207182</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.033535141123423</v>
+        <v>4.267708390859871</v>
       </c>
     </row>
   </sheetData>
